--- a/A-client-系统首页-看板-商品-订单-物流界面.xlsx
+++ b/A-client-系统首页-看板-商品-订单-物流界面.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="897" firstSheet="1" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="230" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="系统首页" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="对账单列表" sheetId="29" r:id="rId19"/>
     <sheet name="付款单列表" sheetId="30" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -2512,8 +2512,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3771,189 +3771,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3968,9 +3785,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3982,6 +3796,192 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4020,7 +4020,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4069,7 +4069,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EBEAB4-B18E-43BA-9835-7198C14D2EDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4EBEAB4-B18E-43BA-9835-7198C14D2EDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4113,7 +4113,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B44FF6D-8A2E-4D18-A54F-1926190E32FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B44FF6D-8A2E-4D18-A54F-1926190E32FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4157,7 +4157,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9573305B-890F-40BC-9163-901041E47FBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9573305B-890F-40BC-9163-901041E47FBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4201,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B3C7F6-97BC-4A19-99CB-C00A1BECF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6B3C7F6-97BC-4A19-99CB-C00A1BECF2DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,7 +4245,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6F5B00-5660-43EC-ADE6-B604A31CBEE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE6F5B00-5660-43EC-ADE6-B604A31CBEE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4284,7 +4284,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323ABA9A-637C-4D14-B472-876C197A0DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{323ABA9A-637C-4D14-B472-876C197A0DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4323,7 +4323,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5133D643-639B-45CE-80E2-308278394E6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5133D643-639B-45CE-80E2-308278394E6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,7 +4362,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B146CC-19D0-4243-A1DD-223848A2BF34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8B146CC-19D0-4243-A1DD-223848A2BF34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4411,7 +4411,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C2AD8E-04AF-4016-9CD2-A687AF016ADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23C2AD8E-04AF-4016-9CD2-A687AF016ADB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4455,7 +4455,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04D4F39-98A0-44F0-8D38-207FC0C1726C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A04D4F39-98A0-44F0-8D38-207FC0C1726C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4499,7 +4499,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C7DB7F-3154-4052-80CA-1A43FCF69E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0C7DB7F-3154-4052-80CA-1A43FCF69E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4538,7 +4538,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14702AF-7C6D-4443-BBAE-E511DD619764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A14702AF-7C6D-4443-BBAE-E511DD619764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4577,7 +4577,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE55327-9E7C-41E7-A61B-F975C2884776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEE55327-9E7C-41E7-A61B-F975C2884776}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4616,7 +4616,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EFC32F-F68F-4E36-9AA1-1686C265A3B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08EFC32F-F68F-4E36-9AA1-1686C265A3B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4660,7 +4660,7 @@
         <xdr:cNvPr id="12" name="图片 11" descr="https://ss0.bdstatic.com/70cFuHSh_Q1YnxGkpoWK1HF6hhy/it/u=2537462398,2855292832&amp;fm=200&amp;gp=0.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD77F9C-7B3C-4512-8D1D-787607013DF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD77F9C-7B3C-4512-8D1D-787607013DF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4672,7 +4672,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4692,7 +4692,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4721,7 +4721,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF1926D-F7CD-498A-9A82-43DA133F07F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECF1926D-F7CD-498A-9A82-43DA133F07F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4765,7 +4765,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1F137D-9549-4ABC-A99F-3DBEF0921E33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA1F137D-9549-4ABC-A99F-3DBEF0921E33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4809,7 +4809,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F71826D-6396-475A-89AF-2E76A1002CC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F71826D-6396-475A-89AF-2E76A1002CC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4858,7 +4858,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55921C75-0458-4BFD-A019-D4E82504CDD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55921C75-0458-4BFD-A019-D4E82504CDD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4902,7 +4902,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02B4FE6-D895-4D7F-84BF-3CCEC286BB5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D02B4FE6-D895-4D7F-84BF-3CCEC286BB5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4951,7 +4951,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EED164A-6DF5-4AE4-AF88-4838A64394EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EED164A-6DF5-4AE4-AF88-4838A64394EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4995,7 +4995,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A70AB5A-1656-4284-AFD9-F6DC3AC5EBC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A70AB5A-1656-4284-AFD9-F6DC3AC5EBC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5044,7 +5044,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896D22D9-F149-4AAE-B85A-70C299948A89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{896D22D9-F149-4AAE-B85A-70C299948A89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5056,7 +5056,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5094,7 +5094,7 @@
         <xdr:cNvPr id="4" name="直接箭头连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C98E19-F8FA-4A57-AFEE-1934B2BA1484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14C98E19-F8FA-4A57-AFEE-1934B2BA1484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5152,7 +5152,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5205,7 +5205,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5249,7 +5249,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5293,7 +5293,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5337,7 +5337,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5390,7 +5390,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5434,7 +5434,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5492,7 +5492,7 @@
         <xdr:cNvPr id="11" name="矩形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5550,7 +5550,7 @@
         <xdr:cNvPr id="12" name="矩形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5608,7 +5608,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5666,7 @@
         <xdr:cNvPr id="14" name="矩形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5782,7 +5782,7 @@
         <xdr:cNvPr id="16" name="矩形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5840,7 +5840,7 @@
         <xdr:cNvPr id="17" name="矩形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5898,7 +5898,7 @@
         <xdr:cNvPr id="18" name="矩形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5956,7 +5956,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6000,7 +6000,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6049,7 +6049,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6093,7 +6093,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6137,7 +6137,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6181,7 +6181,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6225,7 +6225,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6269,7 +6269,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6313,7 +6313,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6371,7 +6371,7 @@
         <xdr:cNvPr id="14" name="矩形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6429,7 +6429,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6487,7 +6487,7 @@
         <xdr:cNvPr id="16" name="矩形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6545,7 +6545,7 @@
         <xdr:cNvPr id="17" name="矩形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6603,7 +6603,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6647,7 +6647,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6691,7 +6691,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6735,7 +6735,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6779,7 +6779,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6818,7 +6818,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6857,7 +6857,7 @@
         <xdr:cNvPr id="27" name="图片 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6896,7 +6896,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6940,7 +6940,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6984,7 +6984,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7028,7 +7028,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7072,7 +7072,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7116,7 +7116,7 @@
         <xdr:cNvPr id="34" name="图片 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7160,7 +7160,7 @@
         <xdr:cNvPr id="35" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7199,7 +7199,7 @@
         <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7258,7 +7258,7 @@
         <xdr:cNvPr id="37" name="文本框 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7317,7 +7317,7 @@
         <xdr:cNvPr id="38" name="文本框 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7376,7 +7376,7 @@
         <xdr:cNvPr id="43" name="文本框 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7431,7 +7431,7 @@
         <xdr:cNvPr id="45" name="文本框 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7490,7 +7490,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7549,7 +7549,7 @@
         <xdr:cNvPr id="47" name="文本框 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7608,7 +7608,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7647,7 +7647,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7686,7 +7686,7 @@
         <xdr:cNvPr id="51" name="图片 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7730,7 +7730,7 @@
         <xdr:cNvPr id="40" name="直接箭头连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7788,7 +7788,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7832,7 +7832,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7876,7 +7876,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7920,7 +7920,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7969,7 +7969,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8013,7 +8013,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8057,7 +8057,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8101,7 +8101,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8145,7 +8145,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8189,7 +8189,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8247,7 +8247,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8291,7 +8291,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8335,7 +8335,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8379,7 +8379,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8423,7 +8423,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8467,7 +8467,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8516,7 +8516,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8560,7 +8560,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8604,7 +8604,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8648,7 +8648,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8697,7 +8697,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8741,7 +8741,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE41D95-F6AD-40B5-ABBA-BAAFB9CEC8C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEE41D95-F6AD-40B5-ABBA-BAAFB9CEC8C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8785,7 +8785,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE48783-D10B-4CEC-A64B-6A3CA9D9B51B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BE48783-D10B-4CEC-A64B-6A3CA9D9B51B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8829,7 +8829,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9C8690-5C6D-4FBD-A233-BCD270CD2F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D9C8690-5C6D-4FBD-A233-BCD270CD2F82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8878,7 +8878,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC191DDC-58B1-4C1A-90FF-88DF7212E750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC191DDC-58B1-4C1A-90FF-88DF7212E750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8922,7 +8922,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822489D3-1B7E-4227-B347-8E7C0C055EA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{822489D3-1B7E-4227-B347-8E7C0C055EA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8966,7 +8966,7 @@
         <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C77AF2E-9D7B-4091-A2E3-C099A7A81421}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C77AF2E-9D7B-4091-A2E3-C099A7A81421}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9002,7 +9002,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9044,7 +9044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9076,27 +9076,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9128,24 +9110,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9321,14 +9285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="28.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="9" style="15"/>
@@ -9336,7 +9300,7 @@
     <col min="18" max="18" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:18" s="4" customFormat="1" ht="35.25" customHeight="1">
       <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
@@ -9367,7 +9331,7 @@
       <c r="Q1" s="78"/>
       <c r="R1" s="79"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18">
       <c r="C2" s="72"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -9385,7 +9349,7 @@
       <c r="Q2" s="28"/>
       <c r="R2" s="80"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18">
       <c r="C3" s="72"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -9403,7 +9367,7 @@
       <c r="Q3" s="28"/>
       <c r="R3" s="80"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18">
       <c r="C4" s="72"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -9421,7 +9385,7 @@
       <c r="Q4" s="28"/>
       <c r="R4" s="80"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18">
       <c r="C5" s="72"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -9441,7 +9405,7 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="80"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18">
       <c r="C6" s="72"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -9459,7 +9423,7 @@
       <c r="Q6" s="28"/>
       <c r="R6" s="80"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18">
       <c r="C7" s="72"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -9479,7 +9443,7 @@
       <c r="Q7" s="28"/>
       <c r="R7" s="80"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18">
       <c r="C8" s="72"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -9497,7 +9461,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="80"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18">
       <c r="C9" s="72"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -9515,7 +9479,7 @@
       <c r="Q9" s="28"/>
       <c r="R9" s="80"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:18">
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
@@ -9530,15 +9494,15 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
-      <c r="N10" s="250" t="s">
+      <c r="N10" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="250"/>
+      <c r="O10" s="269"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="80"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18">
       <c r="C11" s="72"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -9558,7 +9522,7 @@
       <c r="Q11" s="28"/>
       <c r="R11" s="80"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:18">
       <c r="C12" s="72"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -9576,7 +9540,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="80"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:18">
       <c r="C13" s="72"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -9594,7 +9558,7 @@
       <c r="Q13" s="28"/>
       <c r="R13" s="80"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:18">
       <c r="C14" s="72"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -9612,7 +9576,7 @@
       <c r="Q14" s="28"/>
       <c r="R14" s="80"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:18">
       <c r="C15" s="72"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -9630,7 +9594,7 @@
       <c r="Q15" s="28"/>
       <c r="R15" s="80"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:18">
       <c r="C16" s="72"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -9648,7 +9612,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="80"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:18">
       <c r="C18" s="72"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -9666,7 +9630,7 @@
       <c r="Q18" s="28"/>
       <c r="R18" s="80"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18">
       <c r="C19" s="72"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -9684,7 +9648,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="80"/>
     </row>
-    <row r="20" spans="2:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18" ht="27">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -9705,7 +9669,7 @@
       <c r="Q20" s="28"/>
       <c r="R20" s="80"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18">
       <c r="C21" s="72"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -9723,7 +9687,7 @@
       <c r="Q21" s="28"/>
       <c r="R21" s="80"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18">
       <c r="C22" s="72"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -9741,7 +9705,7 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="80"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18">
       <c r="C23" s="72"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -9759,7 +9723,7 @@
       <c r="Q23" s="28"/>
       <c r="R23" s="80"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18">
       <c r="C24" s="72"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -9777,7 +9741,7 @@
       <c r="Q24" s="28"/>
       <c r="R24" s="80"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18">
       <c r="C25" s="72"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -9795,7 +9759,7 @@
       <c r="Q25" s="28"/>
       <c r="R25" s="80"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:18">
       <c r="C26" s="72"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -9813,7 +9777,7 @@
       <c r="Q26" s="28"/>
       <c r="R26" s="80"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18">
       <c r="C27" s="72"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -9831,7 +9795,7 @@
       <c r="Q27" s="28"/>
       <c r="R27" s="80"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18">
       <c r="C28" s="72"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -9849,7 +9813,7 @@
       <c r="Q28" s="28"/>
       <c r="R28" s="80"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18">
       <c r="C29" s="72"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
@@ -9867,7 +9831,7 @@
       <c r="Q29" s="28"/>
       <c r="R29" s="80"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18">
       <c r="C30" s="72"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -9885,7 +9849,7 @@
       <c r="Q30" s="28"/>
       <c r="R30" s="80"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18">
       <c r="C31" s="72"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
@@ -9903,7 +9867,7 @@
       <c r="Q31" s="28"/>
       <c r="R31" s="80"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18">
       <c r="C32" s="72"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -9921,7 +9885,7 @@
       <c r="Q32" s="28"/>
       <c r="R32" s="80"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:18">
       <c r="C33" s="72"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -9939,7 +9903,7 @@
       <c r="Q33" s="28"/>
       <c r="R33" s="80"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:18">
       <c r="C34" s="72"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -9957,7 +9921,7 @@
       <c r="Q34" s="28"/>
       <c r="R34" s="80"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:18">
       <c r="C35" s="72"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -9975,7 +9939,7 @@
       <c r="Q35" s="28"/>
       <c r="R35" s="80"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:18">
       <c r="C37" s="72"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -9993,7 +9957,7 @@
       <c r="Q37" s="28"/>
       <c r="R37" s="80"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:18">
       <c r="C38" s="72"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -10011,7 +9975,7 @@
       <c r="Q38" s="28"/>
       <c r="R38" s="80"/>
     </row>
-    <row r="39" spans="2:18" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:18" ht="40.5">
       <c r="B39" s="7" t="s">
         <v>11</v>
       </c>
@@ -10032,7 +9996,7 @@
       <c r="Q39" s="28"/>
       <c r="R39" s="80"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:18">
       <c r="C40" s="72"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
@@ -10050,7 +10014,7 @@
       <c r="Q40" s="28"/>
       <c r="R40" s="80"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:18">
       <c r="C41" s="72"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
@@ -10068,7 +10032,7 @@
       <c r="Q41" s="28"/>
       <c r="R41" s="80"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:18">
       <c r="C42" s="72"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
@@ -10086,7 +10050,7 @@
       <c r="Q42" s="28"/>
       <c r="R42" s="80"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:18">
       <c r="C43" s="72"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
@@ -10104,7 +10068,7 @@
       <c r="Q43" s="28"/>
       <c r="R43" s="80"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:18">
       <c r="C44" s="72"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
@@ -10122,7 +10086,7 @@
       <c r="Q44" s="28"/>
       <c r="R44" s="80"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:18">
       <c r="C45" s="72"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
@@ -10140,7 +10104,7 @@
       <c r="Q45" s="28"/>
       <c r="R45" s="80"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:18">
       <c r="C46" s="72"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
@@ -10158,7 +10122,7 @@
       <c r="Q46" s="28"/>
       <c r="R46" s="80"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:18">
       <c r="C47" s="72"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
@@ -10176,7 +10140,7 @@
       <c r="Q47" s="28"/>
       <c r="R47" s="80"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:18">
       <c r="C48" s="72"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
@@ -10194,7 +10158,7 @@
       <c r="Q48" s="28"/>
       <c r="R48" s="80"/>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:18">
       <c r="C49" s="72"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
@@ -10212,7 +10176,7 @@
       <c r="Q49" s="28"/>
       <c r="R49" s="80"/>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:18">
       <c r="C50" s="72"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
@@ -10230,7 +10194,7 @@
       <c r="Q50" s="28"/>
       <c r="R50" s="80"/>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:18">
       <c r="C51" s="72"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
@@ -10248,7 +10212,7 @@
       <c r="Q51" s="28"/>
       <c r="R51" s="80"/>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:18">
       <c r="C52" s="72"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
@@ -10266,7 +10230,7 @@
       <c r="Q52" s="28"/>
       <c r="R52" s="80"/>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:18">
       <c r="C53" s="72"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
@@ -10295,14 +10259,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="177" customWidth="1"/>
@@ -10318,7 +10282,7 @@
     <col min="16" max="16" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="C1" s="179" t="s">
         <v>358</v>
       </c>
@@ -10333,7 +10297,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="177" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="177" customFormat="1" ht="14.25" thickBot="1">
       <c r="A2" s="5"/>
       <c r="C2" s="106"/>
       <c r="D2" s="106"/>
@@ -10341,7 +10305,7 @@
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
     </row>
-    <row r="3" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="106" customFormat="1">
       <c r="A3" s="207"/>
       <c r="H3" s="122"/>
       <c r="I3" s="123"/>
@@ -10352,7 +10316,7 @@
       <c r="O3" s="123"/>
       <c r="P3" s="189"/>
     </row>
-    <row r="4" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="106" customFormat="1">
       <c r="A4" s="215"/>
       <c r="B4" s="112"/>
       <c r="C4" s="112"/>
@@ -10371,24 +10335,24 @@
       <c r="O4" s="112"/>
       <c r="P4" s="125"/>
     </row>
-    <row r="5" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="106" customFormat="1">
       <c r="A5" s="215"/>
       <c r="B5" s="112"/>
       <c r="C5" s="112"/>
       <c r="D5" s="112"/>
       <c r="E5" s="112"/>
       <c r="H5" s="124"/>
-      <c r="I5" s="279"/>
-      <c r="J5" s="279"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
       <c r="K5" s="125"/>
       <c r="M5" s="124"/>
-      <c r="N5" s="279" t="s">
+      <c r="N5" s="304" t="s">
         <v>335</v>
       </c>
-      <c r="O5" s="279"/>
+      <c r="O5" s="304"/>
       <c r="P5" s="125"/>
     </row>
-    <row r="6" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="106" customFormat="1">
       <c r="A6" s="215"/>
       <c r="B6" s="112"/>
       <c r="C6" s="112"/>
@@ -10403,7 +10367,7 @@
       <c r="O6" s="112"/>
       <c r="P6" s="125"/>
     </row>
-    <row r="7" spans="1:16" s="106" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="106" customFormat="1" ht="20.25">
       <c r="A7" s="215"/>
       <c r="B7" s="112"/>
       <c r="C7" s="112"/>
@@ -10425,7 +10389,7 @@
       <c r="O7" s="199"/>
       <c r="P7" s="125"/>
     </row>
-    <row r="8" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="106" customFormat="1">
       <c r="A8" s="215"/>
       <c r="B8" s="112"/>
       <c r="C8" s="112"/>
@@ -10436,13 +10400,13 @@
       <c r="J8" s="112"/>
       <c r="K8" s="125"/>
       <c r="M8" s="124"/>
-      <c r="N8" s="283" t="s">
+      <c r="N8" s="308" t="s">
         <v>346</v>
       </c>
-      <c r="O8" s="284"/>
+      <c r="O8" s="309"/>
       <c r="P8" s="125"/>
     </row>
-    <row r="9" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="106" customFormat="1">
       <c r="A9" s="215"/>
       <c r="B9" s="112"/>
       <c r="C9" s="112"/>
@@ -10452,11 +10416,11 @@
       <c r="J9" s="112"/>
       <c r="K9" s="125"/>
       <c r="M9" s="124"/>
-      <c r="N9" s="284"/>
-      <c r="O9" s="284"/>
+      <c r="N9" s="309"/>
+      <c r="O9" s="309"/>
       <c r="P9" s="125"/>
     </row>
-    <row r="10" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="106" customFormat="1">
       <c r="A10" s="112"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
@@ -10471,11 +10435,11 @@
       </c>
       <c r="K10" s="125"/>
       <c r="M10" s="124"/>
-      <c r="N10" s="282"/>
-      <c r="O10" s="282"/>
+      <c r="N10" s="307"/>
+      <c r="O10" s="307"/>
       <c r="P10" s="125"/>
     </row>
-    <row r="11" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="106" customFormat="1">
       <c r="A11" s="215"/>
       <c r="B11" s="112"/>
       <c r="C11" s="112"/>
@@ -10494,7 +10458,7 @@
       </c>
       <c r="P11" s="125"/>
     </row>
-    <row r="12" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="106" customFormat="1">
       <c r="A12" s="215"/>
       <c r="B12" s="112"/>
       <c r="C12" s="112"/>
@@ -10509,7 +10473,7 @@
       <c r="O12" s="198"/>
       <c r="P12" s="125"/>
     </row>
-    <row r="13" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="106" customFormat="1">
       <c r="A13" s="215"/>
       <c r="B13" s="112"/>
       <c r="C13" s="112"/>
@@ -10524,11 +10488,11 @@
       </c>
       <c r="K13" s="125"/>
       <c r="M13" s="124"/>
-      <c r="N13" s="282"/>
-      <c r="O13" s="282"/>
+      <c r="N13" s="307"/>
+      <c r="O13" s="307"/>
       <c r="P13" s="125"/>
     </row>
-    <row r="14" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="106" customFormat="1">
       <c r="A14" s="215"/>
       <c r="B14" s="112"/>
       <c r="C14" s="112"/>
@@ -10539,21 +10503,21 @@
       <c r="J14" s="112"/>
       <c r="K14" s="125"/>
       <c r="M14" s="124"/>
-      <c r="N14" s="277" t="s">
+      <c r="N14" s="302" t="s">
         <v>349</v>
       </c>
-      <c r="O14" s="278"/>
+      <c r="O14" s="303"/>
       <c r="P14" s="125"/>
     </row>
-    <row r="15" spans="1:16" s="106" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="106" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="215"/>
       <c r="B15" s="112"/>
       <c r="C15" s="112"/>
       <c r="D15" s="112"/>
       <c r="E15" s="112"/>
       <c r="H15" s="124"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="280" t="s">
+      <c r="I15" s="275"/>
+      <c r="J15" s="305" t="s">
         <v>339</v>
       </c>
       <c r="K15" s="125"/>
@@ -10562,54 +10526,54 @@
       <c r="O15" s="202"/>
       <c r="P15" s="125"/>
     </row>
-    <row r="16" spans="1:16" s="106" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="106" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="215"/>
       <c r="B16" s="112"/>
       <c r="C16" s="112"/>
-      <c r="D16" s="289"/>
+      <c r="D16" s="300"/>
       <c r="E16" s="112"/>
       <c r="H16" s="124"/>
-      <c r="I16" s="262"/>
-      <c r="J16" s="281"/>
+      <c r="I16" s="275"/>
+      <c r="J16" s="306"/>
       <c r="K16" s="125"/>
       <c r="M16" s="124"/>
-      <c r="N16" s="277" t="s">
+      <c r="N16" s="302" t="s">
         <v>350</v>
       </c>
-      <c r="O16" s="278"/>
+      <c r="O16" s="303"/>
       <c r="P16" s="125"/>
     </row>
-    <row r="17" spans="1:16" s="106" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" s="106" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="215"/>
       <c r="B17" s="112"/>
       <c r="C17" s="112"/>
-      <c r="D17" s="290"/>
+      <c r="D17" s="301"/>
       <c r="E17" s="112"/>
       <c r="H17" s="124"/>
-      <c r="I17" s="262"/>
-      <c r="J17" s="281"/>
+      <c r="I17" s="275"/>
+      <c r="J17" s="306"/>
       <c r="K17" s="125"/>
       <c r="M17" s="124"/>
       <c r="N17" s="203"/>
       <c r="O17" s="203"/>
       <c r="P17" s="125"/>
     </row>
-    <row r="18" spans="1:16" s="106" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" s="106" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="215"/>
       <c r="B18" s="112"/>
       <c r="C18" s="112"/>
-      <c r="D18" s="290"/>
+      <c r="D18" s="301"/>
       <c r="E18" s="112"/>
       <c r="H18" s="124"/>
-      <c r="I18" s="262"/>
-      <c r="J18" s="281"/>
+      <c r="I18" s="275"/>
+      <c r="J18" s="306"/>
       <c r="K18" s="125"/>
       <c r="M18" s="124"/>
       <c r="N18" s="203"/>
       <c r="O18" s="203"/>
       <c r="P18" s="125"/>
     </row>
-    <row r="19" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" s="106" customFormat="1">
       <c r="A19" s="215"/>
       <c r="B19" s="112"/>
       <c r="C19" s="204"/>
@@ -10626,7 +10590,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="125"/>
     </row>
-    <row r="20" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" s="106" customFormat="1">
       <c r="A20" s="215"/>
       <c r="B20" s="112"/>
       <c r="C20" s="203"/>
@@ -10643,20 +10607,20 @@
       <c r="O20" s="112"/>
       <c r="P20" s="125"/>
     </row>
-    <row r="21" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" s="106" customFormat="1">
       <c r="A21" s="215"/>
       <c r="B21" s="112"/>
       <c r="C21" s="112"/>
       <c r="D21" s="112"/>
       <c r="E21" s="112"/>
       <c r="H21" s="124"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="288"/>
+      <c r="I21" s="298"/>
+      <c r="J21" s="299"/>
       <c r="K21" s="125"/>
       <c r="M21" s="124"/>
       <c r="P21" s="125"/>
     </row>
-    <row r="22" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" s="106" customFormat="1">
       <c r="A22" s="215"/>
       <c r="B22" s="112"/>
       <c r="C22" s="196"/>
@@ -10671,7 +10635,7 @@
       <c r="O22" s="193"/>
       <c r="P22" s="125"/>
     </row>
-    <row r="23" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" s="106" customFormat="1">
       <c r="A23" s="215"/>
       <c r="B23" s="112"/>
       <c r="C23" s="112"/>
@@ -10690,7 +10654,7 @@
       <c r="O23" s="197"/>
       <c r="P23" s="125"/>
     </row>
-    <row r="24" spans="1:16" s="106" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="106" customFormat="1" ht="14.25" thickBot="1">
       <c r="A24" s="215"/>
       <c r="B24" s="112"/>
       <c r="C24" s="112"/>
@@ -10705,22 +10669,22 @@
       <c r="O24" s="191"/>
       <c r="P24" s="192"/>
     </row>
-    <row r="25" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" s="106" customFormat="1">
       <c r="A25" s="207"/>
     </row>
-    <row r="26" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" s="106" customFormat="1">
       <c r="A26" s="207"/>
     </row>
-    <row r="27" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" s="106" customFormat="1">
       <c r="A27" s="207"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" s="106" customFormat="1">
       <c r="A28" s="207"/>
     </row>
-    <row r="29" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" s="106" customFormat="1">
       <c r="A29" s="207"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="C31" s="177" t="s">
         <v>168</v>
       </c>
@@ -10734,19 +10698,19 @@
       </c>
       <c r="H31" s="177"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13">
       <c r="F33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13">
       <c r="D34" s="177"/>
       <c r="F34" s="177"/>
       <c r="H34" s="177"/>
       <c r="I34" s="177"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
         <v>325</v>
       </c>
@@ -10756,7 +10720,7 @@
       <c r="C35" s="52"/>
       <c r="H35" s="177"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
         <v>326</v>
       </c>
@@ -10785,7 +10749,7 @@
       <c r="L36" s="177"/>
       <c r="M36" s="177"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13">
       <c r="B37" s="185">
         <v>1</v>
       </c>
@@ -10806,7 +10770,7 @@
       </c>
       <c r="H37" s="177"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13">
       <c r="B38" s="185">
         <v>2</v>
       </c>
@@ -10827,7 +10791,7 @@
       </c>
       <c r="H38" s="177"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13">
       <c r="B39" s="185">
         <v>3</v>
       </c>
@@ -10849,7 +10813,7 @@
       <c r="H39" s="177"/>
       <c r="I39" s="177"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13">
       <c r="B40" s="185">
         <v>4</v>
       </c>
@@ -10871,7 +10835,7 @@
       <c r="H40" s="177"/>
       <c r="I40" s="177"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13">
       <c r="B41" s="185">
         <v>5</v>
       </c>
@@ -10892,13 +10856,13 @@
       </c>
       <c r="I41" s="177"/>
     </row>
-    <row r="42" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" s="177" customFormat="1">
       <c r="A42" s="5"/>
       <c r="C42" s="176"/>
       <c r="E42" s="210"/>
       <c r="F42" s="194"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13">
       <c r="C43" s="178" t="s">
         <v>364</v>
       </c>
@@ -10914,12 +10878,12 @@
       <c r="G43" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="H43" s="287" t="s">
+      <c r="H43" s="298" t="s">
         <v>366</v>
       </c>
-      <c r="I43" s="288"/>
-    </row>
-    <row r="44" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="299"/>
+    </row>
+    <row r="44" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1">
       <c r="A44" s="54" t="s">
         <v>367</v>
       </c>
@@ -10936,12 +10900,12 @@
       <c r="G44" s="115" t="s">
         <v>356</v>
       </c>
-      <c r="H44" s="285">
+      <c r="H44" s="296">
         <v>1</v>
       </c>
-      <c r="I44" s="286"/>
-    </row>
-    <row r="45" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I44" s="297"/>
+    </row>
+    <row r="45" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1">
       <c r="A45" s="54"/>
       <c r="C45" s="187">
         <v>2</v>
@@ -10956,12 +10920,12 @@
       <c r="G45" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="H45" s="285">
+      <c r="H45" s="296">
         <v>2</v>
       </c>
-      <c r="I45" s="286"/>
-    </row>
-    <row r="46" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I45" s="297"/>
+    </row>
+    <row r="46" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1">
       <c r="A46" s="54"/>
       <c r="C46" s="187">
         <v>3</v>
@@ -10976,82 +10940,76 @@
       <c r="G46" s="115" t="s">
         <v>374</v>
       </c>
-      <c r="H46" s="285">
+      <c r="H46" s="296">
         <v>1</v>
       </c>
-      <c r="I46" s="286"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I46" s="297"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13">
       <c r="I48" s="177"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:9">
       <c r="I49" s="177"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:9">
       <c r="I50" s="177"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="9:9">
       <c r="I51" s="177"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="9:9">
       <c r="I52" s="177"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="9:9">
       <c r="I53" s="177"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="9:9">
       <c r="I54" s="177"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="9:9">
       <c r="I55" s="177"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="9:9">
       <c r="I56" s="177"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="9:9">
       <c r="I57" s="177"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="9:9">
       <c r="I58" s="177"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="9:9">
       <c r="I59" s="177"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="9:9">
       <c r="I60" s="177"/>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="9:9">
       <c r="I61" s="177"/>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="9:9">
       <c r="I62" s="177"/>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="9:9">
       <c r="I63" s="177"/>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="9:9">
       <c r="I64" s="177"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="9:9">
       <c r="I65" s="177"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="9:9">
       <c r="I66" s="177"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="9:9">
       <c r="I67" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I15:I18"/>
@@ -11061,6 +11019,12 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N8:O9"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11070,20 +11034,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:P66"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="16.75" customWidth="1"/>
     <col min="10" max="11" width="9" style="106"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="22.5">
       <c r="C5" s="218" t="s">
         <v>382</v>
       </c>
@@ -11093,14 +11057,14 @@
       <c r="H5" s="177"/>
       <c r="I5" s="177"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11">
       <c r="E6" s="177"/>
       <c r="F6" s="177"/>
       <c r="G6" s="177"/>
       <c r="H6" s="177"/>
       <c r="I6" s="177"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11">
       <c r="E7" s="177"/>
       <c r="F7" s="177" t="s">
         <v>381</v>
@@ -11111,55 +11075,55 @@
       <c r="H7" s="177"/>
       <c r="I7" s="177"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11">
       <c r="E8" s="177"/>
       <c r="F8" s="177"/>
       <c r="G8" s="177"/>
       <c r="H8" s="177"/>
       <c r="I8" s="177"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11">
       <c r="E9" s="177"/>
-      <c r="F9" s="303" t="s">
+      <c r="F9" s="322" t="s">
         <v>378</v>
       </c>
-      <c r="G9" s="295" t="s">
+      <c r="G9" s="314" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="296"/>
+      <c r="H9" s="315"/>
       <c r="I9" s="177"/>
     </row>
-    <row r="10" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="22.5">
       <c r="B10" s="218" t="s">
         <v>397</v>
       </c>
       <c r="E10" s="177"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="298"/>
+      <c r="F10" s="322"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="317"/>
       <c r="I10" s="177"/>
     </row>
-    <row r="11" spans="2:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" s="177" customFormat="1">
       <c r="F11" s="184"/>
       <c r="G11" s="184"/>
       <c r="H11" s="184"/>
       <c r="J11" s="106"/>
       <c r="K11" s="106"/>
     </row>
-    <row r="12" spans="2:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" s="177" customFormat="1">
       <c r="F12" s="184"/>
       <c r="G12" s="184"/>
       <c r="J12" s="106"/>
       <c r="K12" s="106"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11">
       <c r="E13" s="177"/>
       <c r="F13" s="177"/>
       <c r="G13" s="177"/>
       <c r="H13" s="177"/>
       <c r="I13" s="177"/>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="14.25" customHeight="1">
       <c r="E14" s="177"/>
       <c r="F14" s="178" t="s">
         <v>43</v>
@@ -11176,7 +11140,7 @@
       <c r="J14" s="194"/>
       <c r="K14" s="194"/>
     </row>
-    <row r="15" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1">
       <c r="F15" s="31">
         <v>1</v>
       </c>
@@ -11190,7 +11154,7 @@
       <c r="J15" s="220"/>
       <c r="K15" s="220"/>
     </row>
-    <row r="16" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" s="14" customFormat="1" ht="27.75" customHeight="1">
       <c r="F16" s="31">
         <v>2</v>
       </c>
@@ -11204,15 +11168,15 @@
       <c r="J16" s="220"/>
       <c r="K16" s="220"/>
     </row>
-    <row r="17" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:11" s="177" customFormat="1">
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
     </row>
-    <row r="18" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:11" s="177" customFormat="1">
       <c r="J18" s="106"/>
       <c r="K18" s="106"/>
     </row>
-    <row r="19" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:11" s="177" customFormat="1">
       <c r="F19" s="179" t="s">
         <v>383</v>
       </c>
@@ -11221,7 +11185,7 @@
       <c r="J19"/>
       <c r="K19" s="106"/>
     </row>
-    <row r="20" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:11" s="177" customFormat="1">
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -11230,7 +11194,7 @@
       <c r="J20"/>
       <c r="K20" s="106"/>
     </row>
-    <row r="21" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:11" s="177" customFormat="1">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -11239,7 +11203,7 @@
       <c r="J21"/>
       <c r="K21" s="106"/>
     </row>
-    <row r="22" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:11" s="177" customFormat="1">
       <c r="E22" s="223"/>
       <c r="F22" s="223"/>
       <c r="G22" s="223"/>
@@ -11248,7 +11212,7 @@
       <c r="J22"/>
       <c r="K22" s="106"/>
     </row>
-    <row r="23" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:11" s="177" customFormat="1">
       <c r="E23" s="223"/>
       <c r="F23" s="223"/>
       <c r="G23" s="223"/>
@@ -11257,65 +11221,65 @@
       <c r="J23"/>
       <c r="K23" s="106"/>
     </row>
-    <row r="24" spans="5:11" s="177" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="306" t="s">
+    <row r="24" spans="5:11" s="177" customFormat="1" ht="18.75">
+      <c r="E24" s="325" t="s">
         <v>386</v>
       </c>
-      <c r="F24" s="306"/>
-      <c r="G24" s="306"/>
-      <c r="H24" s="306"/>
-      <c r="I24" s="306"/>
+      <c r="F24" s="325"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
       <c r="J24"/>
       <c r="K24" s="106"/>
     </row>
-    <row r="25" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="305" t="s">
+    <row r="25" spans="5:11" s="177" customFormat="1">
+      <c r="E25" s="324" t="s">
         <v>387</v>
       </c>
-      <c r="F25" s="305"/>
-      <c r="G25" s="305"/>
-      <c r="H25" s="305"/>
-      <c r="I25" s="305"/>
+      <c r="F25" s="324"/>
+      <c r="G25" s="324"/>
+      <c r="H25" s="324"/>
+      <c r="I25" s="324"/>
       <c r="K25" s="106"/>
     </row>
-    <row r="26" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="305"/>
-      <c r="H26" s="305"/>
-      <c r="I26" s="305"/>
+    <row r="26" spans="5:11" s="177" customFormat="1">
+      <c r="E26" s="324"/>
+      <c r="F26" s="324"/>
+      <c r="G26" s="324"/>
+      <c r="H26" s="324"/>
+      <c r="I26" s="324"/>
       <c r="K26" s="106"/>
     </row>
-    <row r="27" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
+    <row r="27" spans="5:11" s="177" customFormat="1">
+      <c r="E27" s="324"/>
+      <c r="F27" s="324"/>
+      <c r="G27" s="324"/>
+      <c r="H27" s="324"/>
+      <c r="I27" s="324"/>
       <c r="J27"/>
       <c r="K27" s="106"/>
     </row>
-    <row r="28" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="305"/>
-      <c r="F28" s="305"/>
-      <c r="G28" s="305"/>
-      <c r="H28" s="305"/>
-      <c r="I28" s="305"/>
+    <row r="28" spans="5:11" s="177" customFormat="1">
+      <c r="E28" s="324"/>
+      <c r="F28" s="324"/>
+      <c r="G28" s="324"/>
+      <c r="H28" s="324"/>
+      <c r="I28" s="324"/>
       <c r="J28"/>
       <c r="K28" s="106"/>
     </row>
-    <row r="29" spans="5:11" s="177" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="E29" s="304" t="s">
+    <row r="29" spans="5:11" s="177" customFormat="1" ht="31.5">
+      <c r="E29" s="323" t="s">
         <v>379</v>
       </c>
-      <c r="F29" s="304"/>
-      <c r="G29" s="304"/>
-      <c r="H29" s="304"/>
-      <c r="I29" s="304"/>
+      <c r="F29" s="323"/>
+      <c r="G29" s="323"/>
+      <c r="H29" s="323"/>
+      <c r="I29" s="323"/>
       <c r="J29" s="14"/>
       <c r="K29" s="106"/>
     </row>
-    <row r="30" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:11" s="177" customFormat="1">
       <c r="E30" s="223"/>
       <c r="F30" s="223"/>
       <c r="G30" s="223"/>
@@ -11324,7 +11288,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="106"/>
     </row>
-    <row r="31" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:11" s="177" customFormat="1">
       <c r="E31" s="224"/>
       <c r="F31" s="224"/>
       <c r="G31" s="224"/>
@@ -11332,14 +11296,14 @@
       <c r="I31" s="224"/>
       <c r="K31" s="106"/>
     </row>
-    <row r="32" spans="5:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:11" s="177" customFormat="1">
       <c r="K32" s="106"/>
     </row>
-    <row r="33" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:16" s="177" customFormat="1">
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
     </row>
-    <row r="34" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:16" s="177" customFormat="1">
       <c r="F34" s="179" t="s">
         <v>389</v>
       </c>
@@ -11348,26 +11312,26 @@
       <c r="J34" s="106"/>
       <c r="K34" s="106"/>
     </row>
-    <row r="35" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:16" s="177" customFormat="1">
       <c r="J35" s="106"/>
       <c r="K35" s="106"/>
     </row>
-    <row r="36" spans="3:16" s="106" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:16" s="106" customFormat="1"/>
+    <row r="37" spans="3:16" s="177" customFormat="1">
       <c r="J37" s="106"/>
     </row>
-    <row r="38" spans="3:16" s="177" customFormat="1" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:16" s="177" customFormat="1" ht="31.5">
       <c r="C38" s="225" t="s">
         <v>388</v>
       </c>
       <c r="J38" s="106"/>
       <c r="K38" s="106"/>
     </row>
-    <row r="39" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:16" s="177" customFormat="1">
       <c r="J39" s="106"/>
       <c r="K39" s="106"/>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:16">
       <c r="E40" s="177"/>
       <c r="F40" s="177" t="s">
         <v>381</v>
@@ -11385,7 +11349,7 @@
       <c r="O40" s="177"/>
       <c r="P40" s="177"/>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:16">
       <c r="E41" s="177"/>
       <c r="F41" s="177"/>
       <c r="G41" s="177"/>
@@ -11397,15 +11361,15 @@
       <c r="O41" s="177"/>
       <c r="P41" s="177"/>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:16">
       <c r="E42" s="177"/>
       <c r="F42" s="177" t="s">
         <v>380</v>
       </c>
-      <c r="G42" s="299" t="s">
+      <c r="G42" s="318" t="s">
         <v>390</v>
       </c>
-      <c r="H42" s="300"/>
+      <c r="H42" s="319"/>
       <c r="I42" s="177"/>
       <c r="L42" s="177"/>
       <c r="M42" s="177"/>
@@ -11413,11 +11377,11 @@
       <c r="O42" s="177"/>
       <c r="P42" s="177"/>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:16">
       <c r="E43" s="177"/>
       <c r="F43" s="177"/>
-      <c r="G43" s="301"/>
-      <c r="H43" s="302"/>
+      <c r="G43" s="320"/>
+      <c r="H43" s="321"/>
       <c r="I43" s="177"/>
       <c r="L43" s="177"/>
       <c r="M43" s="177"/>
@@ -11425,25 +11389,25 @@
       <c r="O43" s="177"/>
       <c r="P43" s="177"/>
     </row>
-    <row r="44" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:16" s="177" customFormat="1">
       <c r="G44" s="226"/>
       <c r="H44" s="226"/>
       <c r="J44" s="106"/>
       <c r="K44" s="106"/>
     </row>
-    <row r="45" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:16" s="177" customFormat="1">
       <c r="G45" s="226"/>
       <c r="H45" s="226"/>
       <c r="J45" s="106"/>
       <c r="K45" s="106"/>
     </row>
-    <row r="46" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:16" s="177" customFormat="1">
       <c r="G46" s="226"/>
       <c r="H46" s="226"/>
       <c r="J46" s="106"/>
       <c r="K46" s="106"/>
     </row>
-    <row r="47" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:16" s="177" customFormat="1">
       <c r="F47" s="179" t="s">
         <v>391</v>
       </c>
@@ -11453,19 +11417,19 @@
       <c r="J47" s="106"/>
       <c r="K47" s="106"/>
     </row>
-    <row r="48" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:16" s="177" customFormat="1">
       <c r="G48" s="226"/>
       <c r="H48" s="226"/>
       <c r="J48" s="106"/>
       <c r="K48" s="106"/>
     </row>
-    <row r="49" spans="5:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:16" s="177" customFormat="1">
       <c r="G49" s="226"/>
       <c r="H49" s="226"/>
       <c r="J49" s="106"/>
       <c r="K49" s="106"/>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:16">
       <c r="E50" s="223"/>
       <c r="F50" s="223"/>
       <c r="G50" s="223"/>
@@ -11478,7 +11442,7 @@
       <c r="O50" s="177"/>
       <c r="P50" s="177"/>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:16">
       <c r="E51" s="223"/>
       <c r="F51" s="223"/>
       <c r="G51" s="223"/>
@@ -11491,7 +11455,7 @@
       <c r="O51" s="177"/>
       <c r="P51" s="177"/>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:16">
       <c r="E52" s="223"/>
       <c r="F52" s="223"/>
       <c r="G52" s="223"/>
@@ -11504,22 +11468,22 @@
       <c r="O52" s="177"/>
       <c r="P52" s="177"/>
     </row>
-    <row r="53" spans="5:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="E53" s="291" t="s">
+    <row r="53" spans="5:16" ht="22.5">
+      <c r="E53" s="310" t="s">
         <v>396</v>
       </c>
-      <c r="F53" s="291"/>
-      <c r="G53" s="291"/>
-      <c r="H53" s="291"/>
-      <c r="I53" s="291"/>
-      <c r="J53" s="291"/>
+      <c r="F53" s="310"/>
+      <c r="G53" s="310"/>
+      <c r="H53" s="310"/>
+      <c r="I53" s="310"/>
+      <c r="J53" s="310"/>
       <c r="L53" s="177"/>
       <c r="M53" s="177"/>
       <c r="N53" s="177"/>
       <c r="O53" s="177"/>
       <c r="P53" s="177"/>
     </row>
-    <row r="54" spans="5:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:16" ht="27">
       <c r="E54" s="223"/>
       <c r="F54" s="228"/>
       <c r="G54" s="228"/>
@@ -11532,7 +11496,7 @@
       <c r="O54" s="177"/>
       <c r="P54" s="177"/>
     </row>
-    <row r="55" spans="5:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:16" ht="27">
       <c r="E55" s="223"/>
       <c r="F55" s="229" t="s">
         <v>393</v>
@@ -11547,14 +11511,14 @@
       <c r="O55" s="177"/>
       <c r="P55" s="177"/>
     </row>
-    <row r="56" spans="5:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:16" ht="27">
       <c r="E56" s="223"/>
-      <c r="F56" s="292" t="s">
+      <c r="F56" s="311" t="s">
         <v>392</v>
       </c>
-      <c r="G56" s="293"/>
-      <c r="H56" s="293"/>
-      <c r="I56" s="294"/>
+      <c r="G56" s="312"/>
+      <c r="H56" s="312"/>
+      <c r="I56" s="313"/>
       <c r="J56" s="223"/>
       <c r="L56" s="177"/>
       <c r="M56" s="177"/>
@@ -11562,7 +11526,7 @@
       <c r="O56" s="177"/>
       <c r="P56" s="177"/>
     </row>
-    <row r="57" spans="5:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:16" ht="27">
       <c r="E57" s="223"/>
       <c r="F57" s="228"/>
       <c r="G57" s="228"/>
@@ -11575,7 +11539,7 @@
       <c r="O57" s="177"/>
       <c r="P57" s="177"/>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:16">
       <c r="E58" s="223"/>
       <c r="F58" s="223"/>
       <c r="G58" s="223"/>
@@ -11588,7 +11552,7 @@
       <c r="O58" s="177"/>
       <c r="P58" s="177"/>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:16">
       <c r="E59" s="223"/>
       <c r="F59" s="223"/>
       <c r="G59" s="223"/>
@@ -11601,7 +11565,7 @@
       <c r="O59" s="177"/>
       <c r="P59" s="177"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="5:16">
       <c r="E60" s="223"/>
       <c r="F60" s="223"/>
       <c r="G60" s="223"/>
@@ -11614,7 +11578,7 @@
       <c r="O60" s="177"/>
       <c r="P60" s="177"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="5:16">
       <c r="E61" s="177"/>
       <c r="F61" s="177"/>
       <c r="G61" s="177"/>
@@ -11626,7 +11590,7 @@
       <c r="O61" s="177"/>
       <c r="P61" s="177"/>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:9">
       <c r="F66" s="179" t="s">
         <v>394</v>
       </c>
@@ -11652,14 +11616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:K36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
@@ -11669,7 +11633,7 @@
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>424</v>
       </c>
@@ -11685,7 +11649,7 @@
       <c r="J4" s="177"/>
       <c r="K4" s="177"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11">
       <c r="D5" s="177"/>
       <c r="E5" s="177"/>
       <c r="F5" s="177"/>
@@ -11695,7 +11659,7 @@
       <c r="J5" s="177"/>
       <c r="K5" s="177"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11">
       <c r="D6" s="177" t="s">
         <v>406</v>
       </c>
@@ -11713,7 +11677,7 @@
       <c r="J6" s="177"/>
       <c r="K6" s="177"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11">
       <c r="D7" s="177"/>
       <c r="E7" s="177"/>
       <c r="F7" s="177"/>
@@ -11723,7 +11687,7 @@
       <c r="J7" s="177"/>
       <c r="K7" s="177"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11">
       <c r="D8" s="221" t="s">
         <v>403</v>
       </c>
@@ -11736,7 +11700,7 @@
       <c r="J8" s="177"/>
       <c r="K8" s="177"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11">
       <c r="D9" s="185" t="s">
         <v>423</v>
       </c>
@@ -11758,7 +11722,7 @@
       <c r="J9" s="177"/>
       <c r="K9" s="177"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11">
       <c r="D10" s="185">
         <v>1</v>
       </c>
@@ -11780,7 +11744,7 @@
       <c r="J10" s="177"/>
       <c r="K10" s="177"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11">
       <c r="D11" s="185">
         <v>2</v>
       </c>
@@ -11802,7 +11766,7 @@
       <c r="J11" s="177"/>
       <c r="K11" s="177"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11">
       <c r="D12" s="185">
         <v>3</v>
       </c>
@@ -11824,7 +11788,7 @@
       <c r="J12" s="177"/>
       <c r="K12" s="177"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11">
       <c r="D13" s="213">
         <v>4</v>
       </c>
@@ -11846,7 +11810,7 @@
       <c r="J13" s="177"/>
       <c r="K13" s="177"/>
     </row>
-    <row r="14" spans="2:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="27">
       <c r="D14" s="213">
         <v>5</v>
       </c>
@@ -11868,7 +11832,7 @@
       <c r="J14" s="177"/>
       <c r="K14" s="177"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11">
       <c r="D15" s="213">
         <v>6</v>
       </c>
@@ -11890,7 +11854,7 @@
       <c r="J15" s="177"/>
       <c r="K15" s="177"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11">
       <c r="D16" s="213">
         <v>7</v>
       </c>
@@ -11912,7 +11876,7 @@
       <c r="J16" s="177"/>
       <c r="K16" s="177"/>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:11">
       <c r="D17" s="112"/>
       <c r="E17" s="177"/>
       <c r="F17" s="177"/>
@@ -11922,24 +11886,24 @@
       <c r="J17" s="177"/>
       <c r="K17" s="177"/>
     </row>
-    <row r="18" spans="4:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:11" s="177" customFormat="1">
       <c r="D18" s="112"/>
     </row>
-    <row r="19" spans="4:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:11" s="177" customFormat="1">
       <c r="D19" s="112" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="4:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:11" s="177" customFormat="1">
       <c r="D20" s="112"/>
     </row>
-    <row r="21" spans="4:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:11" s="177" customFormat="1">
       <c r="D21" s="112"/>
     </row>
-    <row r="22" spans="4:11" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:11" s="177" customFormat="1">
       <c r="D22" s="112"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:11">
       <c r="D23" s="112"/>
       <c r="E23" s="177"/>
       <c r="F23" s="177"/>
@@ -11949,7 +11913,7 @@
       <c r="J23" s="177"/>
       <c r="K23" s="177"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:11">
       <c r="D24" s="177" t="s">
         <v>415</v>
       </c>
@@ -11961,7 +11925,7 @@
       <c r="J24" s="177"/>
       <c r="K24" s="177"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:11">
       <c r="D25" s="177"/>
       <c r="E25" s="177"/>
       <c r="F25" s="177"/>
@@ -11971,7 +11935,7 @@
       <c r="J25" s="177"/>
       <c r="K25" s="177"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:11">
       <c r="D26" s="177" t="s">
         <v>416</v>
       </c>
@@ -11988,19 +11952,19 @@
       <c r="J26" s="177"/>
       <c r="K26" s="177"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:11">
       <c r="H27" s="177"/>
       <c r="J27" s="177"/>
       <c r="K27" s="177"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:11">
       <c r="D28" s="221" t="s">
         <v>426</v>
       </c>
       <c r="J28" s="177"/>
       <c r="K28" s="177"/>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:11">
       <c r="D29" s="185" t="s">
         <v>423</v>
       </c>
@@ -12022,7 +11986,7 @@
       <c r="J29" s="177"/>
       <c r="K29" s="177"/>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:11">
       <c r="D30" s="185">
         <v>1</v>
       </c>
@@ -12044,7 +12008,7 @@
       <c r="J30" s="177"/>
       <c r="K30" s="177"/>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:11">
       <c r="D31" s="185">
         <v>2</v>
       </c>
@@ -12066,7 +12030,7 @@
       <c r="J31" s="177"/>
       <c r="K31" s="177"/>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:11">
       <c r="D32" s="185">
         <v>3</v>
       </c>
@@ -12088,7 +12052,7 @@
       <c r="J32" s="177"/>
       <c r="K32" s="177"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:11">
       <c r="D33" s="213">
         <v>4</v>
       </c>
@@ -12110,7 +12074,7 @@
       <c r="J33" s="177"/>
       <c r="K33" s="177"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:11">
       <c r="D34" s="213">
         <v>5</v>
       </c>
@@ -12132,7 +12096,7 @@
       <c r="J34" s="177"/>
       <c r="K34" s="177"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:11">
       <c r="D35" s="213">
         <v>6</v>
       </c>
@@ -12154,7 +12118,7 @@
       <c r="J35" s="177"/>
       <c r="K35" s="177"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:11">
       <c r="D36" s="213">
         <v>7</v>
       </c>
@@ -12183,14 +12147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:R35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
     <col min="1" max="1" width="9" style="217"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
@@ -12200,7 +12164,7 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="D5" s="177"/>
       <c r="E5" s="177"/>
       <c r="F5" s="177"/>
@@ -12213,7 +12177,7 @@
       <c r="M5" s="177"/>
       <c r="N5" s="177"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="217" t="s">
         <v>437</v>
       </c>
@@ -12235,14 +12199,14 @@
       <c r="M6" s="177"/>
       <c r="N6" s="177"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="D7" s="177"/>
       <c r="K7" s="106"/>
       <c r="L7" s="106"/>
       <c r="M7" s="177"/>
       <c r="N7" s="177"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="217" t="s">
         <v>494</v>
       </c>
@@ -12270,7 +12234,7 @@
       <c r="M8" s="177"/>
       <c r="N8" s="177"/>
     </row>
-    <row r="9" spans="1:18" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="177" customFormat="1">
       <c r="A9" s="217" t="s">
         <v>495</v>
       </c>
@@ -12285,10 +12249,10 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:18" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="177" customFormat="1">
       <c r="A10" s="217"/>
     </row>
-    <row r="11" spans="1:18" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="177" customFormat="1">
       <c r="A11" s="217" t="s">
         <v>496</v>
       </c>
@@ -12308,7 +12272,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="D12" s="177"/>
       <c r="K12" s="177"/>
       <c r="L12" s="179" t="s">
@@ -12317,7 +12281,7 @@
       <c r="M12" s="179"/>
       <c r="N12" s="177"/>
     </row>
-    <row r="13" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="21" thickBot="1">
       <c r="D13" s="177"/>
       <c r="E13" s="177"/>
       <c r="F13" s="177"/>
@@ -12330,7 +12294,7 @@
       <c r="M13" s="177"/>
       <c r="N13" s="177"/>
     </row>
-    <row r="14" spans="1:18" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="177" customFormat="1">
       <c r="A14" s="217"/>
       <c r="E14" s="221" t="s">
         <v>430</v>
@@ -12346,7 +12310,7 @@
       <c r="Q14" s="138"/>
       <c r="R14" s="139"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="D15" s="177"/>
       <c r="E15" s="185" t="s">
         <v>43</v>
@@ -12375,7 +12339,7 @@
       <c r="Q15" s="152"/>
       <c r="R15" s="142"/>
     </row>
-    <row r="16" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="30.75" customHeight="1">
       <c r="D16" s="177"/>
       <c r="E16" s="185">
         <v>1</v>
@@ -12406,7 +12370,7 @@
       <c r="Q16" s="152"/>
       <c r="R16" s="142"/>
     </row>
-    <row r="17" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="30.75" customHeight="1">
       <c r="D17" s="177"/>
       <c r="E17" s="185">
         <v>2</v>
@@ -12433,7 +12397,7 @@
       <c r="Q17" s="152"/>
       <c r="R17" s="142"/>
     </row>
-    <row r="18" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="30.75" customHeight="1">
       <c r="D18" s="177"/>
       <c r="E18" s="185">
         <v>3</v>
@@ -12468,7 +12432,7 @@
       <c r="Q18" s="152"/>
       <c r="R18" s="142"/>
     </row>
-    <row r="19" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="30.75" customHeight="1">
       <c r="D19" s="177"/>
       <c r="E19" s="185">
         <v>4</v>
@@ -12501,7 +12465,7 @@
       <c r="Q19" s="152"/>
       <c r="R19" s="142"/>
     </row>
-    <row r="20" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="30.75" customHeight="1">
       <c r="D20" s="177"/>
       <c r="E20" s="185">
         <v>5</v>
@@ -12534,7 +12498,7 @@
       <c r="Q20" s="152"/>
       <c r="R20" s="142"/>
     </row>
-    <row r="21" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="35.25" customHeight="1">
       <c r="D21" s="177"/>
       <c r="E21" s="177"/>
       <c r="F21" s="177"/>
@@ -12557,7 +12521,7 @@
       <c r="Q21" s="152"/>
       <c r="R21" s="142"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="D22" s="177"/>
       <c r="E22" s="177"/>
       <c r="F22" s="177"/>
@@ -12574,7 +12538,7 @@
       <c r="Q22" s="152"/>
       <c r="R22" s="142"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="D23" s="177"/>
       <c r="E23" s="177"/>
       <c r="F23" s="222" t="s">
@@ -12592,7 +12556,7 @@
       <c r="Q23" s="152"/>
       <c r="R23" s="142"/>
     </row>
-    <row r="24" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="21" thickBot="1">
       <c r="D24" s="177"/>
       <c r="E24" s="177"/>
       <c r="F24" s="177"/>
@@ -12609,16 +12573,16 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="40"/>
     </row>
-    <row r="25" spans="1:18" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="177" customFormat="1">
       <c r="A25" s="217"/>
     </row>
-    <row r="26" spans="1:18" s="177" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="177" customFormat="1">
       <c r="A26" s="217"/>
       <c r="F26" s="177" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="D27" s="177"/>
       <c r="E27" s="177"/>
       <c r="F27" s="177"/>
@@ -12631,7 +12595,7 @@
       <c r="M27" s="177"/>
       <c r="N27" s="177"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="D28" s="177"/>
       <c r="E28" s="223"/>
       <c r="F28" s="223"/>
@@ -12644,7 +12608,7 @@
       <c r="M28" s="177"/>
       <c r="N28" s="177"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="D29" s="177"/>
       <c r="E29" s="223"/>
       <c r="F29" s="223"/>
@@ -12657,7 +12621,7 @@
       <c r="M29" s="177"/>
       <c r="N29" s="177"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="D30" s="177"/>
       <c r="E30" s="223"/>
       <c r="F30" s="223" t="s">
@@ -12672,7 +12636,7 @@
       <c r="M30" s="177"/>
       <c r="N30" s="177"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="D31" s="177"/>
       <c r="E31" s="223"/>
       <c r="F31" s="223"/>
@@ -12685,7 +12649,7 @@
       <c r="M31" s="177"/>
       <c r="N31" s="177"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="D32" s="177"/>
       <c r="E32" s="223"/>
       <c r="F32" s="223"/>
@@ -12698,7 +12662,7 @@
       <c r="M32" s="177"/>
       <c r="N32" s="177"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14">
       <c r="D33" s="177"/>
       <c r="E33" s="223"/>
       <c r="F33" s="223"/>
@@ -12711,7 +12675,7 @@
       <c r="M33" s="177"/>
       <c r="N33" s="177"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:14">
       <c r="D34" s="177"/>
       <c r="E34" s="177"/>
       <c r="F34" s="177"/>
@@ -12724,7 +12688,7 @@
       <c r="M34" s="177"/>
       <c r="N34" s="177"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:14">
       <c r="D35" s="177"/>
       <c r="E35" s="177"/>
       <c r="F35" s="177"/>
@@ -12745,14 +12709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -12762,7 +12726,7 @@
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:16">
       <c r="C3" s="177"/>
       <c r="D3" s="177"/>
       <c r="E3" s="177"/>
@@ -12773,7 +12737,7 @@
       <c r="J3" s="177"/>
       <c r="K3" s="177"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:16">
       <c r="C4" s="177" t="s">
         <v>450</v>
       </c>
@@ -12785,7 +12749,7 @@
       <c r="J4" s="177"/>
       <c r="K4" s="177"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:16">
       <c r="C5" s="177"/>
       <c r="D5" s="177"/>
       <c r="E5" s="177"/>
@@ -12795,7 +12759,7 @@
       <c r="J5" s="177"/>
       <c r="K5" s="177"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:16">
       <c r="C6" s="177" t="s">
         <v>451</v>
       </c>
@@ -12815,7 +12779,7 @@
       <c r="J6" s="177"/>
       <c r="K6" s="177"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:16">
       <c r="C7" s="177"/>
       <c r="D7" s="177"/>
       <c r="E7" s="177"/>
@@ -12826,7 +12790,7 @@
       <c r="J7" s="177"/>
       <c r="K7" s="177"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:16">
       <c r="C8" s="31" t="s">
         <v>43</v>
       </c>
@@ -12851,7 +12815,7 @@
       <c r="J8" s="177"/>
       <c r="K8" s="177"/>
     </row>
-    <row r="9" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:16" ht="39.75" customHeight="1">
       <c r="C9" s="31">
         <v>1</v>
       </c>
@@ -12874,7 +12838,7 @@
       <c r="J9" s="177"/>
       <c r="K9" s="177"/>
     </row>
-    <row r="10" spans="3:16" s="177" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:16" s="177" customFormat="1" ht="39.75" customHeight="1">
       <c r="C10" s="31">
         <v>2</v>
       </c>
@@ -12895,7 +12859,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="3:16" s="177" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:16" s="177" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
       <c r="C11" s="31">
         <v>3</v>
       </c>
@@ -12919,7 +12883,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="3:16" s="177" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:16" s="177" customFormat="1" ht="27.75" customHeight="1">
       <c r="C12" s="181"/>
       <c r="D12" s="152"/>
       <c r="E12" s="181"/>
@@ -12932,7 +12896,7 @@
       <c r="M12" s="138"/>
       <c r="N12" s="139"/>
     </row>
-    <row r="13" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:16" s="177" customFormat="1">
       <c r="C13" s="177" t="s">
         <v>451</v>
       </c>
@@ -12958,13 +12922,13 @@
       <c r="N13" s="142"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:16" s="177" customFormat="1">
       <c r="K14" s="140"/>
       <c r="L14" s="152"/>
       <c r="M14" s="152"/>
       <c r="N14" s="142"/>
     </row>
-    <row r="15" spans="3:16" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:16" s="177" customFormat="1">
       <c r="C15" s="31" t="s">
         <v>43</v>
       </c>
@@ -12987,13 +12951,13 @@
         <v>205</v>
       </c>
       <c r="K15" s="140"/>
-      <c r="L15" s="307" t="s">
+      <c r="L15" s="326" t="s">
         <v>467</v>
       </c>
-      <c r="M15" s="307"/>
-      <c r="N15" s="308"/>
-    </row>
-    <row r="16" spans="3:16" s="177" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M15" s="326"/>
+      <c r="N15" s="327"/>
+    </row>
+    <row r="16" spans="3:16" s="177" customFormat="1" ht="34.5" customHeight="1">
       <c r="C16" s="31">
         <v>1</v>
       </c>
@@ -13014,11 +12978,11 @@
         <v>456</v>
       </c>
       <c r="K16" s="140"/>
-      <c r="L16" s="307"/>
-      <c r="M16" s="307"/>
-      <c r="N16" s="308"/>
-    </row>
-    <row r="17" spans="3:17" s="177" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="326"/>
+      <c r="M16" s="326"/>
+      <c r="N16" s="327"/>
+    </row>
+    <row r="17" spans="3:17" s="177" customFormat="1" ht="34.5" customHeight="1">
       <c r="C17" s="31">
         <v>2</v>
       </c>
@@ -13039,11 +13003,11 @@
         <v>456</v>
       </c>
       <c r="K17" s="140"/>
-      <c r="L17" s="307"/>
-      <c r="M17" s="307"/>
-      <c r="N17" s="308"/>
-    </row>
-    <row r="18" spans="3:17" s="177" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L17" s="326"/>
+      <c r="M17" s="326"/>
+      <c r="N17" s="327"/>
+    </row>
+    <row r="18" spans="3:17" s="177" customFormat="1" ht="34.5" customHeight="1">
       <c r="C18" s="31">
         <v>3</v>
       </c>
@@ -13064,52 +13028,52 @@
         <v>456</v>
       </c>
       <c r="K18" s="140"/>
-      <c r="L18" s="309" t="s">
+      <c r="L18" s="328" t="s">
         <v>468</v>
       </c>
-      <c r="M18" s="309"/>
+      <c r="M18" s="328"/>
       <c r="N18" s="142"/>
     </row>
-    <row r="19" spans="3:17" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:17" s="177" customFormat="1">
       <c r="I19" s="238"/>
       <c r="K19" s="140"/>
-      <c r="L19" s="310" t="s">
+      <c r="L19" s="329" t="s">
         <v>469</v>
       </c>
-      <c r="M19" s="310"/>
+      <c r="M19" s="329"/>
       <c r="N19" s="142"/>
     </row>
-    <row r="20" spans="3:17" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:17" s="177" customFormat="1">
       <c r="I20" s="238"/>
       <c r="K20" s="140"/>
       <c r="L20" s="152"/>
       <c r="M20" s="152"/>
       <c r="N20" s="142"/>
     </row>
-    <row r="21" spans="3:17" s="177" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" s="177" customFormat="1" ht="14.25" thickBot="1">
       <c r="I21" s="238"/>
       <c r="K21" s="38"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="40"/>
     </row>
-    <row r="22" spans="3:17" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:17" s="177" customFormat="1">
       <c r="I22" s="238"/>
     </row>
-    <row r="23" spans="3:17" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:17" s="177" customFormat="1">
       <c r="I23" s="238"/>
     </row>
-    <row r="24" spans="3:17" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:17" s="177" customFormat="1">
       <c r="D24" s="179" t="s">
         <v>470</v>
       </c>
       <c r="E24" s="179"/>
       <c r="I24" s="238"/>
     </row>
-    <row r="25" spans="3:17" s="177" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:17" s="177" customFormat="1">
       <c r="I25" s="238"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:17">
       <c r="C26" s="177"/>
       <c r="D26" s="177"/>
       <c r="E26" s="177"/>
@@ -13120,7 +13084,7 @@
       <c r="J26" s="177"/>
       <c r="K26" s="177"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:17">
       <c r="C27" s="177"/>
       <c r="D27" s="177"/>
       <c r="E27" s="177"/>
@@ -13131,7 +13095,7 @@
       <c r="J27" s="177"/>
       <c r="K27" s="177"/>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:17">
       <c r="C28" s="177"/>
       <c r="D28" s="239" t="s">
         <v>451</v>
@@ -13148,7 +13112,7 @@
       <c r="J28" s="177"/>
       <c r="K28" s="177"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:17">
       <c r="C29" s="177"/>
       <c r="D29" s="177"/>
       <c r="E29" s="177"/>
@@ -13159,7 +13123,7 @@
       <c r="J29" s="177"/>
       <c r="K29" s="177"/>
     </row>
-    <row r="30" spans="3:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" ht="14.25" thickBot="1">
       <c r="C30" s="177"/>
       <c r="D30" s="177" t="s">
         <v>454</v>
@@ -13178,7 +13142,7 @@
       <c r="P30" s="152"/>
       <c r="Q30" s="152"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:17">
       <c r="C31" s="177"/>
       <c r="D31" s="177"/>
       <c r="E31" s="177"/>
@@ -13197,7 +13161,7 @@
       <c r="P31" s="182"/>
       <c r="Q31" s="152"/>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:17">
       <c r="C32" s="177"/>
       <c r="D32" s="178" t="s">
         <v>43</v>
@@ -13228,7 +13192,7 @@
       <c r="P32" s="181"/>
       <c r="Q32" s="152"/>
     </row>
-    <row r="33" spans="3:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:17" ht="47.25" customHeight="1">
       <c r="C33" s="177"/>
       <c r="D33" s="31">
         <v>1</v>
@@ -13257,7 +13221,7 @@
       <c r="P33" s="181"/>
       <c r="Q33" s="152"/>
     </row>
-    <row r="34" spans="3:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:17" ht="47.25" customHeight="1">
       <c r="C34" s="177"/>
       <c r="D34" s="31">
         <v>2</v>
@@ -13286,7 +13250,7 @@
       <c r="P34" s="181"/>
       <c r="Q34" s="152"/>
     </row>
-    <row r="35" spans="3:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:17" ht="47.25" customHeight="1">
       <c r="C35" s="177"/>
       <c r="D35" s="31">
         <v>3</v>
@@ -13315,7 +13279,7 @@
       <c r="P35" s="181"/>
       <c r="Q35" s="152"/>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:17">
       <c r="C36" s="177"/>
       <c r="D36" s="219">
         <v>4</v>
@@ -13334,7 +13298,7 @@
       <c r="P36" s="181"/>
       <c r="Q36" s="152"/>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:17">
       <c r="C37" s="177"/>
       <c r="D37" s="177"/>
       <c r="E37" s="177"/>
@@ -13351,7 +13315,7 @@
       <c r="P37" s="152"/>
       <c r="Q37" s="152"/>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:17">
       <c r="C38" s="177"/>
       <c r="D38" s="177"/>
       <c r="E38" s="177"/>
@@ -13362,7 +13326,7 @@
       <c r="J38" s="177"/>
       <c r="K38" s="177"/>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:17">
       <c r="C39" s="177"/>
       <c r="D39" s="177"/>
       <c r="E39" s="177"/>
@@ -13375,7 +13339,7 @@
       <c r="J39" s="177"/>
       <c r="K39" s="177"/>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:17">
       <c r="C40" s="177"/>
       <c r="D40" s="177"/>
       <c r="E40" s="177"/>
@@ -13385,7 +13349,7 @@
       <c r="J40" s="177"/>
       <c r="K40" s="177"/>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:17">
       <c r="C41" s="177"/>
       <c r="D41" s="177"/>
       <c r="E41" s="177"/>
@@ -13396,7 +13360,7 @@
       <c r="J41" s="177"/>
       <c r="K41" s="177"/>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:17">
       <c r="C42" s="177"/>
       <c r="D42" s="177"/>
       <c r="E42" s="177"/>
@@ -13407,7 +13371,7 @@
       <c r="J42" s="177"/>
       <c r="K42" s="177"/>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:17">
       <c r="C43" s="177"/>
       <c r="D43" s="177"/>
       <c r="E43" s="177"/>
@@ -13431,14 +13395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:N19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
@@ -13448,10 +13412,10 @@
     <col min="10" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:14">
       <c r="F3" s="177"/>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:14">
       <c r="D4" s="177"/>
       <c r="E4" s="177"/>
       <c r="F4" s="177"/>
@@ -13464,7 +13428,7 @@
       <c r="M4" s="177"/>
       <c r="N4" s="177"/>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:14">
       <c r="D5" s="227" t="s">
         <v>475</v>
       </c>
@@ -13480,7 +13444,7 @@
       <c r="M5" s="177"/>
       <c r="N5" s="177"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:14">
       <c r="D6" s="177"/>
       <c r="E6" s="177"/>
       <c r="F6" s="177"/>
@@ -13493,7 +13457,7 @@
       <c r="M6" s="177"/>
       <c r="N6" s="177"/>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:14">
       <c r="D7" s="185" t="s">
         <v>43</v>
       </c>
@@ -13515,14 +13479,14 @@
       <c r="J7" s="185" t="s">
         <v>479</v>
       </c>
-      <c r="K7" s="252" t="s">
+      <c r="K7" s="271" t="s">
         <v>205</v>
       </c>
-      <c r="L7" s="253"/>
+      <c r="L7" s="272"/>
       <c r="M7" s="177"/>
       <c r="N7" s="177"/>
     </row>
-    <row r="8" spans="4:14" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:14" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="D8" s="31">
         <v>1</v>
       </c>
@@ -13549,7 +13513,7 @@
       </c>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="4:14" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:14" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="D9" s="31">
         <v>2</v>
       </c>
@@ -13576,7 +13540,7 @@
       </c>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="4:14" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:14" s="14" customFormat="1" ht="27" customHeight="1">
       <c r="D10" s="31">
         <v>3</v>
       </c>
@@ -13603,7 +13567,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:14">
       <c r="D11" s="212"/>
       <c r="E11" s="177"/>
       <c r="F11" s="177"/>
@@ -13615,7 +13579,7 @@
       <c r="L11" s="177"/>
       <c r="M11" s="177"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:14">
       <c r="D12" s="177"/>
       <c r="E12" s="177"/>
       <c r="F12" s="177"/>
@@ -13627,7 +13591,7 @@
       <c r="L12" s="177"/>
       <c r="M12" s="177"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:14">
       <c r="D13" s="177" t="s">
         <v>485</v>
       </c>
@@ -13641,7 +13605,7 @@
       <c r="L13" s="177"/>
       <c r="M13" s="177"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:14">
       <c r="D14" s="177"/>
       <c r="E14" s="245" t="s">
         <v>481</v>
@@ -13665,7 +13629,7 @@
       <c r="L14" s="177"/>
       <c r="M14" s="177"/>
     </row>
-    <row r="15" spans="4:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:14" ht="37.5" customHeight="1">
       <c r="D15" s="177"/>
       <c r="E15" s="245">
         <v>1</v>
@@ -13687,7 +13651,7 @@
       <c r="L15" s="177"/>
       <c r="M15" s="177"/>
     </row>
-    <row r="16" spans="4:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:14" ht="37.5" customHeight="1">
       <c r="D16" s="177"/>
       <c r="E16" s="245">
         <v>2</v>
@@ -13709,7 +13673,7 @@
       <c r="L16" s="177"/>
       <c r="M16" s="177"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:13">
       <c r="D17" s="177"/>
       <c r="E17" s="152"/>
       <c r="F17" s="152"/>
@@ -13721,7 +13685,7 @@
       <c r="L17" s="177"/>
       <c r="M17" s="177"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:13">
       <c r="D18" s="177"/>
       <c r="E18" s="177"/>
       <c r="F18" s="177"/>
@@ -13733,7 +13697,7 @@
       <c r="L18" s="177"/>
       <c r="M18" s="177"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:13">
       <c r="D19" s="177"/>
       <c r="E19" s="177"/>
       <c r="F19" s="177"/>
@@ -13756,19 +13720,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D4:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:12">
       <c r="D4" s="177"/>
       <c r="E4" s="177"/>
       <c r="F4" s="177"/>
@@ -13779,7 +13743,7 @@
       <c r="K4" s="177"/>
       <c r="L4" s="177"/>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:12">
       <c r="D5" s="177"/>
       <c r="E5" s="177"/>
       <c r="F5" s="177"/>
@@ -13790,7 +13754,7 @@
       <c r="K5" s="177"/>
       <c r="L5" s="177"/>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:12">
       <c r="D6" s="177" t="s">
         <v>502</v>
       </c>
@@ -13803,8 +13767,8 @@
       <c r="K6" s="177"/>
       <c r="L6" s="177"/>
     </row>
-    <row r="7" spans="4:12" s="152" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:12" s="152" customFormat="1"/>
+    <row r="8" spans="4:12">
       <c r="D8" s="177" t="s">
         <v>503</v>
       </c>
@@ -13817,7 +13781,7 @@
       <c r="K8" s="177"/>
       <c r="L8" s="177"/>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:12">
       <c r="D9" s="177"/>
       <c r="E9" s="177"/>
       <c r="F9" s="177"/>
@@ -13828,7 +13792,7 @@
       <c r="K9" s="177"/>
       <c r="L9" s="177"/>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:12">
       <c r="D10" s="179" t="s">
         <v>430</v>
       </c>
@@ -13841,7 +13805,7 @@
       <c r="K10" s="177"/>
       <c r="L10" s="177"/>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:12">
       <c r="D11" s="178" t="s">
         <v>43</v>
       </c>
@@ -13864,7 +13828,7 @@
       <c r="K11" s="177"/>
       <c r="L11" s="177"/>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:12">
       <c r="D12" s="178"/>
       <c r="E12" s="178"/>
       <c r="F12" s="178"/>
@@ -13875,7 +13839,7 @@
       <c r="K12" s="177"/>
       <c r="L12" s="177"/>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:12">
       <c r="D13" s="178"/>
       <c r="E13" s="178"/>
       <c r="F13" s="178"/>
@@ -13886,7 +13850,7 @@
       <c r="K13" s="177"/>
       <c r="L13" s="177"/>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:12">
       <c r="D14" s="178"/>
       <c r="E14" s="178"/>
       <c r="F14" s="178"/>
@@ -13897,7 +13861,7 @@
       <c r="K14" s="177"/>
       <c r="L14" s="177"/>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:12">
       <c r="D15" s="178"/>
       <c r="E15" s="178"/>
       <c r="F15" s="178"/>
@@ -13908,7 +13872,7 @@
       <c r="K15" s="177"/>
       <c r="L15" s="177"/>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:12">
       <c r="D16" s="178"/>
       <c r="E16" s="178"/>
       <c r="F16" s="178"/>
@@ -13919,7 +13883,7 @@
       <c r="K16" s="177"/>
       <c r="L16" s="177"/>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:12">
       <c r="D17" s="178"/>
       <c r="E17" s="178"/>
       <c r="F17" s="178"/>
@@ -13930,7 +13894,7 @@
       <c r="K17" s="177"/>
       <c r="L17" s="177"/>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:12">
       <c r="D18" s="177"/>
       <c r="E18" s="177"/>
       <c r="F18" s="177"/>
@@ -13941,7 +13905,7 @@
       <c r="K18" s="177"/>
       <c r="L18" s="177"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:12">
       <c r="D19" s="177"/>
       <c r="E19" s="177"/>
       <c r="F19" s="177"/>
@@ -13954,7 +13918,7 @@
       <c r="K19" s="177"/>
       <c r="L19" s="177"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:12">
       <c r="D20" s="177"/>
       <c r="E20" s="177"/>
       <c r="F20" s="177"/>
@@ -13965,7 +13929,7 @@
       <c r="K20" s="177"/>
       <c r="L20" s="177"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:12">
       <c r="D21" s="177"/>
       <c r="E21" s="177"/>
       <c r="F21" s="177"/>
@@ -13976,7 +13940,7 @@
       <c r="K21" s="177"/>
       <c r="L21" s="177"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:12">
       <c r="D22" s="177"/>
       <c r="E22" s="177"/>
       <c r="F22" s="177"/>
@@ -13987,7 +13951,7 @@
       <c r="K22" s="177"/>
       <c r="L22" s="177"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:12">
       <c r="D23" s="177"/>
       <c r="E23" s="177"/>
       <c r="F23" s="177"/>
@@ -13998,7 +13962,7 @@
       <c r="K23" s="177"/>
       <c r="L23" s="177"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:12">
       <c r="D24" s="177"/>
       <c r="E24" s="177"/>
       <c r="F24" s="177"/>
@@ -14016,14 +13980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:M19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9" style="177"/>
     <col min="6" max="6" width="19" customWidth="1"/>
@@ -14034,15 +13998,15 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13">
       <c r="E5" s="235" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" s="106" customFormat="1">
       <c r="E6" s="210"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13">
       <c r="E7" s="178" t="s">
         <v>423</v>
       </c>
@@ -14069,7 +14033,7 @@
       </c>
       <c r="M7" s="177"/>
     </row>
-    <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="19.5" customHeight="1">
       <c r="E8" s="185">
         <v>1</v>
       </c>
@@ -14096,7 +14060,7 @@
       </c>
       <c r="M8" s="177"/>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="19.5" customHeight="1">
       <c r="B9" s="217" t="s">
         <v>515</v>
       </c>
@@ -14127,7 +14091,7 @@
       </c>
       <c r="M9" s="177"/>
     </row>
-    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="19.5" customHeight="1">
       <c r="E10" s="185">
         <v>3</v>
       </c>
@@ -14154,7 +14118,7 @@
       </c>
       <c r="M10" s="177"/>
     </row>
-    <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="19.5" customHeight="1">
       <c r="E11" s="185">
         <v>4</v>
       </c>
@@ -14181,7 +14145,7 @@
       </c>
       <c r="M11" s="177"/>
     </row>
-    <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="19.5" customHeight="1">
       <c r="E12" s="185">
         <v>5</v>
       </c>
@@ -14208,7 +14172,7 @@
       </c>
       <c r="M12" s="177"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13">
       <c r="E13" s="177"/>
       <c r="F13" s="177"/>
       <c r="G13" s="177"/>
@@ -14219,7 +14183,7 @@
       <c r="L13" s="177"/>
       <c r="M13" s="177"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13">
       <c r="E14" s="177"/>
       <c r="F14" s="177"/>
       <c r="G14" s="177"/>
@@ -14230,7 +14194,7 @@
       <c r="L14" s="177"/>
       <c r="M14" s="177"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13">
       <c r="E15" s="177"/>
       <c r="F15" s="177"/>
       <c r="G15" s="177"/>
@@ -14241,7 +14205,7 @@
       <c r="L15" s="177"/>
       <c r="M15" s="177"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13">
       <c r="E16" s="177" t="s">
         <v>517</v>
       </c>
@@ -14252,7 +14216,7 @@
       <c r="J16" s="177"/>
       <c r="K16" s="177"/>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:10">
       <c r="E17" s="177"/>
       <c r="F17" s="245" t="s">
         <v>43</v>
@@ -14270,7 +14234,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="5:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:10" ht="27">
       <c r="E18" s="177"/>
       <c r="F18" s="188">
         <v>1</v>
@@ -14286,7 +14250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="5:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:10" ht="27">
       <c r="E19" s="177"/>
       <c r="F19" s="188">
         <v>2</v>
@@ -14310,14 +14274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:Q40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="177" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="177" bestFit="1" customWidth="1"/>
@@ -14338,11 +14302,11 @@
     <col min="18" max="16384" width="9" style="177"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="321" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="330" t="s">
         <v>588</v>
       </c>
-      <c r="B6" s="321"/>
+      <c r="B6" s="330"/>
       <c r="C6" s="177" t="s">
         <v>36</v>
       </c>
@@ -14359,9 +14323,9 @@
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="321"/>
-      <c r="B7" s="321"/>
+    <row r="7" spans="1:17">
+      <c r="A7" s="330"/>
+      <c r="B7" s="330"/>
       <c r="C7" s="177" t="s">
         <v>575</v>
       </c>
@@ -14402,9 +14366,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="321"/>
-      <c r="B8" s="321"/>
+    <row r="8" spans="1:17">
+      <c r="A8" s="330"/>
+      <c r="B8" s="330"/>
       <c r="C8" s="177" t="s">
         <v>167</v>
       </c>
@@ -14445,7 +14409,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="C10" s="177" t="s">
         <v>586</v>
       </c>
@@ -14475,27 +14439,27 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="C11" s="177" t="s">
         <v>523</v>
       </c>
       <c r="D11" s="178" t="s">
         <v>573</v>
       </c>
-      <c r="F11" s="320" t="s">
+      <c r="F11" s="259" t="s">
         <v>587</v>
       </c>
       <c r="G11" s="152"/>
       <c r="I11" s="152"/>
       <c r="K11" s="152"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="D12" s="152"/>
       <c r="G12" s="152"/>
       <c r="I12" s="152"/>
       <c r="K12" s="152"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="C13" s="227" t="s">
         <v>525</v>
       </c>
@@ -14503,7 +14467,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="319" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" s="258" customFormat="1" ht="27">
       <c r="C14" s="249" t="s">
         <v>43</v>
       </c>
@@ -14550,7 +14514,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="C15" s="248">
         <v>1</v>
       </c>
@@ -14560,7 +14524,7 @@
       <c r="E15" s="178" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="311" t="s">
+      <c r="F15" s="250" t="s">
         <v>533</v>
       </c>
       <c r="G15" s="178" t="s">
@@ -14578,13 +14542,13 @@
       <c r="K15" s="178" t="s">
         <v>536</v>
       </c>
-      <c r="L15" s="312">
+      <c r="L15" s="251">
         <v>42866</v>
       </c>
       <c r="M15" s="178" t="s">
         <v>524</v>
       </c>
-      <c r="N15" s="313" t="s">
+      <c r="N15" s="252" t="s">
         <v>537</v>
       </c>
       <c r="O15" s="178" t="s">
@@ -14597,7 +14561,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="C16" s="248">
         <v>2</v>
       </c>
@@ -14607,7 +14571,7 @@
       <c r="E16" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="311" t="s">
+      <c r="F16" s="250" t="s">
         <v>541</v>
       </c>
       <c r="G16" s="178" t="s">
@@ -14625,13 +14589,13 @@
       <c r="K16" s="178" t="s">
         <v>536</v>
       </c>
-      <c r="L16" s="312">
+      <c r="L16" s="251">
         <v>42867</v>
       </c>
       <c r="M16" s="178" t="s">
         <v>538</v>
       </c>
-      <c r="N16" s="313" t="s">
+      <c r="N16" s="252" t="s">
         <v>543</v>
       </c>
       <c r="O16" s="178" t="s">
@@ -14642,58 +14606,58 @@
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C17" s="318">
+    <row r="17" spans="3:17">
+      <c r="C17" s="257">
         <v>3</v>
       </c>
-      <c r="D17" s="314" t="s">
+      <c r="D17" s="253" t="s">
         <v>540</v>
       </c>
-      <c r="E17" s="314" t="s">
+      <c r="E17" s="253" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="315" t="s">
+      <c r="F17" s="254" t="s">
         <v>541</v>
       </c>
-      <c r="G17" s="314" t="s">
+      <c r="G17" s="253" t="s">
         <v>542</v>
       </c>
-      <c r="H17" s="314">
+      <c r="H17" s="253">
         <v>1.2</v>
       </c>
       <c r="I17" s="178" t="s">
         <v>534</v>
       </c>
-      <c r="J17" s="314" t="s">
+      <c r="J17" s="253" t="s">
         <v>535</v>
       </c>
-      <c r="K17" s="314" t="s">
+      <c r="K17" s="253" t="s">
         <v>536</v>
       </c>
-      <c r="L17" s="316">
+      <c r="L17" s="255">
         <v>42867</v>
       </c>
-      <c r="M17" s="314" t="s">
+      <c r="M17" s="253" t="s">
         <v>538</v>
       </c>
-      <c r="N17" s="317" t="s">
+      <c r="N17" s="256" t="s">
         <v>543</v>
       </c>
-      <c r="O17" s="314" t="s">
+      <c r="O17" s="253" t="s">
         <v>524</v>
       </c>
-      <c r="P17" s="314"/>
+      <c r="P17" s="253"/>
       <c r="Q17" s="178" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:17">
       <c r="D22" s="177" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="23" spans="3:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:17" ht="14.25" thickBot="1"/>
+    <row r="24" spans="3:17">
       <c r="D24" s="137"/>
       <c r="E24" s="138"/>
       <c r="F24" s="138"/>
@@ -14704,7 +14668,7 @@
       <c r="K24" s="138"/>
       <c r="L24" s="139"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:17">
       <c r="D25" s="140" t="s">
         <v>590</v>
       </c>
@@ -14719,7 +14683,7 @@
       <c r="K25" s="152"/>
       <c r="L25" s="142"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:17">
       <c r="D26" s="140"/>
       <c r="F26" s="152"/>
       <c r="G26" s="152"/>
@@ -14729,7 +14693,7 @@
       <c r="K26" s="152"/>
       <c r="L26" s="142"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:17">
       <c r="D27" s="140" t="s">
         <v>592</v>
       </c>
@@ -14744,7 +14708,7 @@
       <c r="K27" s="152"/>
       <c r="L27" s="142"/>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:17">
       <c r="D28" s="140" t="s">
         <v>593</v>
       </c>
@@ -14759,7 +14723,7 @@
       <c r="K28" s="152"/>
       <c r="L28" s="142"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:17">
       <c r="D29" s="140" t="s">
         <v>594</v>
       </c>
@@ -14774,7 +14738,7 @@
       <c r="K29" s="152"/>
       <c r="L29" s="142"/>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:17">
       <c r="D30" s="140" t="s">
         <v>595</v>
       </c>
@@ -14789,7 +14753,7 @@
       <c r="K30" s="152"/>
       <c r="L30" s="142"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:17">
       <c r="D31" s="140" t="s">
         <v>596</v>
       </c>
@@ -14804,7 +14768,7 @@
       <c r="K31" s="152"/>
       <c r="L31" s="142"/>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:17">
       <c r="D32" s="140" t="s">
         <v>597</v>
       </c>
@@ -14819,7 +14783,7 @@
       <c r="K32" s="152"/>
       <c r="L32" s="142"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:12">
       <c r="D33" s="140" t="s">
         <v>598</v>
       </c>
@@ -14834,7 +14798,7 @@
       <c r="K33" s="152"/>
       <c r="L33" s="142"/>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:12">
       <c r="D34" s="140" t="s">
         <v>599</v>
       </c>
@@ -14849,7 +14813,7 @@
       <c r="K34" s="152"/>
       <c r="L34" s="142"/>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:12">
       <c r="D35" s="140" t="s">
         <v>600</v>
       </c>
@@ -14864,7 +14828,7 @@
       <c r="K35" s="152"/>
       <c r="L35" s="142"/>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:12">
       <c r="D36" s="140" t="s">
         <v>601</v>
       </c>
@@ -14879,7 +14843,7 @@
       <c r="K36" s="152"/>
       <c r="L36" s="142"/>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:12">
       <c r="D37" s="140"/>
       <c r="E37" s="152"/>
       <c r="F37" s="152"/>
@@ -14890,7 +14854,7 @@
       <c r="K37" s="152"/>
       <c r="L37" s="142"/>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:12">
       <c r="D38" s="140"/>
       <c r="E38" s="152"/>
       <c r="F38" s="152"/>
@@ -14901,7 +14865,7 @@
       <c r="K38" s="152"/>
       <c r="L38" s="142"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:12">
       <c r="D39" s="140"/>
       <c r="E39" s="152"/>
       <c r="F39" s="152"/>
@@ -14912,7 +14876,7 @@
       <c r="K39" s="152"/>
       <c r="L39" s="142"/>
     </row>
-    <row r="40" spans="4:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:12" ht="14.25" thickBot="1">
       <c r="D40" s="38"/>
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
@@ -14948,14 +14912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R55"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="177"/>
     <col min="4" max="4" width="11.625" style="177" customWidth="1"/>
@@ -14968,7 +14932,7 @@
     <col min="14" max="16384" width="9" style="177"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="177" t="s">
         <v>605</v>
       </c>
@@ -14982,13 +14946,13 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="H4" s="6"/>
       <c r="J4" s="6"/>
       <c r="L4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="C5" s="227" t="s">
         <v>607</v>
       </c>
@@ -14999,7 +14963,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="27">
       <c r="C6" s="32" t="s">
         <v>43</v>
       </c>
@@ -15047,7 +15011,7 @@
       </c>
       <c r="R6" s="32"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="C7" s="178">
         <v>1</v>
       </c>
@@ -15073,7 +15037,7 @@
       </c>
       <c r="R7" s="178"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="C8" s="178">
         <v>2</v>
       </c>
@@ -15097,7 +15061,7 @@
       </c>
       <c r="R8" s="178"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="C9" s="178">
         <v>3</v>
       </c>
@@ -15119,12 +15083,12 @@
       </c>
       <c r="R9" s="178"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="D11" s="227" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="C13" s="178" t="s">
         <v>43</v>
       </c>
@@ -15172,7 +15136,7 @@
       </c>
       <c r="R13" s="178"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="C14" s="178">
         <v>1</v>
       </c>
@@ -15194,7 +15158,7 @@
       </c>
       <c r="R14" s="178"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="C15" s="178">
         <v>2</v>
       </c>
@@ -15216,7 +15180,7 @@
       </c>
       <c r="R15" s="178"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="C16" s="178">
         <v>3</v>
       </c>
@@ -15238,13 +15202,13 @@
       </c>
       <c r="R16" s="178"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13">
       <c r="D21" s="227" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="14.25" thickBot="1"/>
+    <row r="23" spans="2:13">
       <c r="D23" s="137"/>
       <c r="E23" s="138"/>
       <c r="F23" s="138"/>
@@ -15256,7 +15220,7 @@
       <c r="L23" s="138"/>
       <c r="M23" s="139"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13">
       <c r="D24" s="140"/>
       <c r="E24" s="152"/>
       <c r="F24" s="152"/>
@@ -15268,7 +15232,7 @@
       <c r="L24" s="152"/>
       <c r="M24" s="142"/>
     </row>
-    <row r="25" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="21" customHeight="1">
       <c r="D25" s="140"/>
       <c r="E25" s="152"/>
       <c r="F25" s="152"/>
@@ -15280,7 +15244,7 @@
       <c r="L25" s="152"/>
       <c r="M25" s="142"/>
     </row>
-    <row r="26" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="21" customHeight="1">
       <c r="B26" s="177" t="s">
         <v>609</v>
       </c>
@@ -15299,7 +15263,7 @@
       <c r="L26" s="152"/>
       <c r="M26" s="142"/>
     </row>
-    <row r="27" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="21" customHeight="1">
       <c r="D27" s="140"/>
       <c r="E27" s="152"/>
       <c r="F27" s="152"/>
@@ -15311,7 +15275,7 @@
       <c r="L27" s="152"/>
       <c r="M27" s="142"/>
     </row>
-    <row r="28" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="21" customHeight="1">
       <c r="B28" s="177" t="s">
         <v>608</v>
       </c>
@@ -15330,7 +15294,7 @@
       <c r="L28" s="152"/>
       <c r="M28" s="142"/>
     </row>
-    <row r="29" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="21" customHeight="1">
       <c r="D29" s="140"/>
       <c r="E29" s="152" t="s">
         <v>562</v>
@@ -15346,7 +15310,7 @@
       <c r="L29" s="152"/>
       <c r="M29" s="142"/>
     </row>
-    <row r="30" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="21" customHeight="1">
       <c r="D30" s="140"/>
       <c r="E30" s="152" t="s">
         <v>563</v>
@@ -15362,7 +15326,7 @@
       <c r="L30" s="152"/>
       <c r="M30" s="142"/>
     </row>
-    <row r="31" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="21" customHeight="1">
       <c r="D31" s="140"/>
       <c r="E31" s="152" t="s">
         <v>564</v>
@@ -15376,7 +15340,7 @@
       <c r="L31" s="152"/>
       <c r="M31" s="142"/>
     </row>
-    <row r="32" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="21" customHeight="1">
       <c r="D32" s="140"/>
       <c r="E32" s="152"/>
       <c r="F32" s="152"/>
@@ -15388,21 +15352,21 @@
       <c r="L32" s="152"/>
       <c r="M32" s="142"/>
     </row>
-    <row r="33" spans="4:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:13" ht="67.5" customHeight="1">
       <c r="D33" s="140"/>
-      <c r="E33" s="323" t="s">
+      <c r="E33" s="261" t="s">
         <v>256</v>
       </c>
       <c r="F33" s="57"/>
-      <c r="G33" s="322"/>
-      <c r="H33" s="322"/>
-      <c r="I33" s="322"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="260"/>
+      <c r="I33" s="260"/>
       <c r="J33" s="234"/>
       <c r="K33" s="152"/>
       <c r="L33" s="152"/>
       <c r="M33" s="142"/>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:13">
       <c r="D34" s="140"/>
       <c r="E34" s="152"/>
       <c r="F34" s="152"/>
@@ -15414,7 +15378,7 @@
       <c r="L34" s="152"/>
       <c r="M34" s="142"/>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:13">
       <c r="D35" s="140"/>
       <c r="E35" s="152"/>
       <c r="F35" s="152"/>
@@ -15426,7 +15390,7 @@
       <c r="L35" s="152"/>
       <c r="M35" s="142"/>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:13">
       <c r="D36" s="140"/>
       <c r="E36" s="152"/>
       <c r="F36" s="152"/>
@@ -15438,11 +15402,11 @@
       <c r="L36" s="152"/>
       <c r="M36" s="142"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:13">
       <c r="D37" s="140"/>
       <c r="E37" s="152"/>
       <c r="F37" s="152"/>
-      <c r="G37" s="320" t="s">
+      <c r="G37" s="259" t="s">
         <v>565</v>
       </c>
       <c r="H37" s="152"/>
@@ -15452,7 +15416,7 @@
       <c r="L37" s="152"/>
       <c r="M37" s="142"/>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:13">
       <c r="D38" s="140"/>
       <c r="E38" s="152"/>
       <c r="F38" s="152"/>
@@ -15464,7 +15428,7 @@
       <c r="L38" s="152"/>
       <c r="M38" s="142"/>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:13">
       <c r="D39" s="140"/>
       <c r="E39" s="152"/>
       <c r="F39" s="152"/>
@@ -15476,7 +15440,7 @@
       <c r="L39" s="152"/>
       <c r="M39" s="142"/>
     </row>
-    <row r="40" spans="4:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:13" ht="14.25" thickBot="1">
       <c r="D40" s="38"/>
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
@@ -15488,29 +15452,29 @@
       <c r="L40" s="39"/>
       <c r="M40" s="40"/>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:13">
       <c r="D44" s="177" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:13">
       <c r="D45" s="177" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="46" spans="4:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E47" s="324"/>
-      <c r="F47" s="325"/>
-      <c r="G47" s="325"/>
-      <c r="H47" s="325"/>
-      <c r="I47" s="325"/>
-      <c r="J47" s="325"/>
-      <c r="K47" s="325"/>
-      <c r="L47" s="325"/>
-      <c r="M47" s="326"/>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:13" ht="14.25" thickBot="1"/>
+    <row r="47" spans="4:13">
+      <c r="E47" s="262"/>
+      <c r="F47" s="263"/>
+      <c r="G47" s="263"/>
+      <c r="H47" s="263"/>
+      <c r="I47" s="263"/>
+      <c r="J47" s="263"/>
+      <c r="K47" s="263"/>
+      <c r="L47" s="263"/>
+      <c r="M47" s="264"/>
+    </row>
+    <row r="48" spans="4:13">
       <c r="E48" s="72"/>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
@@ -15521,7 +15485,7 @@
       <c r="L48" s="28"/>
       <c r="M48" s="80"/>
     </row>
-    <row r="49" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:13">
       <c r="E49" s="72"/>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
@@ -15532,9 +15496,9 @@
       <c r="L49" s="28"/>
       <c r="M49" s="80"/>
     </row>
-    <row r="50" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:13" ht="18.75">
       <c r="E50" s="72"/>
-      <c r="F50" s="327" t="s">
+      <c r="F50" s="265" t="s">
         <v>613</v>
       </c>
       <c r="G50" s="28"/>
@@ -15545,7 +15509,7 @@
       <c r="L50" s="28"/>
       <c r="M50" s="80"/>
     </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:13">
       <c r="E51" s="72"/>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
@@ -15556,7 +15520,7 @@
       <c r="L51" s="28"/>
       <c r="M51" s="80"/>
     </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:13">
       <c r="E52" s="72"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -15567,7 +15531,7 @@
       <c r="L52" s="28"/>
       <c r="M52" s="80"/>
     </row>
-    <row r="53" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:13">
       <c r="E53" s="72"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -15578,7 +15542,7 @@
       <c r="L53" s="28"/>
       <c r="M53" s="80"/>
     </row>
-    <row r="54" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:13">
       <c r="E54" s="72"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -15593,16 +15557,16 @@
       <c r="L54" s="28"/>
       <c r="M54" s="80"/>
     </row>
-    <row r="55" spans="5:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="328"/>
-      <c r="F55" s="329"/>
-      <c r="G55" s="329"/>
-      <c r="H55" s="329"/>
-      <c r="I55" s="329"/>
-      <c r="J55" s="329"/>
-      <c r="K55" s="329"/>
-      <c r="L55" s="329"/>
-      <c r="M55" s="330"/>
+    <row r="55" spans="5:13" ht="14.25" thickBot="1">
+      <c r="E55" s="266"/>
+      <c r="F55" s="267"/>
+      <c r="G55" s="267"/>
+      <c r="H55" s="267"/>
+      <c r="I55" s="267"/>
+      <c r="J55" s="267"/>
+      <c r="K55" s="267"/>
+      <c r="L55" s="267"/>
+      <c r="M55" s="268"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15611,14 +15575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N40"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="15"/>
@@ -15626,17 +15590,17 @@
     <col min="14" max="14" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -15653,7 +15617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="B9" s="72"/>
       <c r="C9" s="28"/>
       <c r="D9" s="73">
@@ -15661,13 +15625,13 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="B10" s="72"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="B12" s="72" t="s">
         <v>15</v>
       </c>
@@ -15675,7 +15639,7 @@
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="B13" s="72"/>
       <c r="C13" s="28"/>
       <c r="D13" s="73">
@@ -15683,13 +15647,13 @@
       </c>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="B14" s="72"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="B16" s="72" t="s">
         <v>16</v>
       </c>
@@ -15697,7 +15661,7 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="B17" s="72"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28">
@@ -15705,13 +15669,13 @@
       </c>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="B18" s="72"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="B20" s="72" t="s">
         <v>17</v>
       </c>
@@ -15719,7 +15683,7 @@
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="B21" s="72"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28">
@@ -15739,13 +15703,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="B22" s="72"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="B24" s="72" t="s">
         <v>18</v>
       </c>
@@ -15756,7 +15720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="B25" s="72"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28">
@@ -15764,7 +15728,7 @@
       </c>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" s="9" customFormat="1">
       <c r="A26" s="11"/>
       <c r="B26" s="72"/>
       <c r="C26" s="28"/>
@@ -15775,17 +15739,17 @@
       </c>
       <c r="N26" s="19"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="H28" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="H29" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="B30" s="15" t="s">
         <v>19</v>
       </c>
@@ -15793,7 +15757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -15810,43 +15774,43 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="50.25" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="8:8" ht="16.5" customHeight="1">
       <c r="H33" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="8:8" ht="16.5" customHeight="1"/>
+    <row r="35" spans="8:8" ht="16.5" customHeight="1">
       <c r="H35" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="8:8" ht="16.5" customHeight="1">
       <c r="H36" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="8:8" ht="16.5" customHeight="1">
       <c r="H37" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="8:8" ht="16.5" customHeight="1">
       <c r="H38" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="8:8" ht="16.5" customHeight="1">
       <c r="H39" s="76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="8:8" ht="16.5" customHeight="1">
       <c r="H40" s="76" t="s">
         <v>25</v>
       </c>
@@ -15859,14 +15823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -15877,7 +15841,7 @@
     <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>603</v>
       </c>
@@ -15894,7 +15858,7 @@
       <c r="L4" s="177"/>
       <c r="M4" s="177"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="C5" s="177"/>
       <c r="D5" s="177"/>
       <c r="E5" s="177"/>
@@ -15906,7 +15870,7 @@
       <c r="L5" s="177"/>
       <c r="M5" s="177"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="C6" s="177"/>
       <c r="D6" s="177"/>
       <c r="E6" s="177"/>
@@ -15918,7 +15882,7 @@
       <c r="L6" s="177"/>
       <c r="M6" s="177"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="C7" s="177"/>
       <c r="D7" s="177"/>
       <c r="E7" s="177"/>
@@ -15930,7 +15894,7 @@
       <c r="L7" s="177"/>
       <c r="M7" s="177"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="B8" s="248" t="s">
         <v>604</v>
       </c>
@@ -15964,7 +15928,7 @@
       <c r="L8" s="178"/>
       <c r="M8" s="177"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="B9" s="248">
         <v>1</v>
       </c>
@@ -15982,7 +15946,7 @@
       <c r="L9" s="178"/>
       <c r="M9" s="177"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="B10" s="248">
         <v>2</v>
       </c>
@@ -16000,7 +15964,7 @@
       <c r="L10" s="178"/>
       <c r="M10" s="177"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="C11" s="177"/>
       <c r="D11" s="177"/>
       <c r="E11" s="177"/>
@@ -16012,7 +15976,7 @@
       <c r="L11" s="177"/>
       <c r="M11" s="177"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="C12" s="177"/>
       <c r="D12" s="177"/>
       <c r="E12" s="177"/>
@@ -16024,7 +15988,7 @@
       <c r="L12" s="177"/>
       <c r="M12" s="177"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="C13" s="177"/>
       <c r="D13" s="177"/>
       <c r="E13" s="177"/>
@@ -16036,7 +16000,7 @@
       <c r="L13" s="177"/>
       <c r="M13" s="177"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="C14" s="177"/>
       <c r="D14" s="177"/>
       <c r="E14" s="177"/>
@@ -16048,7 +16012,7 @@
       <c r="L14" s="177"/>
       <c r="M14" s="177"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="C15" s="177"/>
       <c r="D15" s="177"/>
       <c r="E15" s="177"/>
@@ -16067,14 +16031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:N110"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="5" customWidth="1"/>
@@ -16089,7 +16053,7 @@
     <col min="14" max="14" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="D8" s="16" t="s">
         <v>36</v>
       </c>
@@ -16114,7 +16078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -16133,17 +16097,17 @@
       </c>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="C16" s="20"/>
       <c r="D16" s="30" t="s">
         <v>43</v>
@@ -16170,7 +16134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="4:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:12" ht="39.75" customHeight="1">
       <c r="D17" s="31">
         <v>1</v>
       </c>
@@ -16189,7 +16153,7 @@
       </c>
       <c r="L17" s="23"/>
     </row>
-    <row r="18" spans="4:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:12" ht="39.75" customHeight="1">
       <c r="D18" s="31">
         <v>2</v>
       </c>
@@ -16213,7 +16177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:12" ht="39.75" customHeight="1">
       <c r="D19" s="31">
         <v>3</v>
       </c>
@@ -16237,7 +16201,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:12" ht="39.75" customHeight="1">
       <c r="D20" s="21">
         <v>4</v>
       </c>
@@ -16251,7 +16215,7 @@
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="4:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:12" ht="39.75" customHeight="1">
       <c r="D21" s="21">
         <v>5</v>
       </c>
@@ -16263,7 +16227,7 @@
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="4:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:12" ht="39.75" customHeight="1">
       <c r="D22" s="24">
         <v>6</v>
       </c>
@@ -16283,7 +16247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:12">
       <c r="D23" s="27"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -16295,7 +16259,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:12">
       <c r="D24" s="27"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -16307,7 +16271,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:12">
       <c r="D25" s="27"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -16319,7 +16283,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:12">
       <c r="D26" s="27"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -16331,7 +16295,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:12">
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -16343,7 +16307,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:12">
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -16355,7 +16319,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:12">
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -16367,7 +16331,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:12">
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -16379,7 +16343,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:12">
       <c r="D31" s="27"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -16391,7 +16355,7 @@
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:12">
       <c r="D32" s="27"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -16403,13 +16367,13 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="E37" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="14.25" thickBot="1"/>
+    <row r="39" spans="1:9">
       <c r="E39" s="41" t="s">
         <v>80</v>
       </c>
@@ -16418,19 +16382,19 @@
       <c r="H39" s="42"/>
       <c r="I39" s="43"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="E40" s="15"/>
       <c r="I40" s="19"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="E41" s="15"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="E42" s="15"/>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="E43" s="15"/>
       <c r="F43" s="9" t="s">
         <v>75</v>
@@ -16440,7 +16404,7 @@
       </c>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
         <v>97</v>
       </c>
@@ -16453,63 +16417,63 @@
       </c>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="E45" s="15"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="E46" s="15"/>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="E47" s="15"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="E48" s="15"/>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:10">
       <c r="E49" s="15"/>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:10">
       <c r="E50" s="15"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:10">
       <c r="E51" s="15"/>
       <c r="H51" s="35" t="s">
         <v>79</v>
       </c>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:10">
       <c r="E52" s="15"/>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:10">
       <c r="E53" s="15"/>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:10">
       <c r="E54" s="15"/>
       <c r="I54" s="19"/>
     </row>
-    <row r="55" spans="4:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:10" ht="14.25" thickBot="1">
       <c r="E55" s="38"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="40"/>
     </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:10">
       <c r="E59" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="4:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:10" ht="14.25" thickBot="1"/>
+    <row r="61" spans="4:10">
       <c r="D61" s="49"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
@@ -16518,7 +16482,7 @@
       <c r="I61" s="36"/>
       <c r="J61" s="37"/>
     </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:10">
       <c r="D62" s="50"/>
       <c r="E62" s="28" t="s">
         <v>83</v>
@@ -16528,18 +16492,18 @@
       <c r="H62" s="28"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:10">
       <c r="D63" s="50"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:10">
       <c r="D64" s="50"/>
       <c r="F64" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:10">
       <c r="D65" s="50"/>
       <c r="F65" s="9" t="s">
         <v>98</v>
@@ -16547,12 +16511,12 @@
       <c r="I65" s="17"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:10">
       <c r="D66" s="50"/>
       <c r="I66" s="17"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:10">
       <c r="D67" s="50"/>
       <c r="E67" s="35" t="s">
         <v>109</v>
@@ -16561,7 +16525,7 @@
       <c r="I67" s="17"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:10">
       <c r="D68" s="50"/>
       <c r="E68" s="12" t="s">
         <v>43</v>
@@ -16580,7 +16544,7 @@
       </c>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:10">
       <c r="D69" s="50"/>
       <c r="E69" s="30">
         <v>1</v>
@@ -16599,7 +16563,7 @@
       </c>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:10">
       <c r="D70" s="50"/>
       <c r="E70" s="30">
         <v>2</v>
@@ -16618,7 +16582,7 @@
       </c>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:10">
       <c r="D71" s="50"/>
       <c r="E71" s="30">
         <v>3</v>
@@ -16637,7 +16601,7 @@
       </c>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:10">
       <c r="D72" s="50"/>
       <c r="E72" s="30">
         <v>4</v>
@@ -16656,7 +16620,7 @@
       </c>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:10" ht="15" customHeight="1">
       <c r="D73" s="50"/>
       <c r="E73" s="30">
         <v>5</v>
@@ -16675,7 +16639,7 @@
       </c>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:10" ht="15" customHeight="1">
       <c r="D74" s="50"/>
       <c r="E74" s="30">
         <v>6</v>
@@ -16694,7 +16658,7 @@
       </c>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:10" ht="15" customHeight="1">
       <c r="D75" s="50"/>
       <c r="E75" s="30">
         <v>7</v>
@@ -16713,7 +16677,7 @@
       </c>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:10" ht="15" customHeight="1">
       <c r="D76" s="50"/>
       <c r="E76" s="30">
         <v>8</v>
@@ -16732,7 +16696,7 @@
       </c>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:10">
       <c r="D77" s="50"/>
       <c r="E77" s="30">
         <v>9</v>
@@ -16751,43 +16715,43 @@
       </c>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:10">
       <c r="D78" s="50"/>
       <c r="F78" s="44"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:10">
       <c r="D79" s="50"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:10">
       <c r="D80" s="50"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10">
       <c r="D81" s="50"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10">
       <c r="D82" s="50"/>
       <c r="G82" s="46" t="s">
         <v>94</v>
       </c>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10">
       <c r="D83" s="50"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10">
       <c r="D84" s="50"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10">
       <c r="D85" s="50"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="14.25" thickBot="1">
       <c r="D86" s="51"/>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
@@ -16796,7 +16760,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="40"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10">
       <c r="A91" s="5" t="s">
         <v>111</v>
       </c>
@@ -16804,17 +16768,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10">
       <c r="A92" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10">
       <c r="J93" s="35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10">
       <c r="E96" s="9" t="s">
         <v>113</v>
       </c>
@@ -16822,7 +16786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:6">
       <c r="E98" s="9" t="s">
         <v>114</v>
       </c>
@@ -16830,7 +16794,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:6">
       <c r="E100" s="9" t="s">
         <v>116</v>
       </c>
@@ -16838,7 +16802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="5:6">
       <c r="E110" s="9" t="s">
         <v>118</v>
       </c>
@@ -16856,14 +16820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:U43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="B15:F16"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
@@ -16879,7 +16843,7 @@
     <col min="20" max="20" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>128</v>
       </c>
@@ -16890,15 +16854,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21">
       <c r="L8" s="61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="D10" s="30" t="s">
         <v>43</v>
       </c>
@@ -16925,8 +16889,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="251" t="s">
+    <row r="11" spans="1:21" s="14" customFormat="1" ht="33" customHeight="1">
+      <c r="A11" s="270" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="55">
@@ -16953,8 +16917,8 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="251"/>
+    <row r="12" spans="1:21" s="14" customFormat="1" ht="33" customHeight="1">
+      <c r="A12" s="270"/>
       <c r="D12" s="31">
         <v>2</v>
       </c>
@@ -16979,8 +16943,8 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="251"/>
+    <row r="13" spans="1:21" ht="33" customHeight="1">
+      <c r="A13" s="270"/>
       <c r="J13" s="66">
         <v>3</v>
       </c>
@@ -16989,8 +16953,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="251"/>
+    <row r="14" spans="1:21" ht="33" customHeight="1">
+      <c r="A14" s="270"/>
       <c r="J14" s="47">
         <v>4</v>
       </c>
@@ -16999,48 +16963,48 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="251"/>
+    <row r="15" spans="1:21" ht="33" customHeight="1">
+      <c r="A15" s="270"/>
       <c r="L15" s="59"/>
     </row>
-    <row r="16" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="251"/>
+    <row r="16" spans="1:21" ht="33" customHeight="1">
+      <c r="A16" s="270"/>
       <c r="L16" s="59"/>
     </row>
-    <row r="17" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="251"/>
+    <row r="17" spans="1:21" ht="33" customHeight="1">
+      <c r="A17" s="270"/>
       <c r="L17" s="59"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="251"/>
+    <row r="18" spans="1:21">
+      <c r="A18" s="270"/>
       <c r="O18" s="53" t="s">
         <v>127</v>
       </c>
       <c r="P18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21">
       <c r="G19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21">
       <c r="O21" s="67" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21">
       <c r="O22" s="67" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21">
       <c r="L24" s="5" t="s">
         <v>139</v>
       </c>
       <c r="O24" t="s">
         <v>124</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="178" t="s">
         <v>122</v>
       </c>
       <c r="Q24" s="23" t="s">
@@ -17053,32 +17017,32 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21">
       <c r="L25" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21">
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21">
       <c r="L27" s="5"/>
-      <c r="O27" s="252" t="s">
+      <c r="O27" s="271" t="s">
         <v>145</v>
       </c>
-      <c r="P27" s="253"/>
+      <c r="P27" s="272"/>
       <c r="Q27" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="S27" s="252" t="s">
+      <c r="S27" s="271" t="s">
         <v>145</v>
       </c>
-      <c r="T27" s="253"/>
+      <c r="T27" s="272"/>
       <c r="U27" s="30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A28" s="54"/>
       <c r="L28" s="54" t="s">
         <v>141</v>
@@ -17094,7 +17058,7 @@
       </c>
       <c r="U28" s="32"/>
     </row>
-    <row r="29" spans="1:21" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A29" s="54"/>
       <c r="L29" s="54" t="s">
         <v>146</v>
@@ -17110,7 +17074,7 @@
       </c>
       <c r="U29" s="32"/>
     </row>
-    <row r="30" spans="1:21" s="14" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A30" s="54"/>
       <c r="O30" s="69"/>
       <c r="P30" s="70" t="s">
@@ -17123,13 +17087,13 @@
       </c>
       <c r="U30" s="32"/>
     </row>
-    <row r="37" spans="17:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="17:20">
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="17:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="17:20">
       <c r="T38" s="9"/>
     </row>
-    <row r="39" spans="17:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="17:20">
       <c r="Q39" s="71" t="s">
         <v>125</v>
       </c>
@@ -17137,16 +17101,16 @@
       <c r="S39" s="71"/>
       <c r="T39" s="22"/>
     </row>
-    <row r="40" spans="17:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="17:20">
       <c r="T40" s="22"/>
     </row>
-    <row r="41" spans="17:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="17:20">
       <c r="T41" s="22"/>
     </row>
-    <row r="42" spans="17:20" x14ac:dyDescent="0.15">
+    <row r="42" spans="17:20">
       <c r="T42" s="9"/>
     </row>
-    <row r="43" spans="17:20" x14ac:dyDescent="0.15">
+    <row r="43" spans="17:20">
       <c r="T43" s="9"/>
     </row>
   </sheetData>
@@ -17162,14 +17126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="20" customWidth="1"/>
@@ -17188,7 +17152,7 @@
     <col min="19" max="19" width="9" style="85"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>189</v>
       </c>
@@ -17209,12 +17173,12 @@
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
       <c r="F3" s="86"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
         <v>190</v>
       </c>
@@ -17252,7 +17216,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="C6" s="86" t="s">
         <v>168</v>
       </c>
@@ -17284,21 +17248,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="B9" s="97" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="252" t="s">
+      <c r="D9" s="271" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="252" t="s">
+      <c r="E9" s="272"/>
+      <c r="F9" s="271" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="253"/>
+      <c r="G9" s="272"/>
       <c r="H9" s="83" t="s">
         <v>187</v>
       </c>
@@ -17308,10 +17272,10 @@
       <c r="J9" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="254" t="s">
+      <c r="K9" s="278" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="254"/>
+      <c r="L9" s="278"/>
       <c r="M9" s="83" t="s">
         <v>153</v>
       </c>
@@ -17332,7 +17296,7 @@
       </c>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="45.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>188</v>
       </c>
@@ -17342,14 +17306,14 @@
       <c r="C10" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="256" t="s">
+      <c r="D10" s="280" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257" t="s">
+      <c r="E10" s="281"/>
+      <c r="F10" s="281" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="257"/>
+      <c r="G10" s="281"/>
       <c r="H10" s="90" t="s">
         <v>284</v>
       </c>
@@ -17359,10 +17323,10 @@
       <c r="J10" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="K10" s="255" t="s">
+      <c r="K10" s="279" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="255"/>
+      <c r="L10" s="279"/>
       <c r="M10" s="32">
         <v>8.99</v>
       </c>
@@ -17381,7 +17345,7 @@
       </c>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="45.75" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="101">
         <v>2</v>
@@ -17389,10 +17353,10 @@
       <c r="C11" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="258" t="s">
+      <c r="D11" s="282" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="259"/>
+      <c r="E11" s="283"/>
       <c r="F11" s="91" t="s">
         <v>158</v>
       </c>
@@ -17428,7 +17392,7 @@
       </c>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="A12" s="54"/>
       <c r="B12" s="103"/>
       <c r="C12" s="231"/>
@@ -17448,33 +17412,33 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="C13" s="211"/>
       <c r="D13" s="112"/>
       <c r="E13" s="112"/>
       <c r="F13" s="112"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="C14" s="211"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="275"/>
       <c r="F14" s="112"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="C15" s="232" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="263"/>
-      <c r="E15" s="264"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="277"/>
       <c r="F15" s="112"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="C16" s="211"/>
       <c r="D16" s="231"/>
       <c r="E16" s="128"/>
       <c r="F16" s="112"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="C18" s="96" t="s">
         <v>263</v>
       </c>
@@ -17482,12 +17446,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19">
       <c r="K19" s="86" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19">
       <c r="C20" s="96" t="s">
         <v>267</v>
       </c>
@@ -17500,7 +17464,7 @@
       <c r="J20" s="129"/>
       <c r="K20" s="160"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19">
       <c r="C21" s="96" t="s">
         <v>268</v>
       </c>
@@ -17513,7 +17477,7 @@
       <c r="J21" s="129"/>
       <c r="K21" s="129"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19">
       <c r="C22" s="96" t="s">
         <v>279</v>
       </c>
@@ -17524,7 +17488,7 @@
       <c r="J22" s="129"/>
       <c r="K22" s="129"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19">
       <c r="H23" s="129"/>
       <c r="I23" s="129" t="s">
         <v>274</v>
@@ -17532,7 +17496,7 @@
       <c r="J23" s="129"/>
       <c r="K23" s="129"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19">
       <c r="H24" s="129"/>
       <c r="I24" s="174">
         <v>3232145958</v>
@@ -17540,17 +17504,17 @@
       <c r="J24" s="129"/>
       <c r="K24" s="129"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="C27" s="96" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="C29" s="96" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" s="150" customFormat="1">
       <c r="A30" s="5"/>
       <c r="B30" s="20"/>
       <c r="C30" s="96" t="s">
@@ -17573,7 +17537,7 @@
       <c r="R30" s="152"/>
       <c r="S30" s="142"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="C32" s="96" t="s">
         <v>276</v>
       </c>
@@ -17581,7 +17545,7 @@
         <v>43081.647222222222</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19">
       <c r="C33" s="96" t="s">
         <v>260</v>
       </c>
@@ -17590,7 +17554,7 @@
       </c>
       <c r="F33" s="96"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19">
       <c r="A34" s="5" t="s">
         <v>298</v>
       </c>
@@ -17604,12 +17568,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19">
       <c r="C36" s="96" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" s="150" customFormat="1">
       <c r="A37" s="5"/>
       <c r="B37" s="20"/>
       <c r="C37" s="96"/>
@@ -17630,7 +17594,7 @@
       <c r="R37" s="152"/>
       <c r="S37" s="142"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19">
       <c r="C38" s="169"/>
       <c r="D38" s="170" t="s">
         <v>290</v>
@@ -17648,7 +17612,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19">
       <c r="C39" s="164"/>
       <c r="D39" s="152"/>
       <c r="E39" s="152"/>
@@ -17658,7 +17622,7 @@
       <c r="I39" s="152"/>
       <c r="J39" s="165"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19">
       <c r="C40" s="164"/>
       <c r="D40" s="152" t="s">
         <v>283</v>
@@ -17666,27 +17630,27 @@
       <c r="E40" s="152"/>
       <c r="F40" s="152"/>
       <c r="G40" s="152"/>
-      <c r="H40" s="260" t="s">
+      <c r="H40" s="273" t="s">
         <v>287</v>
       </c>
-      <c r="I40" s="260" t="s">
+      <c r="I40" s="273" t="s">
         <v>288</v>
       </c>
-      <c r="J40" s="261" t="s">
+      <c r="J40" s="274" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19">
       <c r="C41" s="164"/>
       <c r="D41" s="152"/>
       <c r="E41" s="152"/>
       <c r="F41" s="152"/>
       <c r="G41" s="152"/>
-      <c r="H41" s="260"/>
-      <c r="I41" s="260"/>
-      <c r="J41" s="261"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="H41" s="273"/>
+      <c r="I41" s="273"/>
+      <c r="J41" s="274"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="C42" s="164"/>
       <c r="D42" s="163" t="s">
         <v>286</v>
@@ -17696,11 +17660,11 @@
       </c>
       <c r="F42" s="152"/>
       <c r="G42" s="152"/>
-      <c r="H42" s="260"/>
-      <c r="I42" s="260"/>
-      <c r="J42" s="261"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="H42" s="273"/>
+      <c r="I42" s="273"/>
+      <c r="J42" s="274"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="C43" s="166"/>
       <c r="D43" s="167"/>
       <c r="E43" s="167"/>
@@ -17710,7 +17674,7 @@
       <c r="I43" s="167"/>
       <c r="J43" s="168"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19">
       <c r="C46" s="96" t="s">
         <v>266</v>
       </c>
@@ -17721,7 +17685,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19">
       <c r="D47" s="152" t="s">
         <v>295</v>
       </c>
@@ -17729,7 +17693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19">
       <c r="D48" s="152" t="s">
         <v>296</v>
       </c>
@@ -17737,7 +17701,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19">
       <c r="D49" s="112" t="s">
         <v>304</v>
       </c>
@@ -17745,7 +17709,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" s="150" customFormat="1">
       <c r="A50" s="5"/>
       <c r="B50" s="20"/>
       <c r="C50" s="96"/>
@@ -17766,7 +17730,7 @@
       <c r="R50" s="152"/>
       <c r="S50" s="142"/>
     </row>
-    <row r="51" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" s="150" customFormat="1">
       <c r="A51" s="5"/>
       <c r="B51" s="20"/>
       <c r="C51" s="96"/>
@@ -17787,7 +17751,7 @@
       <c r="R51" s="152"/>
       <c r="S51" s="142"/>
     </row>
-    <row r="52" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" s="150" customFormat="1">
       <c r="A52" s="5"/>
       <c r="B52" s="20"/>
       <c r="C52" s="96" t="s">
@@ -17810,7 +17774,7 @@
       <c r="R52" s="152"/>
       <c r="S52" s="142"/>
     </row>
-    <row r="53" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" s="150" customFormat="1">
       <c r="A53" s="5"/>
       <c r="B53" s="20"/>
       <c r="C53" s="96"/>
@@ -17831,7 +17795,7 @@
       <c r="R53" s="152"/>
       <c r="S53" s="142"/>
     </row>
-    <row r="54" spans="1:19" s="150" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" s="150" customFormat="1" ht="14.25">
       <c r="A54" s="5"/>
       <c r="B54" s="20"/>
       <c r="C54" s="175" t="s">
@@ -17855,7 +17819,7 @@
       <c r="R54" s="152"/>
       <c r="S54" s="142"/>
     </row>
-    <row r="55" spans="1:19" s="150" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" s="150" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="20"/>
       <c r="C55" s="175" t="s">
@@ -17879,7 +17843,7 @@
       <c r="R55" s="152"/>
       <c r="S55" s="142"/>
     </row>
-    <row r="56" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" s="150" customFormat="1">
       <c r="A56" s="5"/>
       <c r="B56" s="20"/>
       <c r="C56" s="96"/>
@@ -17902,7 +17866,7 @@
       <c r="R56" s="152"/>
       <c r="S56" s="142"/>
     </row>
-    <row r="57" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" s="150" customFormat="1">
       <c r="A57" s="5"/>
       <c r="B57" s="20"/>
       <c r="C57" s="96"/>
@@ -17923,7 +17887,7 @@
       <c r="R57" s="152"/>
       <c r="S57" s="142"/>
     </row>
-    <row r="58" spans="1:19" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" s="150" customFormat="1">
       <c r="A58" s="5"/>
       <c r="B58" s="20"/>
       <c r="C58" s="96"/>
@@ -17944,7 +17908,7 @@
       <c r="R58" s="152"/>
       <c r="S58" s="142"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19">
       <c r="F61" s="35" t="s">
         <v>300</v>
       </c>
@@ -17954,6 +17918,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="I40:I42"/>
     <mergeCell ref="J40:J42"/>
@@ -17961,11 +17930,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -17980,14 +17944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17995,14 +17959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="110" customWidth="1"/>
@@ -18016,7 +17980,7 @@
     <col min="12" max="12" width="9" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="14.25" thickBot="1">
       <c r="A1" s="104"/>
       <c r="B1" s="122"/>
       <c r="C1" s="123"/>
@@ -18030,7 +17994,7 @@
       <c r="K1" s="123"/>
       <c r="L1" s="109"/>
     </row>
-    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="14.25" thickBot="1">
       <c r="A2" s="105"/>
       <c r="C2" s="108" t="s">
         <v>199</v>
@@ -18049,7 +18013,7 @@
       </c>
       <c r="J2" s="112"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="104"/>
       <c r="B3" s="124"/>
       <c r="C3" s="112"/>
@@ -18062,7 +18026,7 @@
       <c r="J3" s="112"/>
       <c r="K3" s="112"/>
     </row>
-    <row r="4" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="106" customFormat="1">
       <c r="B4" s="124"/>
       <c r="C4" s="60" t="s">
         <v>171</v>
@@ -18089,7 +18053,7 @@
       <c r="K4" s="112"/>
       <c r="L4" s="125"/>
     </row>
-    <row r="5" spans="1:12" s="106" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="106" customFormat="1" ht="39" customHeight="1">
       <c r="B5" s="124"/>
       <c r="C5" s="115">
         <v>1</v>
@@ -18114,7 +18078,7 @@
       <c r="K5" s="112"/>
       <c r="L5" s="125"/>
     </row>
-    <row r="6" spans="1:12" s="106" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="106" customFormat="1" ht="39" customHeight="1">
       <c r="A6" s="107"/>
       <c r="B6" s="126"/>
       <c r="C6" s="115">
@@ -18140,7 +18104,7 @@
       <c r="K6" s="112"/>
       <c r="L6" s="125"/>
     </row>
-    <row r="7" spans="1:12" s="106" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="106" customFormat="1" ht="30.75" customHeight="1">
       <c r="B7" s="124"/>
       <c r="C7" s="112"/>
       <c r="D7" s="22"/>
@@ -18153,7 +18117,7 @@
       <c r="K7" s="112"/>
       <c r="L7" s="125"/>
     </row>
-    <row r="8" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="106" customFormat="1">
       <c r="B8" s="124"/>
       <c r="C8" s="112" t="s">
         <v>215</v>
@@ -18168,7 +18132,7 @@
       <c r="K8" s="112"/>
       <c r="L8" s="125"/>
     </row>
-    <row r="9" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="106" customFormat="1">
       <c r="B9" s="124"/>
       <c r="C9" s="112"/>
       <c r="D9" s="112"/>
@@ -18181,7 +18145,7 @@
       <c r="K9" s="112"/>
       <c r="L9" s="125"/>
     </row>
-    <row r="10" spans="1:12" s="106" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="106" customFormat="1" ht="34.5" customHeight="1">
       <c r="B10" s="124"/>
       <c r="C10" s="118">
         <v>2</v>
@@ -18206,7 +18170,7 @@
       <c r="K10" s="112"/>
       <c r="L10" s="125"/>
     </row>
-    <row r="11" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="106" customFormat="1">
       <c r="B11" s="124"/>
       <c r="C11" s="129"/>
       <c r="D11" s="129"/>
@@ -18219,7 +18183,7 @@
       <c r="K11" s="112"/>
       <c r="L11" s="125"/>
     </row>
-    <row r="12" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="106" customFormat="1">
       <c r="B12" s="124"/>
       <c r="C12" s="129"/>
       <c r="D12" s="130"/>
@@ -18232,7 +18196,7 @@
       <c r="K12" s="112"/>
       <c r="L12" s="125"/>
     </row>
-    <row r="13" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="106" customFormat="1">
       <c r="B13" s="124"/>
       <c r="C13" s="129"/>
       <c r="D13" s="129"/>
@@ -18249,7 +18213,7 @@
       <c r="K13" s="112"/>
       <c r="L13" s="125"/>
     </row>
-    <row r="14" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="106" customFormat="1">
       <c r="B14" s="124"/>
       <c r="C14" s="129"/>
       <c r="D14" s="129"/>
@@ -18262,7 +18226,7 @@
       <c r="K14" s="112"/>
       <c r="L14" s="125"/>
     </row>
-    <row r="15" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="106" customFormat="1">
       <c r="B15" s="124"/>
       <c r="C15" s="129"/>
       <c r="D15" s="129"/>
@@ -18275,7 +18239,7 @@
       <c r="K15" s="112"/>
       <c r="L15" s="125"/>
     </row>
-    <row r="16" spans="1:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="106" customFormat="1">
       <c r="B16" s="124"/>
       <c r="C16" s="112"/>
       <c r="D16" s="112"/>
@@ -18288,7 +18252,7 @@
       <c r="K16" s="112"/>
       <c r="L16" s="125"/>
     </row>
-    <row r="17" spans="2:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" s="106" customFormat="1">
       <c r="B17" s="124"/>
       <c r="C17" s="112"/>
       <c r="D17" s="112"/>
@@ -18301,7 +18265,7 @@
       <c r="K17" s="112"/>
       <c r="L17" s="125"/>
     </row>
-    <row r="18" spans="2:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" s="106" customFormat="1">
       <c r="B18" s="124"/>
       <c r="C18" s="112"/>
       <c r="D18" s="112"/>
@@ -18314,7 +18278,7 @@
       <c r="K18" s="112"/>
       <c r="L18" s="125"/>
     </row>
-    <row r="19" spans="2:12" s="106" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" s="106" customFormat="1">
       <c r="B19" s="124"/>
       <c r="C19" s="112"/>
       <c r="D19" s="112"/>
@@ -18335,14 +18299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="140" customWidth="1"/>
@@ -18355,7 +18319,7 @@
     <col min="10" max="10" width="9" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="B1" s="137"/>
       <c r="C1" s="146"/>
       <c r="D1" s="138"/>
@@ -18366,7 +18330,7 @@
       <c r="I1" s="138"/>
       <c r="J1" s="139"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>240</v>
       </c>
@@ -18380,7 +18344,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="134" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="134" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="140"/>
       <c r="C4" s="16"/>
@@ -18392,7 +18356,7 @@
       <c r="I4" s="136"/>
       <c r="J4" s="142"/>
     </row>
-    <row r="5" spans="1:10" s="134" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="134" customFormat="1">
       <c r="A5" s="5"/>
       <c r="B5" s="140"/>
       <c r="C5" s="16"/>
@@ -18404,7 +18368,7 @@
       <c r="I5" s="136"/>
       <c r="J5" s="142"/>
     </row>
-    <row r="6" spans="1:10" s="134" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="134" customFormat="1">
       <c r="A6" s="5"/>
       <c r="B6" s="140"/>
       <c r="C6" s="16"/>
@@ -18416,7 +18380,7 @@
       <c r="I6" s="136"/>
       <c r="J6" s="142"/>
     </row>
-    <row r="7" spans="1:10" s="134" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="134" customFormat="1">
       <c r="A7" s="5"/>
       <c r="B7" s="140"/>
       <c r="C7" s="16"/>
@@ -18428,7 +18392,7 @@
       <c r="I7" s="136"/>
       <c r="J7" s="142"/>
     </row>
-    <row r="8" spans="1:10" s="143" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="143" customFormat="1" ht="3.75" customHeight="1">
       <c r="A8" s="145"/>
       <c r="B8" s="147"/>
       <c r="C8" s="148"/>
@@ -18440,7 +18404,7 @@
       <c r="I8" s="144"/>
       <c r="J8" s="149"/>
     </row>
-    <row r="9" spans="1:10" s="134" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="134" customFormat="1">
       <c r="A9" s="5"/>
       <c r="B9" s="140"/>
       <c r="C9" s="16"/>
@@ -18452,7 +18416,7 @@
       <c r="I9" s="136"/>
       <c r="J9" s="142"/>
     </row>
-    <row r="10" spans="1:10" s="133" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="133" customFormat="1">
       <c r="A10" s="5"/>
       <c r="B10" s="140"/>
       <c r="C10" s="16"/>
@@ -18464,7 +18428,7 @@
       <c r="I10" s="136"/>
       <c r="J10" s="142"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="C11" s="30" t="s">
         <v>149</v>
       </c>
@@ -18487,8 +18451,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="265" t="s">
+    <row r="12" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A12" s="284" t="s">
         <v>241</v>
       </c>
       <c r="C12" s="30">
@@ -18509,8 +18473,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="265"/>
+    <row r="13" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A13" s="284"/>
       <c r="C13" s="30">
         <v>2</v>
       </c>
@@ -18529,7 +18493,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="33.75" customHeight="1">
       <c r="C14" s="30">
         <v>3</v>
       </c>
@@ -18548,7 +18512,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="C19" s="30" t="s">
         <v>149</v>
       </c>
@@ -18571,8 +18535,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="265" t="s">
+    <row r="20" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A20" s="284" t="s">
         <v>242</v>
       </c>
       <c r="C20" s="30">
@@ -18593,8 +18557,8 @@
       </c>
       <c r="I20" s="135"/>
     </row>
-    <row r="21" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="265"/>
+    <row r="21" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A21" s="284"/>
       <c r="C21" s="30">
         <v>2</v>
       </c>
@@ -18613,7 +18577,7 @@
       </c>
       <c r="I21" s="135"/>
     </row>
-    <row r="22" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="36.75" customHeight="1">
       <c r="C22" s="30">
         <v>3</v>
       </c>
@@ -18632,7 +18596,7 @@
       </c>
       <c r="I22" s="135"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="C25" s="136"/>
       <c r="I25" s="141" t="s">
         <v>233</v>
@@ -18650,14 +18614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="140" customWidth="1"/>
@@ -18673,12 +18637,12 @@
     <col min="12" max="12" width="33.25" style="142" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14">
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="C5" s="92" t="s">
         <v>147</v>
       </c>
@@ -18700,7 +18664,7 @@
       </c>
       <c r="K5" s="151"/>
     </row>
-    <row r="6" spans="2:14" s="150" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" s="150" customFormat="1">
       <c r="B6" s="140"/>
       <c r="C6" s="92"/>
       <c r="D6" s="152"/>
@@ -18714,7 +18678,7 @@
       <c r="L6" s="142"/>
       <c r="N6" s="152"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="C7" s="92" t="s">
         <v>201</v>
       </c>
@@ -18725,15 +18689,15 @@
       <c r="M7" s="150"/>
       <c r="N7" s="150"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14">
       <c r="M8" s="150"/>
       <c r="N8" s="150"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14">
       <c r="M9" s="150"/>
       <c r="N9" s="150"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="C10" s="151" t="s">
         <v>149</v>
       </c>
@@ -18767,7 +18731,7 @@
       <c r="M10" s="150"/>
       <c r="N10" s="150"/>
     </row>
-    <row r="11" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" ht="39" customHeight="1">
       <c r="C11" s="31">
         <v>1</v>
       </c>
@@ -18801,7 +18765,7 @@
       <c r="M11" s="150"/>
       <c r="N11" s="150"/>
     </row>
-    <row r="12" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" ht="40.5" customHeight="1">
       <c r="C12" s="154">
         <v>2</v>
       </c>
@@ -18835,53 +18799,53 @@
       <c r="M12" s="150"/>
       <c r="N12" s="150"/>
     </row>
-    <row r="13" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="268">
+    <row r="13" spans="2:14" ht="40.5" customHeight="1">
+      <c r="C13" s="287">
         <v>3</v>
       </c>
-      <c r="D13" s="273">
+      <c r="D13" s="292">
         <v>43083.647222164349</v>
       </c>
-      <c r="E13" s="268" t="s">
+      <c r="E13" s="287" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="269" t="s">
+      <c r="F13" s="288" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="273" t="s">
+      <c r="G13" s="292" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="271" t="s">
+      <c r="H13" s="290" t="s">
         <v>159</v>
       </c>
-      <c r="I13" s="275" t="s">
+      <c r="I13" s="294" t="s">
         <v>255</v>
       </c>
       <c r="J13" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="269" t="s">
+      <c r="K13" s="288" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="266" t="s">
+      <c r="L13" s="285" t="s">
         <v>258</v>
       </c>
       <c r="M13" s="150"/>
       <c r="N13" s="150"/>
     </row>
-    <row r="14" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="268"/>
-      <c r="D14" s="274"/>
-      <c r="E14" s="268"/>
-      <c r="F14" s="270"/>
-      <c r="G14" s="274"/>
-      <c r="H14" s="272"/>
-      <c r="I14" s="276"/>
+    <row r="14" spans="2:14" ht="40.5" customHeight="1">
+      <c r="C14" s="287"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="287"/>
+      <c r="F14" s="289"/>
+      <c r="G14" s="293"/>
+      <c r="H14" s="291"/>
+      <c r="I14" s="295"/>
       <c r="J14" s="156" t="s">
         <v>247</v>
       </c>
-      <c r="K14" s="270"/>
-      <c r="L14" s="267"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="286"/>
       <c r="M14" s="150"/>
       <c r="N14" s="150"/>
     </row>

--- a/A-client-系统首页-看板-商品-订单-物流界面.xlsx
+++ b/A-client-系统首页-看板-商品-订单-物流界面.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="808" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="系统首页" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="对账单列表" sheetId="29" r:id="rId19"/>
     <sheet name="付款单列表" sheetId="30" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -1486,13 +1486,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>S225811-white</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS-9025240</t>
-  </si>
-  <si>
     <t>HS-9025240</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2513,6 +2506,14 @@
   </si>
   <si>
     <t>W2325521222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JX1705121623-80881</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS-9025240</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3815,9 +3816,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3833,21 +3852,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3884,6 +3888,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3908,24 +3930,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3988,9 +3992,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4030,7 +4031,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4079,7 +4080,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EBEAB4-B18E-43BA-9835-7198C14D2EDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4EBEAB4-B18E-43BA-9835-7198C14D2EDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4123,7 +4124,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B44FF6D-8A2E-4D18-A54F-1926190E32FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B44FF6D-8A2E-4D18-A54F-1926190E32FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4168,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9573305B-890F-40BC-9163-901041E47FBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9573305B-890F-40BC-9163-901041E47FBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4211,7 +4212,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B3C7F6-97BC-4A19-99CB-C00A1BECF2DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6B3C7F6-97BC-4A19-99CB-C00A1BECF2DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,7 +4256,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6F5B00-5660-43EC-ADE6-B604A31CBEE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE6F5B00-5660-43EC-ADE6-B604A31CBEE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,7 +4295,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323ABA9A-637C-4D14-B472-876C197A0DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{323ABA9A-637C-4D14-B472-876C197A0DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4333,7 +4334,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5133D643-639B-45CE-80E2-308278394E6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5133D643-639B-45CE-80E2-308278394E6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4373,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B146CC-19D0-4243-A1DD-223848A2BF34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8B146CC-19D0-4243-A1DD-223848A2BF34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4421,7 +4422,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C2AD8E-04AF-4016-9CD2-A687AF016ADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23C2AD8E-04AF-4016-9CD2-A687AF016ADB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4465,7 +4466,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04D4F39-98A0-44F0-8D38-207FC0C1726C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A04D4F39-98A0-44F0-8D38-207FC0C1726C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4510,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C7DB7F-3154-4052-80CA-1A43FCF69E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0C7DB7F-3154-4052-80CA-1A43FCF69E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4548,7 +4549,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14702AF-7C6D-4443-BBAE-E511DD619764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A14702AF-7C6D-4443-BBAE-E511DD619764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4587,7 +4588,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE55327-9E7C-41E7-A61B-F975C2884776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEE55327-9E7C-41E7-A61B-F975C2884776}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4626,7 +4627,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08EFC32F-F68F-4E36-9AA1-1686C265A3B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08EFC32F-F68F-4E36-9AA1-1686C265A3B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4670,7 +4671,7 @@
         <xdr:cNvPr id="12" name="图片 11" descr="https://ss0.bdstatic.com/70cFuHSh_Q1YnxGkpoWK1HF6hhy/it/u=2537462398,2855292832&amp;fm=200&amp;gp=0.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD77F9C-7B3C-4512-8D1D-787607013DF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD77F9C-7B3C-4512-8D1D-787607013DF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4682,7 +4683,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4702,7 +4703,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4731,7 +4732,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF1926D-F7CD-498A-9A82-43DA133F07F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECF1926D-F7CD-498A-9A82-43DA133F07F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,7 +4776,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1F137D-9549-4ABC-A99F-3DBEF0921E33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA1F137D-9549-4ABC-A99F-3DBEF0921E33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4819,7 +4820,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F71826D-6396-475A-89AF-2E76A1002CC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F71826D-6396-475A-89AF-2E76A1002CC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4868,7 +4869,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55921C75-0458-4BFD-A019-D4E82504CDD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55921C75-0458-4BFD-A019-D4E82504CDD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4912,7 +4913,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02B4FE6-D895-4D7F-84BF-3CCEC286BB5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D02B4FE6-D895-4D7F-84BF-3CCEC286BB5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4961,7 +4962,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EED164A-6DF5-4AE4-AF88-4838A64394EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1EED164A-6DF5-4AE4-AF88-4838A64394EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5005,7 +5006,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A70AB5A-1656-4284-AFD9-F6DC3AC5EBC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A70AB5A-1656-4284-AFD9-F6DC3AC5EBC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5054,7 +5055,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896D22D9-F149-4AAE-B85A-70C299948A89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{896D22D9-F149-4AAE-B85A-70C299948A89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,7 +5067,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5104,7 +5105,7 @@
         <xdr:cNvPr id="4" name="直接箭头连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C98E19-F8FA-4A57-AFEE-1934B2BA1484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14C98E19-F8FA-4A57-AFEE-1934B2BA1484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5162,7 +5163,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5215,7 +5216,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5259,7 +5260,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5303,7 +5304,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5347,7 +5348,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5400,7 +5401,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5444,7 +5445,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5503,7 @@
         <xdr:cNvPr id="11" name="矩形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5560,7 +5561,7 @@
         <xdr:cNvPr id="12" name="矩形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5618,7 +5619,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5676,7 +5677,7 @@
         <xdr:cNvPr id="14" name="矩形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5734,7 +5735,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5793,7 @@
         <xdr:cNvPr id="16" name="矩形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5850,7 +5851,7 @@
         <xdr:cNvPr id="17" name="矩形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5908,7 +5909,7 @@
         <xdr:cNvPr id="18" name="矩形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5966,7 +5967,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6010,7 +6011,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6059,7 +6060,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6103,7 +6104,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6147,7 +6148,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6191,7 +6192,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6235,7 +6236,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6279,7 +6280,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6323,7 +6324,7 @@
         <xdr:cNvPr id="13" name="矩形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6381,7 +6382,7 @@
         <xdr:cNvPr id="14" name="矩形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6439,7 +6440,7 @@
         <xdr:cNvPr id="15" name="矩形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6497,7 +6498,7 @@
         <xdr:cNvPr id="16" name="矩形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6555,7 +6556,7 @@
         <xdr:cNvPr id="17" name="矩形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6613,7 +6614,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6657,7 +6658,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6701,7 +6702,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6745,7 +6746,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6789,7 +6790,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6828,7 +6829,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6867,7 +6868,7 @@
         <xdr:cNvPr id="27" name="图片 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6906,7 +6907,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6950,7 +6951,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6994,7 +6995,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7038,7 +7039,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7083,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7126,7 +7127,7 @@
         <xdr:cNvPr id="34" name="图片 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7170,7 +7171,7 @@
         <xdr:cNvPr id="35" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7209,7 +7210,7 @@
         <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7268,7 +7269,7 @@
         <xdr:cNvPr id="37" name="文本框 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7327,7 +7328,7 @@
         <xdr:cNvPr id="38" name="文本框 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7386,7 +7387,7 @@
         <xdr:cNvPr id="43" name="文本框 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7441,7 +7442,7 @@
         <xdr:cNvPr id="45" name="文本框 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7500,7 +7501,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7559,7 +7560,7 @@
         <xdr:cNvPr id="47" name="文本框 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7618,7 +7619,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7657,7 +7658,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7696,7 +7697,7 @@
         <xdr:cNvPr id="51" name="图片 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7740,7 +7741,7 @@
         <xdr:cNvPr id="40" name="直接箭头连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7798,7 +7799,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7842,7 +7843,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7886,7 +7887,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7930,7 +7931,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7979,7 +7980,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8023,7 +8024,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8067,7 +8068,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8111,7 +8112,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8155,7 +8156,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8199,7 +8200,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8257,7 +8258,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8301,7 +8302,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8345,7 +8346,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8389,7 +8390,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8433,7 +8434,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8477,7 +8478,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8526,7 +8527,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8570,7 +8571,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8614,7 +8615,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8658,7 +8659,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8707,7 +8708,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8751,7 +8752,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE41D95-F6AD-40B5-ABBA-BAAFB9CEC8C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEE41D95-F6AD-40B5-ABBA-BAAFB9CEC8C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8795,7 +8796,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE48783-D10B-4CEC-A64B-6A3CA9D9B51B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BE48783-D10B-4CEC-A64B-6A3CA9D9B51B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8839,7 +8840,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9C8690-5C6D-4FBD-A233-BCD270CD2F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D9C8690-5C6D-4FBD-A233-BCD270CD2F82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8888,7 +8889,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC191DDC-58B1-4C1A-90FF-88DF7212E750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC191DDC-58B1-4C1A-90FF-88DF7212E750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8932,7 +8933,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822489D3-1B7E-4227-B347-8E7C0C055EA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{822489D3-1B7E-4227-B347-8E7C0C055EA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8976,7 +8977,7 @@
         <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C77AF2E-9D7B-4091-A2E3-C099A7A81421}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C77AF2E-9D7B-4091-A2E3-C099A7A81421}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10272,8 +10273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10294,7 +10295,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="C1" s="178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D1" s="179" t="s">
         <v>311</v>
@@ -10352,14 +10353,14 @@
       <c r="D5" s="111"/>
       <c r="E5" s="111"/>
       <c r="H5" s="123"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="298"/>
+      <c r="I5" s="305"/>
+      <c r="J5" s="305"/>
       <c r="K5" s="124"/>
       <c r="M5" s="123"/>
-      <c r="N5" s="298" t="s">
+      <c r="N5" s="305" t="s">
         <v>332</v>
       </c>
-      <c r="O5" s="298"/>
+      <c r="O5" s="305"/>
       <c r="P5" s="124"/>
     </row>
     <row r="6" spans="1:16" s="105" customFormat="1">
@@ -10384,7 +10385,7 @@
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
       <c r="F7" s="213" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H7" s="123"/>
       <c r="I7" s="111" t="s">
@@ -10410,10 +10411,10 @@
       <c r="J8" s="111"/>
       <c r="K8" s="124"/>
       <c r="M8" s="123"/>
-      <c r="N8" s="302" t="s">
+      <c r="N8" s="309" t="s">
         <v>343</v>
       </c>
-      <c r="O8" s="303"/>
+      <c r="O8" s="310"/>
       <c r="P8" s="124"/>
     </row>
     <row r="9" spans="1:16" s="105" customFormat="1">
@@ -10426,8 +10427,8 @@
       <c r="J9" s="111"/>
       <c r="K9" s="124"/>
       <c r="M9" s="123"/>
-      <c r="N9" s="303"/>
-      <c r="O9" s="303"/>
+      <c r="N9" s="310"/>
+      <c r="O9" s="310"/>
       <c r="P9" s="124"/>
     </row>
     <row r="10" spans="1:16" s="105" customFormat="1">
@@ -10445,8 +10446,8 @@
       </c>
       <c r="K10" s="124"/>
       <c r="M10" s="123"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="301"/>
+      <c r="N10" s="308"/>
+      <c r="O10" s="308"/>
       <c r="P10" s="124"/>
     </row>
     <row r="11" spans="1:16" s="105" customFormat="1">
@@ -10494,12 +10495,12 @@
         <v>351</v>
       </c>
       <c r="J13" s="205" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K13" s="124"/>
       <c r="M13" s="123"/>
-      <c r="N13" s="301"/>
-      <c r="O13" s="301"/>
+      <c r="N13" s="308"/>
+      <c r="O13" s="308"/>
       <c r="P13" s="124"/>
     </row>
     <row r="14" spans="1:16" s="105" customFormat="1">
@@ -10513,10 +10514,10 @@
       <c r="J14" s="111"/>
       <c r="K14" s="124"/>
       <c r="M14" s="123"/>
-      <c r="N14" s="296" t="s">
+      <c r="N14" s="303" t="s">
         <v>346</v>
       </c>
-      <c r="O14" s="297"/>
+      <c r="O14" s="304"/>
       <c r="P14" s="124"/>
     </row>
     <row r="15" spans="1:16" s="105" customFormat="1" ht="13.5" customHeight="1">
@@ -10526,8 +10527,8 @@
       <c r="D15" s="111"/>
       <c r="E15" s="111"/>
       <c r="H15" s="123"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="299" t="s">
+      <c r="I15" s="275"/>
+      <c r="J15" s="306" t="s">
         <v>336</v>
       </c>
       <c r="K15" s="124"/>
@@ -10540,28 +10541,28 @@
       <c r="A16" s="214"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
-      <c r="D16" s="308"/>
+      <c r="D16" s="301"/>
       <c r="E16" s="111"/>
       <c r="H16" s="123"/>
-      <c r="I16" s="281"/>
-      <c r="J16" s="300"/>
+      <c r="I16" s="275"/>
+      <c r="J16" s="307"/>
       <c r="K16" s="124"/>
       <c r="M16" s="123"/>
-      <c r="N16" s="296" t="s">
+      <c r="N16" s="303" t="s">
         <v>347</v>
       </c>
-      <c r="O16" s="297"/>
+      <c r="O16" s="304"/>
       <c r="P16" s="124"/>
     </row>
     <row r="17" spans="1:16" s="105" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="214"/>
       <c r="B17" s="111"/>
       <c r="C17" s="111"/>
-      <c r="D17" s="309"/>
+      <c r="D17" s="302"/>
       <c r="E17" s="111"/>
       <c r="H17" s="123"/>
-      <c r="I17" s="281"/>
-      <c r="J17" s="300"/>
+      <c r="I17" s="275"/>
+      <c r="J17" s="307"/>
       <c r="K17" s="124"/>
       <c r="M17" s="123"/>
       <c r="N17" s="202"/>
@@ -10572,11 +10573,11 @@
       <c r="A18" s="214"/>
       <c r="B18" s="111"/>
       <c r="C18" s="111"/>
-      <c r="D18" s="309"/>
+      <c r="D18" s="302"/>
       <c r="E18" s="111"/>
       <c r="H18" s="123"/>
-      <c r="I18" s="281"/>
-      <c r="J18" s="300"/>
+      <c r="I18" s="275"/>
+      <c r="J18" s="307"/>
       <c r="K18" s="124"/>
       <c r="M18" s="123"/>
       <c r="N18" s="202"/>
@@ -10624,8 +10625,8 @@
       <c r="D21" s="111"/>
       <c r="E21" s="111"/>
       <c r="H21" s="123"/>
-      <c r="I21" s="306"/>
-      <c r="J21" s="307"/>
+      <c r="I21" s="299"/>
+      <c r="J21" s="300"/>
       <c r="K21" s="124"/>
       <c r="M21" s="123"/>
       <c r="P21" s="124"/>
@@ -10725,7 +10726,7 @@
         <v>322</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C35" s="52"/>
       <c r="H35" s="176"/>
@@ -10744,7 +10745,7 @@
         <v>312</v>
       </c>
       <c r="E36" s="212" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F36" s="60" t="s">
         <v>325</v>
@@ -10767,7 +10768,7 @@
         <v>43081.647222222222</v>
       </c>
       <c r="D37" s="177" t="s">
-        <v>332</v>
+        <v>618</v>
       </c>
       <c r="E37" s="212">
         <v>7</v>
@@ -10874,46 +10875,46 @@
     </row>
     <row r="43" spans="1:13">
       <c r="C43" s="177" t="s">
+        <v>359</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="E43" s="184" t="s">
+        <v>357</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="H43" s="299" t="s">
         <v>361</v>
       </c>
-      <c r="D43" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="E43" s="184" t="s">
-        <v>359</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="H43" s="306" t="s">
-        <v>363</v>
-      </c>
-      <c r="I43" s="307"/>
+      <c r="I43" s="300"/>
     </row>
     <row r="44" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1">
       <c r="A44" s="54" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C44" s="186">
         <v>1</v>
       </c>
       <c r="D44" s="186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E44" s="185"/>
       <c r="F44" s="114" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G44" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="H44" s="304">
+        <v>619</v>
+      </c>
+      <c r="H44" s="297">
         <v>1</v>
       </c>
-      <c r="I44" s="305"/>
+      <c r="I44" s="298"/>
     </row>
     <row r="45" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1">
       <c r="A45" s="54"/>
@@ -10921,19 +10922,19 @@
         <v>2</v>
       </c>
       <c r="D45" s="186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E45" s="114"/>
       <c r="F45" s="114" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="G45" s="114" t="s">
-        <v>370</v>
-      </c>
-      <c r="H45" s="304">
+      <c r="H45" s="297">
         <v>2</v>
       </c>
-      <c r="I45" s="305"/>
+      <c r="I45" s="298"/>
     </row>
     <row r="46" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1">
       <c r="A46" s="54"/>
@@ -10941,19 +10942,19 @@
         <v>3</v>
       </c>
       <c r="D46" s="186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E46" s="114"/>
       <c r="F46" s="114" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" s="114" t="s">
         <v>369</v>
       </c>
-      <c r="G46" s="114" t="s">
-        <v>371</v>
-      </c>
-      <c r="H46" s="304">
+      <c r="H46" s="297">
         <v>1</v>
       </c>
-      <c r="I46" s="305"/>
+      <c r="I46" s="298"/>
     </row>
     <row r="47" spans="1:13">
       <c r="I47" s="14"/>
@@ -11020,12 +11021,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I15:I18"/>
@@ -11035,6 +11030,12 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N8:O9"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11047,7 +11048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:P66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -11059,7 +11060,7 @@
   <sheetData>
     <row r="5" spans="2:11" ht="22.5">
       <c r="C5" s="217" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E5" s="176"/>
       <c r="F5" s="176"/>
@@ -11077,10 +11078,10 @@
     <row r="7" spans="2:11">
       <c r="E7" s="176"/>
       <c r="F7" s="176" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G7" s="177" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H7" s="176"/>
       <c r="I7" s="176"/>
@@ -11094,23 +11095,23 @@
     </row>
     <row r="9" spans="2:11">
       <c r="E9" s="176"/>
-      <c r="F9" s="322" t="s">
-        <v>375</v>
-      </c>
-      <c r="G9" s="314" t="s">
+      <c r="F9" s="323" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="315"/>
+      <c r="H9" s="316"/>
       <c r="I9" s="176"/>
     </row>
     <row r="10" spans="2:11" ht="22.5">
       <c r="B10" s="217" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E10" s="176"/>
-      <c r="F10" s="322"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="317"/>
+      <c r="F10" s="323"/>
+      <c r="G10" s="317"/>
+      <c r="H10" s="318"/>
       <c r="I10" s="176"/>
     </row>
     <row r="11" spans="2:11" s="176" customFormat="1">
@@ -11139,13 +11140,13 @@
         <v>43</v>
       </c>
       <c r="G14" s="177" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H14" s="184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I14" s="184" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J14" s="193"/>
       <c r="K14" s="193"/>
@@ -11169,7 +11170,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="187">
@@ -11188,7 +11189,7 @@
     </row>
     <row r="19" spans="5:11" s="176" customFormat="1">
       <c r="F19" s="178" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G19" s="178"/>
       <c r="H19" s="178"/>
@@ -11232,60 +11233,60 @@
       <c r="K23" s="105"/>
     </row>
     <row r="24" spans="5:11" s="176" customFormat="1" ht="18.75">
-      <c r="E24" s="325" t="s">
-        <v>383</v>
-      </c>
-      <c r="F24" s="325"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="325"/>
-      <c r="I24" s="325"/>
+      <c r="E24" s="326" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24" s="326"/>
+      <c r="G24" s="326"/>
+      <c r="H24" s="326"/>
+      <c r="I24" s="326"/>
       <c r="J24"/>
       <c r="K24" s="105"/>
     </row>
     <row r="25" spans="5:11" s="176" customFormat="1">
-      <c r="E25" s="324" t="s">
-        <v>384</v>
-      </c>
-      <c r="F25" s="324"/>
-      <c r="G25" s="324"/>
-      <c r="H25" s="324"/>
-      <c r="I25" s="324"/>
+      <c r="E25" s="325" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="325"/>
+      <c r="G25" s="325"/>
+      <c r="H25" s="325"/>
+      <c r="I25" s="325"/>
       <c r="K25" s="105"/>
     </row>
     <row r="26" spans="5:11" s="176" customFormat="1">
-      <c r="E26" s="324"/>
-      <c r="F26" s="324"/>
-      <c r="G26" s="324"/>
-      <c r="H26" s="324"/>
-      <c r="I26" s="324"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
       <c r="K26" s="105"/>
     </row>
     <row r="27" spans="5:11" s="176" customFormat="1">
-      <c r="E27" s="324"/>
-      <c r="F27" s="324"/>
-      <c r="G27" s="324"/>
-      <c r="H27" s="324"/>
-      <c r="I27" s="324"/>
+      <c r="E27" s="325"/>
+      <c r="F27" s="325"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="325"/>
+      <c r="I27" s="325"/>
       <c r="J27"/>
       <c r="K27" s="105"/>
     </row>
     <row r="28" spans="5:11" s="176" customFormat="1">
-      <c r="E28" s="324"/>
-      <c r="F28" s="324"/>
-      <c r="G28" s="324"/>
-      <c r="H28" s="324"/>
-      <c r="I28" s="324"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="325"/>
+      <c r="I28" s="325"/>
       <c r="J28"/>
       <c r="K28" s="105"/>
     </row>
     <row r="29" spans="5:11" s="176" customFormat="1" ht="31.5">
-      <c r="E29" s="323" t="s">
-        <v>376</v>
-      </c>
-      <c r="F29" s="323"/>
-      <c r="G29" s="323"/>
-      <c r="H29" s="323"/>
-      <c r="I29" s="323"/>
+      <c r="E29" s="324" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="324"/>
+      <c r="G29" s="324"/>
+      <c r="H29" s="324"/>
+      <c r="I29" s="324"/>
       <c r="J29" s="14"/>
       <c r="K29" s="105"/>
     </row>
@@ -11315,7 +11316,7 @@
     </row>
     <row r="34" spans="3:16" s="176" customFormat="1">
       <c r="F34" s="178" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G34" s="178"/>
       <c r="H34" s="178"/>
@@ -11332,7 +11333,7 @@
     </row>
     <row r="38" spans="3:16" s="176" customFormat="1" ht="31.5">
       <c r="C38" s="224" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J38" s="105"/>
       <c r="K38" s="105"/>
@@ -11344,13 +11345,13 @@
     <row r="40" spans="3:16">
       <c r="E40" s="176"/>
       <c r="F40" s="176" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G40" s="62" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H40" s="178" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I40" s="178"/>
       <c r="L40" s="176"/>
@@ -11374,12 +11375,12 @@
     <row r="42" spans="3:16">
       <c r="E42" s="176"/>
       <c r="F42" s="176" t="s">
-        <v>377</v>
-      </c>
-      <c r="G42" s="318" t="s">
-        <v>387</v>
-      </c>
-      <c r="H42" s="319"/>
+        <v>375</v>
+      </c>
+      <c r="G42" s="319" t="s">
+        <v>385</v>
+      </c>
+      <c r="H42" s="320"/>
       <c r="I42" s="176"/>
       <c r="L42" s="176"/>
       <c r="M42" s="176"/>
@@ -11390,8 +11391,8 @@
     <row r="43" spans="3:16">
       <c r="E43" s="176"/>
       <c r="F43" s="176"/>
-      <c r="G43" s="320"/>
-      <c r="H43" s="321"/>
+      <c r="G43" s="321"/>
+      <c r="H43" s="322"/>
       <c r="I43" s="176"/>
       <c r="L43" s="176"/>
       <c r="M43" s="176"/>
@@ -11419,7 +11420,7 @@
     </row>
     <row r="47" spans="3:16" s="176" customFormat="1">
       <c r="F47" s="178" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G47" s="178"/>
       <c r="H47" s="178"/>
@@ -11479,14 +11480,14 @@
       <c r="P52" s="176"/>
     </row>
     <row r="53" spans="5:16" ht="22.5">
-      <c r="E53" s="310" t="s">
-        <v>393</v>
-      </c>
-      <c r="F53" s="310"/>
-      <c r="G53" s="310"/>
-      <c r="H53" s="310"/>
-      <c r="I53" s="310"/>
-      <c r="J53" s="310"/>
+      <c r="E53" s="311" t="s">
+        <v>391</v>
+      </c>
+      <c r="F53" s="311"/>
+      <c r="G53" s="311"/>
+      <c r="H53" s="311"/>
+      <c r="I53" s="311"/>
+      <c r="J53" s="311"/>
       <c r="L53" s="176"/>
       <c r="M53" s="176"/>
       <c r="N53" s="176"/>
@@ -11509,7 +11510,7 @@
     <row r="55" spans="5:16" ht="27">
       <c r="E55" s="222"/>
       <c r="F55" s="228" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G55" s="227"/>
       <c r="H55" s="227"/>
@@ -11523,12 +11524,12 @@
     </row>
     <row r="56" spans="5:16" ht="27">
       <c r="E56" s="222"/>
-      <c r="F56" s="311" t="s">
-        <v>389</v>
-      </c>
-      <c r="G56" s="312"/>
-      <c r="H56" s="312"/>
-      <c r="I56" s="313"/>
+      <c r="F56" s="312" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" s="313"/>
+      <c r="H56" s="313"/>
+      <c r="I56" s="314"/>
       <c r="J56" s="222"/>
       <c r="L56" s="176"/>
       <c r="M56" s="176"/>
@@ -11602,7 +11603,7 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="178" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G66" s="178"/>
       <c r="H66" s="178"/>
@@ -11629,7 +11630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -11645,13 +11646,13 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D4" s="178" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E4" s="178" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G4" s="176"/>
       <c r="H4" s="176"/>
@@ -11671,16 +11672,16 @@
     </row>
     <row r="6" spans="2:11">
       <c r="D6" s="176" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E6" s="176" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="176" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="176" t="s">
         <v>397</v>
-      </c>
-      <c r="F6" s="176" t="s">
-        <v>398</v>
-      </c>
-      <c r="G6" s="176" t="s">
-        <v>399</v>
       </c>
       <c r="H6" s="176"/>
       <c r="I6" s="176"/>
@@ -11699,10 +11700,10 @@
     </row>
     <row r="8" spans="2:11">
       <c r="D8" s="220" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E8" s="220" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
@@ -11712,22 +11713,22 @@
     </row>
     <row r="9" spans="2:11">
       <c r="D9" s="184" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E9" s="177" t="s">
         <v>167</v>
       </c>
       <c r="F9" s="177" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G9" s="177" t="s">
         <v>292</v>
       </c>
       <c r="H9" s="177" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I9" s="177" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J9" s="176"/>
       <c r="K9" s="176"/>
@@ -11737,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="177" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F10" s="229" t="s">
         <v>191</v>
@@ -11749,7 +11750,7 @@
         <v>1500</v>
       </c>
       <c r="I10" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J10" s="176"/>
       <c r="K10" s="176"/>
@@ -11759,7 +11760,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="177" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F11" s="229" t="s">
         <v>192</v>
@@ -11771,7 +11772,7 @@
         <v>1500</v>
       </c>
       <c r="I11" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
@@ -11781,10 +11782,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="177" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F12" s="229" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G12" s="184">
         <v>2</v>
@@ -11793,7 +11794,7 @@
         <v>1500</v>
       </c>
       <c r="I12" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J12" s="176"/>
       <c r="K12" s="176"/>
@@ -11803,10 +11804,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="177" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F13" s="229" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G13" s="184">
         <v>2</v>
@@ -11815,7 +11816,7 @@
         <v>1500</v>
       </c>
       <c r="I13" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J13" s="176"/>
       <c r="K13" s="176"/>
@@ -11825,10 +11826,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="177" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F14" s="242" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G14" s="184">
         <v>2</v>
@@ -11837,7 +11838,7 @@
         <v>1500</v>
       </c>
       <c r="I14" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J14" s="176"/>
       <c r="K14" s="176"/>
@@ -11847,10 +11848,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="177" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F15" s="229" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G15" s="184">
         <v>2</v>
@@ -11859,7 +11860,7 @@
         <v>1500</v>
       </c>
       <c r="I15" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J15" s="176"/>
       <c r="K15" s="176"/>
@@ -11869,10 +11870,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="177" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F16" s="229" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G16" s="184">
         <v>2</v>
@@ -11881,7 +11882,7 @@
         <v>1500</v>
       </c>
       <c r="I16" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J16" s="176"/>
       <c r="K16" s="176"/>
@@ -11901,7 +11902,7 @@
     </row>
     <row r="19" spans="4:11" s="176" customFormat="1">
       <c r="D19" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="4:11" s="176" customFormat="1">
@@ -11925,7 +11926,7 @@
     </row>
     <row r="24" spans="4:11">
       <c r="D24" s="176" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E24" s="177"/>
       <c r="F24" s="177"/>
@@ -11947,16 +11948,16 @@
     </row>
     <row r="26" spans="4:11">
       <c r="D26" s="176" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E26" s="176" t="s">
+        <v>395</v>
+      </c>
+      <c r="F26" s="176" t="s">
+        <v>396</v>
+      </c>
+      <c r="G26" s="176" t="s">
         <v>397</v>
-      </c>
-      <c r="F26" s="176" t="s">
-        <v>398</v>
-      </c>
-      <c r="G26" s="176" t="s">
-        <v>399</v>
       </c>
       <c r="H26" s="176"/>
       <c r="J26" s="176"/>
@@ -11969,29 +11970,29 @@
     </row>
     <row r="28" spans="4:11">
       <c r="D28" s="220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J28" s="176"/>
       <c r="K28" s="176"/>
     </row>
     <row r="29" spans="4:11">
       <c r="D29" s="184" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E29" s="177" t="s">
         <v>167</v>
       </c>
       <c r="F29" s="177" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G29" s="177" t="s">
         <v>292</v>
       </c>
       <c r="H29" s="177" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I29" s="177" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J29" s="176"/>
       <c r="K29" s="176"/>
@@ -12001,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="177" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F30" s="229" t="s">
         <v>191</v>
@@ -12013,7 +12014,7 @@
         <v>1500</v>
       </c>
       <c r="I30" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J30" s="176"/>
       <c r="K30" s="176"/>
@@ -12023,7 +12024,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="177" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F31" s="229" t="s">
         <v>192</v>
@@ -12035,7 +12036,7 @@
         <v>1500</v>
       </c>
       <c r="I31" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J31" s="176"/>
       <c r="K31" s="176"/>
@@ -12045,10 +12046,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="177" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F32" s="229" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G32" s="184">
         <v>2</v>
@@ -12057,7 +12058,7 @@
         <v>1500</v>
       </c>
       <c r="I32" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J32" s="176"/>
       <c r="K32" s="176"/>
@@ -12067,10 +12068,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="177" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F33" s="229" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G33" s="184">
         <v>2</v>
@@ -12079,7 +12080,7 @@
         <v>1500</v>
       </c>
       <c r="I33" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J33" s="176"/>
       <c r="K33" s="176"/>
@@ -12089,10 +12090,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="177" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F34" s="229" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G34" s="184">
         <v>2</v>
@@ -12101,7 +12102,7 @@
         <v>1500</v>
       </c>
       <c r="I34" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J34" s="176"/>
       <c r="K34" s="176"/>
@@ -12111,10 +12112,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="177" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F35" s="229" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G35" s="184">
         <v>2</v>
@@ -12123,7 +12124,7 @@
         <v>1500</v>
       </c>
       <c r="I35" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J35" s="176"/>
       <c r="K35" s="176"/>
@@ -12133,10 +12134,10 @@
         <v>7</v>
       </c>
       <c r="E36" s="177" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F36" s="229" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G36" s="184">
         <v>2</v>
@@ -12145,7 +12146,7 @@
         <v>1500</v>
       </c>
       <c r="I36" s="177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J36" s="176"/>
       <c r="K36" s="176"/>
@@ -12160,7 +12161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -12189,17 +12190,17 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="216" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D6" s="176"/>
       <c r="E6" s="176" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="211" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" s="176" t="s">
         <v>424</v>
-      </c>
-      <c r="F6" s="211" t="s">
-        <v>425</v>
-      </c>
-      <c r="G6" s="176" t="s">
-        <v>426</v>
       </c>
       <c r="H6" s="176"/>
       <c r="I6" s="176"/>
@@ -12218,7 +12219,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="216" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D8" s="176"/>
       <c r="E8" s="176" t="s">
@@ -12246,13 +12247,13 @@
     </row>
     <row r="9" spans="1:18" s="176" customFormat="1">
       <c r="A9" s="216" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -12264,29 +12265,29 @@
     </row>
     <row r="11" spans="1:18" s="176" customFormat="1">
       <c r="A11" s="216" t="s">
+        <v>491</v>
+      </c>
+      <c r="E11" s="176" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" s="236" t="s">
         <v>493</v>
       </c>
-      <c r="E11" s="176" t="s">
+      <c r="G11" s="236" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="236" t="s">
+      <c r="H11" s="211" t="s">
         <v>495</v>
       </c>
-      <c r="G11" s="236" t="s">
+      <c r="I11" s="236" t="s">
         <v>496</v>
-      </c>
-      <c r="H11" s="211" t="s">
-        <v>497</v>
-      </c>
-      <c r="I11" s="236" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="D12" s="176"/>
       <c r="K12" s="176"/>
       <c r="L12" s="178" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M12" s="178"/>
       <c r="N12" s="176"/>
@@ -12307,7 +12308,7 @@
     <row r="14" spans="1:18" s="176" customFormat="1">
       <c r="A14" s="216"/>
       <c r="E14" s="220" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F14" s="220" t="s">
         <v>85</v>
@@ -12329,16 +12330,16 @@
         <v>38</v>
       </c>
       <c r="G15" s="184" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" s="184" t="s">
+        <v>427</v>
+      </c>
+      <c r="I15" s="184" t="s">
         <v>428</v>
       </c>
-      <c r="H15" s="184" t="s">
+      <c r="J15" s="184" t="s">
         <v>429</v>
-      </c>
-      <c r="I15" s="184" t="s">
-        <v>430</v>
-      </c>
-      <c r="J15" s="184" t="s">
-        <v>431</v>
       </c>
       <c r="K15" s="176"/>
       <c r="L15" s="139"/>
@@ -12355,7 +12356,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G16" s="184"/>
       <c r="H16" s="232" t="s">
@@ -12386,11 +12387,11 @@
         <v>2</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G17" s="184"/>
       <c r="H17" s="232" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I17" s="31">
         <v>171</v>
@@ -12413,11 +12414,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G18" s="184"/>
       <c r="H18" s="232" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I18" s="31">
         <v>171</v>
@@ -12434,10 +12435,10 @@
         <v>38</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q18" s="151"/>
       <c r="R18" s="141"/>
@@ -12448,11 +12449,11 @@
         <v>4</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G19" s="184"/>
       <c r="H19" s="232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I19" s="31">
         <v>171</v>
@@ -12466,11 +12467,11 @@
         <v>1</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O19" s="184"/>
       <c r="P19" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q19" s="151"/>
       <c r="R19" s="141"/>
@@ -12481,11 +12482,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G20" s="184"/>
       <c r="H20" s="232" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I20" s="31">
         <v>171</v>
@@ -12499,11 +12500,11 @@
         <v>2</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O20" s="184"/>
       <c r="P20" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="151"/>
       <c r="R20" s="141"/>
@@ -12522,11 +12523,11 @@
         <v>3</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O21" s="184"/>
       <c r="P21" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q21" s="151"/>
       <c r="R21" s="141"/>
@@ -12552,7 +12553,7 @@
       <c r="D23" s="176"/>
       <c r="E23" s="176"/>
       <c r="F23" s="221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G23" s="176"/>
       <c r="H23" s="176"/>
@@ -12589,7 +12590,7 @@
     <row r="26" spans="1:18" s="176" customFormat="1">
       <c r="A26" s="216"/>
       <c r="F26" s="176" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -12635,7 +12636,7 @@
       <c r="D30" s="176"/>
       <c r="E30" s="222"/>
       <c r="F30" s="222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G30" s="222"/>
       <c r="H30" s="222"/>
@@ -12722,7 +12723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -12749,7 +12750,7 @@
     </row>
     <row r="4" spans="3:16">
       <c r="C4" s="176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D4" s="176"/>
       <c r="E4" s="176"/>
@@ -12771,20 +12772,20 @@
     </row>
     <row r="6" spans="3:16">
       <c r="C6" s="176" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D6" s="176" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E6" s="176"/>
       <c r="F6" s="176" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G6" s="236" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I6" s="236" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J6" s="176"/>
       <c r="K6" s="176"/>
@@ -12808,16 +12809,16 @@
         <v>133</v>
       </c>
       <c r="E8" s="177" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F8" s="177" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G8" s="177" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H8" s="177" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I8" s="177" t="s">
         <v>202</v>
@@ -12831,10 +12832,10 @@
       </c>
       <c r="D9" s="177"/>
       <c r="E9" s="31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G9" s="89" t="s">
         <v>49</v>
@@ -12843,7 +12844,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J9" s="176"/>
       <c r="K9" s="176"/>
@@ -12854,19 +12855,19 @@
       </c>
       <c r="D10" s="177"/>
       <c r="E10" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H10" s="31">
         <v>50</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="3:16" s="176" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
@@ -12875,22 +12876,22 @@
       </c>
       <c r="D11" s="177"/>
       <c r="E11" s="31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G11" s="89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H11" s="31">
         <v>80</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L11" s="176" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="3:16" s="176" customFormat="1" ht="27.75" customHeight="1">
@@ -12908,23 +12909,23 @@
     </row>
     <row r="13" spans="3:16" s="176" customFormat="1">
       <c r="C13" s="176" t="s">
+        <v>446</v>
+      </c>
+      <c r="D13" s="176" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="176" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="176" t="s">
+      <c r="G13" s="236" t="s">
+        <v>482</v>
+      </c>
+      <c r="I13" s="236" t="s">
         <v>449</v>
-      </c>
-      <c r="F13" s="176" t="s">
-        <v>450</v>
-      </c>
-      <c r="G13" s="236" t="s">
-        <v>484</v>
-      </c>
-      <c r="I13" s="236" t="s">
-        <v>451</v>
       </c>
       <c r="K13" s="139"/>
       <c r="L13" s="151" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M13" s="151">
         <v>50</v>
@@ -12946,26 +12947,26 @@
         <v>133</v>
       </c>
       <c r="E15" s="177" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F15" s="177" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G15" s="177" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H15" s="177" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I15" s="177" t="s">
         <v>202</v>
       </c>
       <c r="K15" s="139"/>
-      <c r="L15" s="326" t="s">
-        <v>464</v>
-      </c>
-      <c r="M15" s="326"/>
-      <c r="N15" s="327"/>
+      <c r="L15" s="327" t="s">
+        <v>462</v>
+      </c>
+      <c r="M15" s="327"/>
+      <c r="N15" s="328"/>
     </row>
     <row r="16" spans="3:16" s="176" customFormat="1" ht="34.5" customHeight="1">
       <c r="C16" s="31">
@@ -12973,10 +12974,10 @@
       </c>
       <c r="D16" s="177"/>
       <c r="E16" s="31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G16" s="89" t="s">
         <v>49</v>
@@ -12985,12 +12986,12 @@
         <v>50</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K16" s="139"/>
-      <c r="L16" s="326"/>
-      <c r="M16" s="326"/>
-      <c r="N16" s="327"/>
+      <c r="L16" s="327"/>
+      <c r="M16" s="327"/>
+      <c r="N16" s="328"/>
     </row>
     <row r="17" spans="3:17" s="176" customFormat="1" ht="34.5" customHeight="1">
       <c r="C17" s="31">
@@ -12998,24 +12999,24 @@
       </c>
       <c r="D17" s="177"/>
       <c r="E17" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G17" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H17" s="31">
         <v>50</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K17" s="139"/>
-      <c r="L17" s="326"/>
-      <c r="M17" s="326"/>
-      <c r="N17" s="327"/>
+      <c r="L17" s="327"/>
+      <c r="M17" s="327"/>
+      <c r="N17" s="328"/>
     </row>
     <row r="18" spans="3:17" s="176" customFormat="1" ht="34.5" customHeight="1">
       <c r="C18" s="31">
@@ -13023,34 +13024,34 @@
       </c>
       <c r="D18" s="177"/>
       <c r="E18" s="31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G18" s="89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H18" s="31">
         <v>80</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K18" s="139"/>
-      <c r="L18" s="328" t="s">
-        <v>465</v>
-      </c>
-      <c r="M18" s="328"/>
+      <c r="L18" s="329" t="s">
+        <v>463</v>
+      </c>
+      <c r="M18" s="329"/>
       <c r="N18" s="141"/>
     </row>
     <row r="19" spans="3:17" s="176" customFormat="1">
       <c r="I19" s="237"/>
       <c r="K19" s="139"/>
-      <c r="L19" s="329" t="s">
-        <v>466</v>
-      </c>
-      <c r="M19" s="329"/>
+      <c r="L19" s="330" t="s">
+        <v>464</v>
+      </c>
+      <c r="M19" s="330"/>
       <c r="N19" s="141"/>
     </row>
     <row r="20" spans="3:17" s="176" customFormat="1">
@@ -13075,7 +13076,7 @@
     </row>
     <row r="24" spans="3:17" s="176" customFormat="1">
       <c r="D24" s="178" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E24" s="178"/>
       <c r="I24" s="237"/>
@@ -13108,13 +13109,13 @@
     <row r="28" spans="3:17">
       <c r="C28" s="176"/>
       <c r="D28" s="238" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E28" s="238" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F28" s="238" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G28" s="238"/>
       <c r="H28" s="176"/>
@@ -13136,7 +13137,7 @@
     <row r="30" spans="3:17" ht="14.25" thickBot="1">
       <c r="C30" s="176"/>
       <c r="D30" s="176" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E30" s="176"/>
       <c r="F30" s="176"/>
@@ -13160,7 +13161,7 @@
       <c r="G31" s="176"/>
       <c r="H31" s="176"/>
       <c r="I31" s="240" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J31" s="176"/>
       <c r="K31" s="181"/>
@@ -13180,19 +13181,19 @@
         <v>133</v>
       </c>
       <c r="F32" s="177" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G32" s="184" t="s">
         <v>292</v>
       </c>
       <c r="H32" s="177" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I32" s="177" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J32" s="177" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K32" s="181"/>
       <c r="L32" s="180"/>
@@ -13209,7 +13210,7 @@
       </c>
       <c r="E33" s="184"/>
       <c r="F33" s="186" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G33" s="31">
         <v>80</v>
@@ -13238,7 +13239,7 @@
       </c>
       <c r="E34" s="184"/>
       <c r="F34" s="186" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G34" s="31">
         <v>50</v>
@@ -13267,7 +13268,7 @@
       </c>
       <c r="E35" s="184"/>
       <c r="F35" s="186" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G35" s="31">
         <v>50</v>
@@ -13342,7 +13343,7 @@
       <c r="E39" s="176"/>
       <c r="F39" s="176"/>
       <c r="G39" s="235" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H39" s="176"/>
       <c r="I39" s="176"/>
@@ -13440,10 +13441,10 @@
     </row>
     <row r="5" spans="4:14">
       <c r="D5" s="226" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E5" s="226" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F5" s="226"/>
       <c r="H5" s="176"/>
@@ -13472,22 +13473,22 @@
         <v>43</v>
       </c>
       <c r="E7" s="184" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F7" s="184" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G7" s="184" t="s">
+        <v>471</v>
+      </c>
+      <c r="H7" s="184" t="s">
+        <v>472</v>
+      </c>
+      <c r="I7" s="184" t="s">
         <v>473</v>
       </c>
-      <c r="H7" s="184" t="s">
+      <c r="J7" s="184" t="s">
         <v>474</v>
-      </c>
-      <c r="I7" s="184" t="s">
-        <v>475</v>
-      </c>
-      <c r="J7" s="184" t="s">
-        <v>476</v>
       </c>
       <c r="K7" s="271" t="s">
         <v>202</v>
@@ -13501,10 +13502,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G8" s="243">
         <v>42860</v>
@@ -13519,7 +13520,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L8" s="32"/>
     </row>
@@ -13528,10 +13529,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G9" s="243">
         <v>42861</v>
@@ -13546,7 +13547,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L9" s="32"/>
     </row>
@@ -13555,10 +13556,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G10" s="243">
         <v>42862</v>
@@ -13573,7 +13574,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L10" s="32"/>
     </row>
@@ -13603,7 +13604,7 @@
     </row>
     <row r="13" spans="4:14">
       <c r="D13" s="176" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E13" s="176"/>
       <c r="F13" s="176"/>
@@ -13618,22 +13619,22 @@
     <row r="14" spans="4:14">
       <c r="D14" s="176"/>
       <c r="E14" s="244" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>133</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I14" s="62" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J14" s="244" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K14" s="176"/>
       <c r="L14" s="176"/>
@@ -13646,10 +13647,10 @@
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="187" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I15" s="245" t="s">
         <v>49</v>
@@ -13668,10 +13669,10 @@
       </c>
       <c r="F16" s="62"/>
       <c r="G16" s="187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I16" s="245" t="s">
         <v>49</v>
@@ -13766,7 +13767,7 @@
     </row>
     <row r="6" spans="4:12">
       <c r="D6" s="176" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E6" s="177"/>
       <c r="F6" s="176"/>
@@ -13780,7 +13781,7 @@
     <row r="7" spans="4:12" s="151" customFormat="1"/>
     <row r="8" spans="4:12">
       <c r="D8" s="176" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E8" s="177"/>
       <c r="F8" s="176"/>
@@ -13804,7 +13805,7 @@
     </row>
     <row r="10" spans="4:12">
       <c r="D10" s="178" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E10" s="176"/>
       <c r="F10" s="176"/>
@@ -13820,19 +13821,19 @@
         <v>43</v>
       </c>
       <c r="E11" s="177" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F11" s="177" t="s">
         <v>133</v>
       </c>
       <c r="G11" s="177" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H11" s="184" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I11" s="177" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
@@ -13922,7 +13923,7 @@
       <c r="G19" s="176"/>
       <c r="H19" s="176"/>
       <c r="I19" s="176" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J19" s="176"/>
       <c r="K19" s="176"/>
@@ -14010,7 +14011,7 @@
   <sheetData>
     <row r="5" spans="2:13">
       <c r="E5" s="234" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="2:13" s="105" customFormat="1">
@@ -14018,19 +14019,19 @@
     </row>
     <row r="7" spans="2:13">
       <c r="E7" s="177" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F7" s="177" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G7" s="177" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H7" s="177" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I7" s="184" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J7" s="177" t="s">
         <v>173</v>
@@ -14048,56 +14049,56 @@
         <v>1</v>
       </c>
       <c r="F8" s="177" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G8" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H8" s="177" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I8" s="184">
         <v>171</v>
       </c>
       <c r="J8" s="177" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K8" s="177" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L8" s="177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M8" s="176"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1">
       <c r="B9" s="216" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C9" s="216"/>
       <c r="E9" s="184">
         <v>2</v>
       </c>
       <c r="F9" s="177" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G9" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H9" s="177" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I9" s="184">
         <v>172</v>
       </c>
       <c r="J9" s="177" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K9" s="177" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L9" s="177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M9" s="176"/>
     </row>
@@ -14106,25 +14107,25 @@
         <v>3</v>
       </c>
       <c r="F10" s="177" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G10" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H10" s="177" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I10" s="184">
         <v>173</v>
       </c>
       <c r="J10" s="177" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K10" s="177" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L10" s="177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M10" s="176"/>
     </row>
@@ -14133,25 +14134,25 @@
         <v>4</v>
       </c>
       <c r="F11" s="177" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G11" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H11" s="177" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I11" s="184">
         <v>174</v>
       </c>
       <c r="J11" s="177" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K11" s="177" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L11" s="177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M11" s="176"/>
     </row>
@@ -14160,25 +14161,25 @@
         <v>5</v>
       </c>
       <c r="F12" s="177" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G12" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H12" s="177" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I12" s="184">
         <v>175</v>
       </c>
       <c r="J12" s="177" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K12" s="177" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L12" s="177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M12" s="176"/>
     </row>
@@ -14217,7 +14218,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="E16" s="176" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F16" s="176"/>
       <c r="G16" s="176"/>
@@ -14235,13 +14236,13 @@
         <v>133</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J17" s="244" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="5:10" ht="27">
@@ -14251,7 +14252,7 @@
       </c>
       <c r="G18" s="62"/>
       <c r="H18" s="90" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I18" s="245" t="s">
         <v>49</v>
@@ -14267,7 +14268,7 @@
       </c>
       <c r="G19" s="62"/>
       <c r="H19" s="90" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I19" s="245" t="s">
         <v>49</v>
@@ -14313,37 +14314,37 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:17">
-      <c r="A6" s="330" t="s">
-        <v>585</v>
-      </c>
-      <c r="B6" s="330"/>
+      <c r="A6" s="331" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="331"/>
       <c r="C6" s="176" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="176" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E6" s="176" t="s">
+        <v>571</v>
+      </c>
+      <c r="F6" s="176" t="s">
+        <v>572</v>
+      </c>
+      <c r="G6" s="176" t="s">
         <v>573</v>
       </c>
-      <c r="F6" s="176" t="s">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="331"/>
+      <c r="B7" s="331"/>
+      <c r="C7" s="176" t="s">
+        <v>570</v>
+      </c>
+      <c r="D7" s="176" t="s">
+        <v>577</v>
+      </c>
+      <c r="E7" s="176" t="s">
         <v>574</v>
-      </c>
-      <c r="G6" s="176" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="330"/>
-      <c r="B7" s="330"/>
-      <c r="C7" s="176" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" s="176" t="s">
-        <v>579</v>
-      </c>
-      <c r="E7" s="176" t="s">
-        <v>576</v>
       </c>
       <c r="F7" s="176" t="s">
         <v>101</v>
@@ -14370,58 +14371,58 @@
         <v>108</v>
       </c>
       <c r="N7" s="176" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O7" s="176" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="330"/>
-      <c r="B8" s="330"/>
+      <c r="A8" s="331"/>
+      <c r="B8" s="331"/>
       <c r="C8" s="176" t="s">
         <v>166</v>
       </c>
       <c r="D8" s="176" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="176" t="s">
+        <v>578</v>
+      </c>
+      <c r="F8" s="176" t="s">
         <v>579</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="G8" s="176" t="s">
         <v>580</v>
       </c>
-      <c r="F8" s="176" t="s">
-        <v>581</v>
-      </c>
-      <c r="G8" s="176" t="s">
-        <v>582</v>
-      </c>
       <c r="H8" s="176" t="s">
+        <v>578</v>
+      </c>
+      <c r="I8" s="176" t="s">
+        <v>579</v>
+      </c>
+      <c r="J8" s="176" t="s">
         <v>580</v>
       </c>
-      <c r="I8" s="176" t="s">
-        <v>581</v>
-      </c>
-      <c r="J8" s="176" t="s">
-        <v>582</v>
-      </c>
       <c r="K8" s="176" t="s">
+        <v>578</v>
+      </c>
+      <c r="L8" s="176" t="s">
+        <v>579</v>
+      </c>
+      <c r="M8" s="176" t="s">
         <v>580</v>
       </c>
-      <c r="L8" s="176" t="s">
-        <v>581</v>
-      </c>
-      <c r="M8" s="176" t="s">
-        <v>582</v>
-      </c>
       <c r="N8" s="176" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O8" s="176" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="C10" s="176" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D10" s="177"/>
       <c r="F10" s="176" t="s">
@@ -14429,35 +14430,35 @@
       </c>
       <c r="G10" s="177"/>
       <c r="H10" s="176" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I10" s="177"/>
       <c r="J10" s="176" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K10" s="177"/>
       <c r="L10" s="176" t="s">
+        <v>516</v>
+      </c>
+      <c r="N10" s="176" t="s">
+        <v>517</v>
+      </c>
+      <c r="O10" s="176" t="s">
         <v>518</v>
       </c>
-      <c r="N10" s="176" t="s">
-        <v>519</v>
-      </c>
-      <c r="O10" s="176" t="s">
-        <v>520</v>
-      </c>
       <c r="P10" s="176" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="C11" s="176" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F11" s="258" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G11" s="151"/>
       <c r="I11" s="151"/>
@@ -14471,10 +14472,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="C13" s="226" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D13" s="226" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="257" customFormat="1" ht="27">
@@ -14494,34 +14495,34 @@
         <v>166</v>
       </c>
       <c r="H14" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="I14" s="89" t="s">
+        <v>523</v>
+      </c>
+      <c r="J14" s="89" t="s">
         <v>524</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="K14" s="248" t="s">
+        <v>514</v>
+      </c>
+      <c r="L14" s="248" t="s">
+        <v>410</v>
+      </c>
+      <c r="M14" s="89" t="s">
         <v>525</v>
       </c>
-      <c r="J14" s="89" t="s">
+      <c r="N14" s="248" t="s">
+        <v>569</v>
+      </c>
+      <c r="O14" s="89" t="s">
         <v>526</v>
-      </c>
-      <c r="K14" s="248" t="s">
-        <v>516</v>
-      </c>
-      <c r="L14" s="248" t="s">
-        <v>412</v>
-      </c>
-      <c r="M14" s="89" t="s">
-        <v>527</v>
-      </c>
-      <c r="N14" s="248" t="s">
-        <v>571</v>
-      </c>
-      <c r="O14" s="89" t="s">
-        <v>528</v>
       </c>
       <c r="P14" s="248" t="s">
         <v>253</v>
       </c>
       <c r="Q14" s="248" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -14529,13 +14530,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="177" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E15" s="177" t="s">
         <v>249</v>
       </c>
       <c r="F15" s="249" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G15" s="177" t="s">
         <v>251</v>
@@ -14544,31 +14545,31 @@
         <v>1.3</v>
       </c>
       <c r="I15" s="177" t="s">
+        <v>529</v>
+      </c>
+      <c r="J15" s="177" t="s">
+        <v>530</v>
+      </c>
+      <c r="K15" s="177" t="s">
         <v>531</v>
-      </c>
-      <c r="J15" s="177" t="s">
-        <v>532</v>
-      </c>
-      <c r="K15" s="177" t="s">
-        <v>533</v>
       </c>
       <c r="L15" s="250">
         <v>42866</v>
       </c>
       <c r="M15" s="177" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N15" s="251" t="s">
+        <v>532</v>
+      </c>
+      <c r="O15" s="177" t="s">
+        <v>533</v>
+      </c>
+      <c r="P15" s="177" t="s">
         <v>534</v>
       </c>
-      <c r="O15" s="177" t="s">
-        <v>535</v>
-      </c>
-      <c r="P15" s="177" t="s">
-        <v>536</v>
-      </c>
       <c r="Q15" s="177" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -14576,44 +14577,44 @@
         <v>2</v>
       </c>
       <c r="D16" s="177" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E16" s="177" t="s">
         <v>248</v>
       </c>
       <c r="F16" s="249" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G16" s="177" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H16" s="177">
         <v>1.2</v>
       </c>
       <c r="I16" s="177" t="s">
+        <v>529</v>
+      </c>
+      <c r="J16" s="177" t="s">
+        <v>530</v>
+      </c>
+      <c r="K16" s="177" t="s">
         <v>531</v>
-      </c>
-      <c r="J16" s="177" t="s">
-        <v>532</v>
-      </c>
-      <c r="K16" s="177" t="s">
-        <v>533</v>
       </c>
       <c r="L16" s="250">
         <v>42867</v>
       </c>
       <c r="M16" s="177" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N16" s="251" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O16" s="177" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P16" s="177"/>
       <c r="Q16" s="177" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="3:17">
@@ -14621,49 +14622,49 @@
         <v>3</v>
       </c>
       <c r="D17" s="252" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E17" s="252" t="s">
         <v>248</v>
       </c>
       <c r="F17" s="253" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G17" s="252" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H17" s="252">
         <v>1.2</v>
       </c>
       <c r="I17" s="177" t="s">
+        <v>529</v>
+      </c>
+      <c r="J17" s="252" t="s">
+        <v>530</v>
+      </c>
+      <c r="K17" s="252" t="s">
         <v>531</v>
-      </c>
-      <c r="J17" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="K17" s="252" t="s">
-        <v>533</v>
       </c>
       <c r="L17" s="254">
         <v>42867</v>
       </c>
       <c r="M17" s="252" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N17" s="255" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O17" s="252" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P17" s="252"/>
       <c r="Q17" s="177" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="3:17">
       <c r="D22" s="176" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="3:17" ht="14.25" thickBot="1"/>
@@ -14680,10 +14681,10 @@
     </row>
     <row r="25" spans="3:17">
       <c r="D25" s="139" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E25" s="151" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F25" s="151"/>
       <c r="G25" s="151"/>
@@ -14705,10 +14706,10 @@
     </row>
     <row r="27" spans="3:17">
       <c r="D27" s="139" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E27" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F27" s="151"/>
       <c r="G27" s="151"/>
@@ -14720,10 +14721,10 @@
     </row>
     <row r="28" spans="3:17">
       <c r="D28" s="139" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E28" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F28" s="151"/>
       <c r="G28" s="151"/>
@@ -14735,10 +14736,10 @@
     </row>
     <row r="29" spans="3:17">
       <c r="D29" s="139" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E29" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F29" s="151"/>
       <c r="G29" s="151"/>
@@ -14750,10 +14751,10 @@
     </row>
     <row r="30" spans="3:17">
       <c r="D30" s="139" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E30" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F30" s="151"/>
       <c r="G30" s="151"/>
@@ -14765,10 +14766,10 @@
     </row>
     <row r="31" spans="3:17">
       <c r="D31" s="139" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E31" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F31" s="151"/>
       <c r="G31" s="151"/>
@@ -14780,10 +14781,10 @@
     </row>
     <row r="32" spans="3:17">
       <c r="D32" s="139" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E32" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F32" s="151"/>
       <c r="G32" s="151"/>
@@ -14795,10 +14796,10 @@
     </row>
     <row r="33" spans="4:12">
       <c r="D33" s="139" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E33" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F33" s="151"/>
       <c r="G33" s="151"/>
@@ -14810,10 +14811,10 @@
     </row>
     <row r="34" spans="4:12">
       <c r="D34" s="139" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E34" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F34" s="151"/>
       <c r="G34" s="151"/>
@@ -14825,10 +14826,10 @@
     </row>
     <row r="35" spans="4:12">
       <c r="D35" s="139" t="s">
+        <v>595</v>
+      </c>
+      <c r="E35" s="151" t="s">
         <v>597</v>
-      </c>
-      <c r="E35" s="151" t="s">
-        <v>599</v>
       </c>
       <c r="F35" s="151"/>
       <c r="G35" s="151"/>
@@ -14840,10 +14841,10 @@
     </row>
     <row r="36" spans="4:12">
       <c r="D36" s="139" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E36" s="151" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F36" s="151"/>
       <c r="G36" s="151"/>
@@ -14925,7 +14926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
@@ -14944,16 +14945,16 @@
   <sheetData>
     <row r="3" spans="1:18">
       <c r="A3" s="176" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D3" s="226" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" s="226" t="s">
+        <v>540</v>
+      </c>
+      <c r="F3" s="226" t="s">
         <v>541</v>
-      </c>
-      <c r="E3" s="226" t="s">
-        <v>542</v>
-      </c>
-      <c r="F3" s="226" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -14964,13 +14965,13 @@
     </row>
     <row r="5" spans="1:18">
       <c r="C5" s="226" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D5" s="226" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E5" s="226" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="27">
@@ -14978,16 +14979,16 @@
         <v>43</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>167</v>
@@ -14999,22 +15000,22 @@
         <v>166</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>289</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q6" s="32" t="s">
         <v>202</v>
@@ -15033,17 +15034,17 @@
       <c r="I7" s="177"/>
       <c r="J7" s="177"/>
       <c r="K7" s="177" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L7" s="177"/>
       <c r="M7" s="177"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
       <c r="P7" s="177" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Q7" s="177" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R7" s="177"/>
     </row>
@@ -15064,10 +15065,10 @@
       <c r="N8" s="177"/>
       <c r="O8" s="177"/>
       <c r="P8" s="177" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q8" s="177" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R8" s="177"/>
     </row>
@@ -15089,13 +15090,13 @@
       <c r="O9" s="177"/>
       <c r="P9" s="177"/>
       <c r="Q9" s="177" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R9" s="177"/>
     </row>
     <row r="11" spans="1:18">
       <c r="D11" s="226" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -15103,16 +15104,16 @@
         <v>43</v>
       </c>
       <c r="D13" s="177" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E13" s="177" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F13" s="177" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G13" s="177" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H13" s="177" t="s">
         <v>167</v>
@@ -15124,19 +15125,19 @@
         <v>166</v>
       </c>
       <c r="K13" s="177" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L13" s="177" t="s">
         <v>289</v>
       </c>
       <c r="M13" s="177" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N13" s="177" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P13" s="177" t="s">
         <v>40</v>
@@ -15164,7 +15165,7 @@
       <c r="O14" s="177"/>
       <c r="P14" s="177"/>
       <c r="Q14" s="177" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R14" s="177"/>
     </row>
@@ -15186,7 +15187,7 @@
       <c r="O15" s="177"/>
       <c r="P15" s="177"/>
       <c r="Q15" s="177" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R15" s="177"/>
     </row>
@@ -15208,13 +15209,13 @@
       <c r="O16" s="177"/>
       <c r="P16" s="177"/>
       <c r="Q16" s="177" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R16" s="177"/>
     </row>
     <row r="21" spans="2:13">
       <c r="D21" s="226" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="14.25" thickBot="1"/>
@@ -15256,16 +15257,16 @@
     </row>
     <row r="26" spans="2:13" ht="21" customHeight="1">
       <c r="B26" s="176" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D26" s="139"/>
       <c r="E26" s="151" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F26" s="177"/>
       <c r="G26" s="151"/>
       <c r="H26" s="151" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I26" s="177"/>
       <c r="J26" s="151"/>
@@ -15287,14 +15288,14 @@
     </row>
     <row r="28" spans="2:13" ht="21" customHeight="1">
       <c r="B28" s="176" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D28" s="139"/>
       <c r="E28" s="151" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F28" s="151" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G28" s="151"/>
       <c r="H28" s="151"/>
@@ -15307,7 +15308,7 @@
     <row r="29" spans="2:13" ht="21" customHeight="1">
       <c r="D29" s="139"/>
       <c r="E29" s="151" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F29" s="151">
         <v>581</v>
@@ -15323,7 +15324,7 @@
     <row r="30" spans="2:13" ht="21" customHeight="1">
       <c r="D30" s="139"/>
       <c r="E30" s="151" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F30" s="151">
         <v>25119</v>
@@ -15339,7 +15340,7 @@
     <row r="31" spans="2:13" ht="21" customHeight="1">
       <c r="D31" s="139"/>
       <c r="E31" s="151" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F31" s="177"/>
       <c r="G31" s="151"/>
@@ -15417,7 +15418,7 @@
       <c r="E37" s="151"/>
       <c r="F37" s="151"/>
       <c r="G37" s="258" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H37" s="151"/>
       <c r="I37" s="151"/>
@@ -15464,12 +15465,12 @@
     </row>
     <row r="44" spans="4:13">
       <c r="D44" s="176" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="4:13">
       <c r="D45" s="176" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="4:13" ht="14.25" thickBot="1"/>
@@ -15509,7 +15510,7 @@
     <row r="50" spans="5:13" ht="18.75">
       <c r="E50" s="72"/>
       <c r="F50" s="264" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -15557,10 +15558,10 @@
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
@@ -15853,10 +15854,10 @@
   <sheetData>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D4" s="176"/>
       <c r="E4" s="176"/>
@@ -15906,31 +15907,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="247" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C8" s="177" t="s">
+        <v>562</v>
+      </c>
+      <c r="D8" s="177" t="s">
+        <v>523</v>
+      </c>
+      <c r="E8" s="177" t="s">
+        <v>471</v>
+      </c>
+      <c r="F8" s="177" t="s">
+        <v>563</v>
+      </c>
+      <c r="G8" s="177" t="s">
         <v>564</v>
       </c>
-      <c r="D8" s="177" t="s">
-        <v>525</v>
-      </c>
-      <c r="E8" s="177" t="s">
-        <v>473</v>
-      </c>
-      <c r="F8" s="177" t="s">
+      <c r="H8" s="177" t="s">
         <v>565</v>
       </c>
-      <c r="G8" s="177" t="s">
-        <v>566</v>
-      </c>
-      <c r="H8" s="177" t="s">
-        <v>567</v>
-      </c>
       <c r="I8" s="177" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J8" s="177" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K8" s="177" t="s">
         <v>40</v>
@@ -15951,7 +15952,7 @@
       <c r="I9" s="177"/>
       <c r="J9" s="177"/>
       <c r="K9" s="177" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L9" s="177"/>
       <c r="M9" s="176"/>
@@ -15969,7 +15970,7 @@
       <c r="I10" s="177"/>
       <c r="J10" s="177"/>
       <c r="K10" s="177" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L10" s="177"/>
       <c r="M10" s="176"/>
@@ -17282,10 +17283,10 @@
       <c r="J9" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="273" t="s">
+      <c r="K9" s="278" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="273"/>
+      <c r="L9" s="278"/>
       <c r="M9" s="83" t="s">
         <v>153</v>
       </c>
@@ -17316,14 +17317,14 @@
       <c r="C10" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="275" t="s">
+      <c r="D10" s="281" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276" t="s">
-        <v>616</v>
-      </c>
-      <c r="G10" s="276"/>
+      <c r="E10" s="282"/>
+      <c r="F10" s="282" t="s">
+        <v>614</v>
+      </c>
+      <c r="G10" s="282"/>
       <c r="H10" s="89" t="s">
         <v>281</v>
       </c>
@@ -17333,10 +17334,10 @@
       <c r="J10" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="K10" s="331" t="s">
-        <v>617</v>
-      </c>
-      <c r="L10" s="274"/>
+      <c r="K10" s="279" t="s">
+        <v>615</v>
+      </c>
+      <c r="L10" s="280"/>
       <c r="M10" s="32">
         <v>8.99</v>
       </c>
@@ -17363,10 +17364,10 @@
       <c r="C11" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="277" t="s">
+      <c r="D11" s="283" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="278"/>
+      <c r="E11" s="284"/>
       <c r="F11" s="90" t="s">
         <v>158</v>
       </c>
@@ -17430,16 +17431,16 @@
     </row>
     <row r="14" spans="1:19">
       <c r="C14" s="210"/>
-      <c r="D14" s="281"/>
-      <c r="E14" s="281"/>
+      <c r="D14" s="275"/>
+      <c r="E14" s="275"/>
       <c r="F14" s="111"/>
     </row>
     <row r="15" spans="1:19">
       <c r="C15" s="231" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="282"/>
-      <c r="E15" s="283"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="277"/>
       <c r="F15" s="111"/>
     </row>
     <row r="16" spans="1:19">
@@ -17640,13 +17641,13 @@
       <c r="E40" s="151"/>
       <c r="F40" s="151"/>
       <c r="G40" s="151"/>
-      <c r="H40" s="279" t="s">
+      <c r="H40" s="273" t="s">
         <v>284</v>
       </c>
-      <c r="I40" s="279" t="s">
+      <c r="I40" s="273" t="s">
         <v>285</v>
       </c>
-      <c r="J40" s="280" t="s">
+      <c r="J40" s="274" t="s">
         <v>286</v>
       </c>
     </row>
@@ -17656,9 +17657,9 @@
       <c r="E41" s="151"/>
       <c r="F41" s="151"/>
       <c r="G41" s="151"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="280"/>
+      <c r="H41" s="273"/>
+      <c r="I41" s="273"/>
+      <c r="J41" s="274"/>
     </row>
     <row r="42" spans="1:19">
       <c r="C42" s="163"/>
@@ -17670,9 +17671,9 @@
       </c>
       <c r="F42" s="151"/>
       <c r="G42" s="151"/>
-      <c r="H42" s="279"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="280"/>
+      <c r="H42" s="273"/>
+      <c r="I42" s="273"/>
+      <c r="J42" s="274"/>
     </row>
     <row r="43" spans="1:19">
       <c r="C43" s="165"/>
@@ -17928,6 +17929,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="I40:I42"/>
     <mergeCell ref="J40:J42"/>
@@ -17935,11 +17941,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -18072,10 +18073,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="115">
@@ -18465,7 +18466,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A12" s="284" t="s">
+      <c r="A12" s="285" t="s">
         <v>238</v>
       </c>
       <c r="C12" s="30">
@@ -18487,7 +18488,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A13" s="284"/>
+      <c r="A13" s="285"/>
       <c r="C13" s="30">
         <v>2</v>
       </c>
@@ -18549,7 +18550,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A20" s="284" t="s">
+      <c r="A20" s="285" t="s">
         <v>239</v>
       </c>
       <c r="C20" s="30">
@@ -18571,7 +18572,7 @@
       <c r="I20" s="134"/>
     </row>
     <row r="21" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A21" s="284"/>
+      <c r="A21" s="285"/>
       <c r="C21" s="30">
         <v>2</v>
       </c>
@@ -18813,52 +18814,52 @@
       <c r="N12" s="149"/>
     </row>
     <row r="13" spans="2:14" ht="40.5" customHeight="1">
-      <c r="C13" s="287">
+      <c r="C13" s="288">
         <v>3</v>
       </c>
-      <c r="D13" s="292">
+      <c r="D13" s="293">
         <v>43083.647222164349</v>
       </c>
-      <c r="E13" s="287" t="s">
+      <c r="E13" s="288" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="288" t="s">
+      <c r="F13" s="289" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="292" t="s">
+      <c r="G13" s="293" t="s">
         <v>249</v>
       </c>
-      <c r="H13" s="290" t="s">
+      <c r="H13" s="291" t="s">
         <v>159</v>
       </c>
-      <c r="I13" s="294" t="s">
+      <c r="I13" s="295" t="s">
         <v>252</v>
       </c>
       <c r="J13" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="288" t="s">
+      <c r="K13" s="289" t="s">
         <v>162</v>
       </c>
-      <c r="L13" s="285" t="s">
+      <c r="L13" s="286" t="s">
         <v>255</v>
       </c>
       <c r="M13" s="149"/>
       <c r="N13" s="149"/>
     </row>
     <row r="14" spans="2:14" ht="40.5" customHeight="1">
-      <c r="C14" s="287"/>
-      <c r="D14" s="293"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="289"/>
-      <c r="G14" s="293"/>
-      <c r="H14" s="291"/>
-      <c r="I14" s="295"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="294"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="292"/>
+      <c r="I14" s="296"/>
       <c r="J14" s="155" t="s">
         <v>244</v>
       </c>
-      <c r="K14" s="289"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="290"/>
+      <c r="L14" s="287"/>
       <c r="M14" s="149"/>
       <c r="N14" s="149"/>
     </row>

--- a/A-client-系统首页-看板-商品-订单-物流界面.xlsx
+++ b/A-client-系统首页-看板-商品-订单-物流界面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="系统首页" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="624">
   <si>
     <t>首页</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1904,10 +1904,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MIER 16 Can Large ……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>made in china</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2050,10 +2046,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>创建调拨单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>调拨单号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2158,13 +2150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>111-2983838-1983837</t>
-  </si>
-  <si>
-    <t>LALKA@163.COM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>上海佳成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2469,51 +2454,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加备注 标记异常 取消异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XM4789552525</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wish-4025455@126.COM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POX01885111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2325521222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JX1705121623-80881</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS-9025240</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIER 16 Can Large ……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印箱贴    发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIER 16 Can Large Insulated Lunch Bag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建调拨单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111-2983838-1983837</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LALKA@163.COM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海佳成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>已生成付款单号为：11122344444的付款单，请在付款单列表中查看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加备注 标记异常 取消异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XM4789552525</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wish-4025455@126.COM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POX01885111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>W2325521222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JX1705121623-80881</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS-9025240</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10768,7 +10785,7 @@
         <v>43081.647222222222</v>
       </c>
       <c r="D37" s="177" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E37" s="212">
         <v>7</v>
@@ -10909,7 +10926,7 @@
         <v>338</v>
       </c>
       <c r="G44" s="114" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H44" s="297">
         <v>1</v>
@@ -11048,8 +11065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:P66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I31" sqref="E22:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11829,7 +11846,7 @@
         <v>407</v>
       </c>
       <c r="F14" s="242" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G14" s="184">
         <v>2</v>
@@ -12161,8 +12178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -12219,7 +12236,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="216" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D8" s="176"/>
       <c r="E8" s="176" t="s">
@@ -12247,13 +12264,13 @@
     </row>
     <row r="9" spans="1:18" s="176" customFormat="1">
       <c r="A9" s="216" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" t="s">
         <v>487</v>
-      </c>
-      <c r="F9" t="s">
-        <v>488</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -12265,22 +12282,22 @@
     </row>
     <row r="11" spans="1:18" s="176" customFormat="1">
       <c r="A11" s="216" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11" s="176" t="s">
         <v>491</v>
       </c>
-      <c r="E11" s="176" t="s">
+      <c r="F11" s="236" t="s">
         <v>492</v>
       </c>
-      <c r="F11" s="236" t="s">
+      <c r="G11" s="236" t="s">
         <v>493</v>
       </c>
-      <c r="G11" s="236" t="s">
+      <c r="H11" s="211" t="s">
         <v>494</v>
       </c>
-      <c r="H11" s="211" t="s">
+      <c r="I11" s="236" t="s">
         <v>495</v>
-      </c>
-      <c r="I11" s="236" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -12723,8 +12740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12782,7 +12799,7 @@
         <v>448</v>
       </c>
       <c r="G6" s="236" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I6" s="236" t="s">
         <v>449</v>
@@ -12855,10 +12872,10 @@
       </c>
       <c r="D10" s="177"/>
       <c r="E10" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G10" s="89" t="s">
         <v>437</v>
@@ -12918,7 +12935,7 @@
         <v>448</v>
       </c>
       <c r="G13" s="236" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I13" s="236" t="s">
         <v>449</v>
@@ -12963,7 +12980,7 @@
       </c>
       <c r="K15" s="139"/>
       <c r="L15" s="327" t="s">
-        <v>462</v>
+        <v>615</v>
       </c>
       <c r="M15" s="327"/>
       <c r="N15" s="328"/>
@@ -13040,7 +13057,7 @@
       </c>
       <c r="K18" s="139"/>
       <c r="L18" s="329" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M18" s="329"/>
       <c r="N18" s="141"/>
@@ -13049,7 +13066,7 @@
       <c r="I19" s="237"/>
       <c r="K19" s="139"/>
       <c r="L19" s="330" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M19" s="330"/>
       <c r="N19" s="141"/>
@@ -13076,7 +13093,7 @@
     </row>
     <row r="24" spans="3:17" s="176" customFormat="1">
       <c r="D24" s="178" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E24" s="178"/>
       <c r="I24" s="237"/>
@@ -13161,7 +13178,7 @@
       <c r="G31" s="176"/>
       <c r="H31" s="176"/>
       <c r="I31" s="240" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J31" s="176"/>
       <c r="K31" s="181"/>
@@ -13193,7 +13210,7 @@
         <v>455</v>
       </c>
       <c r="J32" s="177" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K32" s="181"/>
       <c r="L32" s="180"/>
@@ -13210,7 +13227,7 @@
       </c>
       <c r="E33" s="184"/>
       <c r="F33" s="186" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G33" s="31">
         <v>80</v>
@@ -13410,7 +13427,7 @@
   <dimension ref="D3:N19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13441,7 +13458,7 @@
     </row>
     <row r="5" spans="4:14">
       <c r="D5" s="226" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E5" s="226" t="s">
         <v>394</v>
@@ -13476,19 +13493,19 @@
         <v>446</v>
       </c>
       <c r="F7" s="184" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G7" s="184" t="s">
+        <v>470</v>
+      </c>
+      <c r="H7" s="184" t="s">
         <v>471</v>
       </c>
-      <c r="H7" s="184" t="s">
+      <c r="I7" s="184" t="s">
         <v>472</v>
       </c>
-      <c r="I7" s="184" t="s">
+      <c r="J7" s="184" t="s">
         <v>473</v>
-      </c>
-      <c r="J7" s="184" t="s">
-        <v>474</v>
       </c>
       <c r="K7" s="271" t="s">
         <v>202</v>
@@ -13505,7 +13522,7 @@
         <v>447</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G8" s="243">
         <v>42860</v>
@@ -13520,7 +13537,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>475</v>
+        <v>616</v>
       </c>
       <c r="L8" s="32"/>
     </row>
@@ -13529,10 +13546,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G9" s="243">
         <v>42861</v>
@@ -13547,7 +13564,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L9" s="32"/>
     </row>
@@ -13556,10 +13573,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G10" s="243">
         <v>42862</v>
@@ -13574,7 +13591,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L10" s="32"/>
     </row>
@@ -13604,7 +13621,7 @@
     </row>
     <row r="13" spans="4:14">
       <c r="D13" s="176" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" s="176"/>
       <c r="F13" s="176"/>
@@ -13619,7 +13636,7 @@
     <row r="14" spans="4:14">
       <c r="D14" s="176"/>
       <c r="E14" s="244" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>133</v>
@@ -13653,7 +13670,7 @@
         <v>457</v>
       </c>
       <c r="I15" s="245" t="s">
-        <v>49</v>
+        <v>617</v>
       </c>
       <c r="J15" s="187">
         <v>50</v>
@@ -13734,8 +13751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D4:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13767,7 +13784,7 @@
     </row>
     <row r="6" spans="4:12">
       <c r="D6" s="176" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E6" s="177"/>
       <c r="F6" s="176"/>
@@ -13781,7 +13798,7 @@
     <row r="7" spans="4:12" s="151" customFormat="1"/>
     <row r="8" spans="4:12">
       <c r="D8" s="176" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E8" s="177"/>
       <c r="F8" s="176"/>
@@ -13833,7 +13850,7 @@
         <v>428</v>
       </c>
       <c r="I11" s="177" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J11" s="176"/>
       <c r="K11" s="176"/>
@@ -13923,7 +13940,7 @@
       <c r="G19" s="176"/>
       <c r="H19" s="176"/>
       <c r="I19" s="176" t="s">
-        <v>500</v>
+        <v>618</v>
       </c>
       <c r="J19" s="176"/>
       <c r="K19" s="176"/>
@@ -13995,7 +14012,7 @@
   <dimension ref="B5:M19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14011,7 +14028,7 @@
   <sheetData>
     <row r="5" spans="2:13">
       <c r="E5" s="234" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="2:13" s="105" customFormat="1">
@@ -14022,16 +14039,16 @@
         <v>418</v>
       </c>
       <c r="F7" s="177" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G7" s="177" t="s">
+        <v>496</v>
+      </c>
+      <c r="H7" s="177" t="s">
         <v>497</v>
       </c>
-      <c r="H7" s="177" t="s">
-        <v>498</v>
-      </c>
       <c r="I7" s="184" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J7" s="177" t="s">
         <v>173</v>
@@ -14049,56 +14066,56 @@
         <v>1</v>
       </c>
       <c r="F8" s="177" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G8" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H8" s="177" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I8" s="184">
         <v>171</v>
       </c>
       <c r="J8" s="177" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K8" s="177" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L8" s="177" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M8" s="176"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1">
       <c r="B9" s="216" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C9" s="216"/>
       <c r="E9" s="184">
         <v>2</v>
       </c>
       <c r="F9" s="177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G9" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H9" s="177" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I9" s="184">
         <v>172</v>
       </c>
       <c r="J9" s="177" t="s">
-        <v>513</v>
+        <v>619</v>
       </c>
       <c r="K9" s="177" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L9" s="177" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M9" s="176"/>
     </row>
@@ -14107,25 +14124,25 @@
         <v>3</v>
       </c>
       <c r="F10" s="177" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G10" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H10" s="177" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I10" s="184">
         <v>173</v>
       </c>
       <c r="J10" s="177" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K10" s="177" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L10" s="177" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M10" s="176"/>
     </row>
@@ -14134,25 +14151,25 @@
         <v>4</v>
       </c>
       <c r="F11" s="177" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G11" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H11" s="177" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I11" s="184">
         <v>174</v>
       </c>
       <c r="J11" s="177" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K11" s="177" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L11" s="177" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M11" s="176"/>
     </row>
@@ -14161,25 +14178,25 @@
         <v>5</v>
       </c>
       <c r="F12" s="177" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G12" s="177" t="s">
         <v>231</v>
       </c>
       <c r="H12" s="177" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I12" s="184">
         <v>175</v>
       </c>
       <c r="J12" s="177" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K12" s="177" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L12" s="177" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M12" s="176"/>
     </row>
@@ -14218,7 +14235,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="E16" s="176" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F16" s="176"/>
       <c r="G16" s="176"/>
@@ -14288,8 +14305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:Q40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14315,36 +14332,36 @@
   <sheetData>
     <row r="6" spans="1:17">
       <c r="A6" s="331" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B6" s="331"/>
       <c r="C6" s="176" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="176" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E6" s="176" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F6" s="176" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G6" s="176" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="331"/>
       <c r="B7" s="331"/>
       <c r="C7" s="176" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="176" t="s">
+        <v>573</v>
+      </c>
+      <c r="E7" s="176" t="s">
         <v>570</v>
-      </c>
-      <c r="D7" s="176" t="s">
-        <v>577</v>
-      </c>
-      <c r="E7" s="176" t="s">
-        <v>574</v>
       </c>
       <c r="F7" s="176" t="s">
         <v>101</v>
@@ -14371,10 +14388,10 @@
         <v>108</v>
       </c>
       <c r="N7" s="176" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="O7" s="176" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -14384,45 +14401,45 @@
         <v>166</v>
       </c>
       <c r="D8" s="176" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E8" s="176" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F8" s="176" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G8" s="176" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H8" s="176" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I8" s="176" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="J8" s="176" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K8" s="176" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L8" s="176" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M8" s="176" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N8" s="176" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O8" s="176" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="C10" s="176" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D10" s="177"/>
       <c r="F10" s="176" t="s">
@@ -14430,35 +14447,35 @@
       </c>
       <c r="G10" s="177"/>
       <c r="H10" s="176" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I10" s="177"/>
       <c r="J10" s="176" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K10" s="177"/>
       <c r="L10" s="176" t="s">
+        <v>514</v>
+      </c>
+      <c r="N10" s="176" t="s">
+        <v>515</v>
+      </c>
+      <c r="O10" s="176" t="s">
         <v>516</v>
       </c>
-      <c r="N10" s="176" t="s">
-        <v>517</v>
-      </c>
-      <c r="O10" s="176" t="s">
-        <v>518</v>
-      </c>
       <c r="P10" s="176" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="C11" s="176" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F11" s="258" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G11" s="151"/>
       <c r="I11" s="151"/>
@@ -14472,10 +14489,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="C13" s="226" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D13" s="226" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="257" customFormat="1" ht="27">
@@ -14495,34 +14512,34 @@
         <v>166</v>
       </c>
       <c r="H14" s="89" t="s">
+        <v>520</v>
+      </c>
+      <c r="I14" s="89" t="s">
+        <v>521</v>
+      </c>
+      <c r="J14" s="89" t="s">
         <v>522</v>
       </c>
-      <c r="I14" s="89" t="s">
-        <v>523</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>524</v>
-      </c>
       <c r="K14" s="248" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L14" s="248" t="s">
         <v>410</v>
       </c>
       <c r="M14" s="89" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N14" s="248" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="O14" s="89" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P14" s="248" t="s">
         <v>253</v>
       </c>
       <c r="Q14" s="248" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -14530,13 +14547,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="177" t="s">
-        <v>527</v>
+        <v>620</v>
       </c>
       <c r="E15" s="177" t="s">
         <v>249</v>
       </c>
       <c r="F15" s="249" t="s">
-        <v>528</v>
+        <v>621</v>
       </c>
       <c r="G15" s="177" t="s">
         <v>251</v>
@@ -14545,31 +14562,31 @@
         <v>1.3</v>
       </c>
       <c r="I15" s="177" t="s">
-        <v>529</v>
+        <v>622</v>
       </c>
       <c r="J15" s="177" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K15" s="177" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L15" s="250">
         <v>42866</v>
       </c>
       <c r="M15" s="177" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N15" s="251" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="O15" s="177" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P15" s="177" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Q15" s="177" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -14577,44 +14594,44 @@
         <v>2</v>
       </c>
       <c r="D16" s="177" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E16" s="177" t="s">
         <v>248</v>
       </c>
       <c r="F16" s="249" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G16" s="177" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H16" s="177">
         <v>1.2</v>
       </c>
       <c r="I16" s="177" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J16" s="177" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K16" s="177" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L16" s="250">
         <v>42867</v>
       </c>
       <c r="M16" s="177" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N16" s="251" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O16" s="177" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P16" s="177"/>
       <c r="Q16" s="177" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="3:17">
@@ -14622,49 +14639,49 @@
         <v>3</v>
       </c>
       <c r="D17" s="252" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E17" s="252" t="s">
         <v>248</v>
       </c>
       <c r="F17" s="253" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G17" s="252" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H17" s="252">
         <v>1.2</v>
       </c>
       <c r="I17" s="177" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J17" s="252" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K17" s="252" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L17" s="254">
         <v>42867</v>
       </c>
       <c r="M17" s="252" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N17" s="255" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O17" s="252" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P17" s="252"/>
       <c r="Q17" s="177" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="3:17">
       <c r="D22" s="176" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="3:17" ht="14.25" thickBot="1"/>
@@ -14681,10 +14698,10 @@
     </row>
     <row r="25" spans="3:17">
       <c r="D25" s="139" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E25" s="151" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F25" s="151"/>
       <c r="G25" s="151"/>
@@ -14706,10 +14723,10 @@
     </row>
     <row r="27" spans="3:17">
       <c r="D27" s="139" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E27" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F27" s="151"/>
       <c r="G27" s="151"/>
@@ -14721,10 +14738,10 @@
     </row>
     <row r="28" spans="3:17">
       <c r="D28" s="139" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E28" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F28" s="151"/>
       <c r="G28" s="151"/>
@@ -14736,10 +14753,10 @@
     </row>
     <row r="29" spans="3:17">
       <c r="D29" s="139" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E29" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F29" s="151"/>
       <c r="G29" s="151"/>
@@ -14751,10 +14768,10 @@
     </row>
     <row r="30" spans="3:17">
       <c r="D30" s="139" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E30" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F30" s="151"/>
       <c r="G30" s="151"/>
@@ -14766,10 +14783,10 @@
     </row>
     <row r="31" spans="3:17">
       <c r="D31" s="139" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E31" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F31" s="151"/>
       <c r="G31" s="151"/>
@@ -14781,10 +14798,10 @@
     </row>
     <row r="32" spans="3:17">
       <c r="D32" s="139" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E32" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F32" s="151"/>
       <c r="G32" s="151"/>
@@ -14796,10 +14813,10 @@
     </row>
     <row r="33" spans="4:12">
       <c r="D33" s="139" t="s">
+        <v>589</v>
+      </c>
+      <c r="E33" s="151" t="s">
         <v>593</v>
-      </c>
-      <c r="E33" s="151" t="s">
-        <v>597</v>
       </c>
       <c r="F33" s="151"/>
       <c r="G33" s="151"/>
@@ -14811,10 +14828,10 @@
     </row>
     <row r="34" spans="4:12">
       <c r="D34" s="139" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E34" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F34" s="151"/>
       <c r="G34" s="151"/>
@@ -14826,10 +14843,10 @@
     </row>
     <row r="35" spans="4:12">
       <c r="D35" s="139" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E35" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F35" s="151"/>
       <c r="G35" s="151"/>
@@ -14841,10 +14858,10 @@
     </row>
     <row r="36" spans="4:12">
       <c r="D36" s="139" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E36" s="151" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F36" s="151"/>
       <c r="G36" s="151"/>
@@ -14926,8 +14943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14945,16 +14962,16 @@
   <sheetData>
     <row r="3" spans="1:18">
       <c r="A3" s="176" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D3" s="226" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E3" s="226" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F3" s="226" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -14965,13 +14982,13 @@
     </row>
     <row r="5" spans="1:18">
       <c r="C5" s="226" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D5" s="226" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E5" s="226" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="27">
@@ -14982,13 +14999,13 @@
         <v>410</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>167</v>
@@ -15000,22 +15017,22 @@
         <v>166</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>289</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q6" s="32" t="s">
         <v>202</v>
@@ -15034,17 +15051,17 @@
       <c r="I7" s="177"/>
       <c r="J7" s="177"/>
       <c r="K7" s="177" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L7" s="177"/>
       <c r="M7" s="177"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
       <c r="P7" s="177" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q7" s="177" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="R7" s="177"/>
     </row>
@@ -15065,10 +15082,10 @@
       <c r="N8" s="177"/>
       <c r="O8" s="177"/>
       <c r="P8" s="177" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q8" s="177" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="R8" s="177"/>
     </row>
@@ -15090,13 +15107,13 @@
       <c r="O9" s="177"/>
       <c r="P9" s="177"/>
       <c r="Q9" s="177" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="R9" s="177"/>
     </row>
     <row r="11" spans="1:18">
       <c r="D11" s="226" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -15107,13 +15124,13 @@
         <v>410</v>
       </c>
       <c r="E13" s="177" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13" s="177" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G13" s="177" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H13" s="177" t="s">
         <v>167</v>
@@ -15131,13 +15148,13 @@
         <v>289</v>
       </c>
       <c r="M13" s="177" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N13" s="177" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="P13" s="177" t="s">
         <v>40</v>
@@ -15165,7 +15182,7 @@
       <c r="O14" s="177"/>
       <c r="P14" s="177"/>
       <c r="Q14" s="177" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="R14" s="177"/>
     </row>
@@ -15187,7 +15204,7 @@
       <c r="O15" s="177"/>
       <c r="P15" s="177"/>
       <c r="Q15" s="177" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="R15" s="177"/>
     </row>
@@ -15209,13 +15226,13 @@
       <c r="O16" s="177"/>
       <c r="P16" s="177"/>
       <c r="Q16" s="177" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="R16" s="177"/>
     </row>
     <row r="21" spans="2:13">
       <c r="D21" s="226" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="14.25" thickBot="1"/>
@@ -15257,16 +15274,16 @@
     </row>
     <row r="26" spans="2:13" ht="21" customHeight="1">
       <c r="B26" s="176" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D26" s="139"/>
       <c r="E26" s="151" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F26" s="177"/>
       <c r="G26" s="151"/>
       <c r="H26" s="151" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I26" s="177"/>
       <c r="J26" s="151"/>
@@ -15288,14 +15305,14 @@
     </row>
     <row r="28" spans="2:13" ht="21" customHeight="1">
       <c r="B28" s="176" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D28" s="139"/>
       <c r="E28" s="151" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F28" s="151" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G28" s="151"/>
       <c r="H28" s="151"/>
@@ -15308,7 +15325,7 @@
     <row r="29" spans="2:13" ht="21" customHeight="1">
       <c r="D29" s="139"/>
       <c r="E29" s="151" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F29" s="151">
         <v>581</v>
@@ -15324,7 +15341,7 @@
     <row r="30" spans="2:13" ht="21" customHeight="1">
       <c r="D30" s="139"/>
       <c r="E30" s="151" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F30" s="151">
         <v>25119</v>
@@ -15340,7 +15357,7 @@
     <row r="31" spans="2:13" ht="21" customHeight="1">
       <c r="D31" s="139"/>
       <c r="E31" s="151" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F31" s="177"/>
       <c r="G31" s="151"/>
@@ -15418,7 +15435,7 @@
       <c r="E37" s="151"/>
       <c r="F37" s="151"/>
       <c r="G37" s="258" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H37" s="151"/>
       <c r="I37" s="151"/>
@@ -15465,12 +15482,12 @@
     </row>
     <row r="44" spans="4:13">
       <c r="D44" s="176" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="4:13">
       <c r="D45" s="176" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="4:13" ht="14.25" thickBot="1"/>
@@ -15510,7 +15527,7 @@
     <row r="50" spans="5:13" ht="18.75">
       <c r="E50" s="72"/>
       <c r="F50" s="264" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -15558,10 +15575,10 @@
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
@@ -15837,7 +15854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -15854,10 +15871,10 @@
   <sheetData>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D4" s="176"/>
       <c r="E4" s="176"/>
@@ -15907,31 +15924,31 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="247" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C8" s="177" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D8" s="177" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E8" s="177" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F8" s="177" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G8" s="177" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H8" s="177" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I8" s="177" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J8" s="177" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="K8" s="177" t="s">
         <v>40</v>
@@ -15952,7 +15969,7 @@
       <c r="I9" s="177"/>
       <c r="J9" s="177"/>
       <c r="K9" s="177" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L9" s="177"/>
       <c r="M9" s="176"/>
@@ -15970,7 +15987,7 @@
       <c r="I10" s="177"/>
       <c r="J10" s="177"/>
       <c r="K10" s="177" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L10" s="177"/>
       <c r="M10" s="176"/>
@@ -17322,7 +17339,7 @@
       </c>
       <c r="E10" s="282"/>
       <c r="F10" s="282" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G10" s="282"/>
       <c r="H10" s="89" t="s">
@@ -17335,7 +17352,7 @@
         <v>160</v>
       </c>
       <c r="K10" s="279" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L10" s="280"/>
       <c r="M10" s="32">
@@ -18073,10 +18090,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="115">
